--- a/premise/data/metals/activities_mapping.xlsx
+++ b/premise/data/metals/activities_mapping.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B620114-71CD-8A4D-B365-695A27388BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A220F7-B88E-D04F-BA36-82DBA5E6178F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="activities_mapping" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">activities_mapping!$A$1:$K$309</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1563,10 +1566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E213" sqref="E213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1619,7 +1623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1645,7 +1649,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1671,7 +1675,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1697,7 +1701,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1723,7 +1727,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1749,7 +1753,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1775,7 +1779,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1801,7 +1805,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1827,7 +1831,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1853,7 +1857,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1879,7 +1883,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1905,7 +1909,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1937,7 +1941,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1964,7 +1968,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1990,7 +1994,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2042,7 +2046,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2068,7 +2072,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2094,7 +2098,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2120,7 +2124,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2146,7 +2150,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2172,7 +2176,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2198,7 +2202,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2224,7 +2228,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2250,7 +2254,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2276,7 +2280,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2302,7 +2306,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2328,7 +2332,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2357,7 +2361,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -2383,7 +2387,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2419,7 +2423,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -2446,7 +2450,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2473,7 +2477,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2530,7 +2534,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -2560,7 +2564,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -2589,7 +2593,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -2615,7 +2619,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2675,7 +2679,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2705,7 +2709,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2735,7 +2739,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2765,7 +2769,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -2795,7 +2799,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -2825,7 +2829,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>357</v>
       </c>
@@ -2855,7 +2859,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -2885,7 +2889,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2915,7 +2919,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -2945,7 +2949,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2974,7 +2978,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -3000,7 +3004,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -3030,7 +3034,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -3108,7 +3112,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -3132,7 +3136,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -3156,7 +3160,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -3167,7 +3171,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -3196,7 +3200,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -3225,7 +3229,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -3255,7 +3259,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -3285,7 +3289,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -3321,7 +3325,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -3357,7 +3361,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>343</v>
       </c>
@@ -3393,7 +3397,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -3429,7 +3433,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -3459,7 +3463,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>99</v>
       </c>
@@ -3495,7 +3499,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -3521,7 +3525,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>37</v>
       </c>
@@ -3547,7 +3551,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>357</v>
       </c>
@@ -3573,7 +3577,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D72" s="3" t="s">
         <v>102</v>
       </c>
@@ -3584,7 +3588,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3614,7 +3618,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -3644,7 +3648,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -3674,7 +3678,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -3704,7 +3708,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -3734,7 +3738,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3764,7 +3768,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -3794,7 +3798,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -3824,7 +3828,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -3854,7 +3858,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3884,7 +3888,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -3911,7 +3915,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>34</v>
       </c>
@@ -3938,7 +3942,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>35</v>
       </c>
@@ -3965,7 +3969,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3991,7 +3995,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -4017,7 +4021,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -4046,7 +4050,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -4075,7 +4079,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -4101,7 +4105,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -4127,7 +4131,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -4153,7 +4157,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>27</v>
       </c>
@@ -4189,7 +4193,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -4222,7 +4226,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -4255,7 +4259,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -4288,7 +4292,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -4314,7 +4318,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>25</v>
       </c>
@@ -4340,7 +4344,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -4366,7 +4370,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -4392,7 +4396,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -4418,7 +4422,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>21</v>
       </c>
@@ -4444,7 +4448,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -4470,7 +4474,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>25</v>
       </c>
@@ -4522,7 +4526,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -4552,7 +4556,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>15</v>
       </c>
@@ -4582,7 +4586,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>34</v>
       </c>
@@ -4612,7 +4616,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>35</v>
       </c>
@@ -4642,7 +4646,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>36</v>
       </c>
@@ -4672,7 +4676,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>341</v>
       </c>
@@ -4702,7 +4706,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>156</v>
       </c>
@@ -4728,7 +4732,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -4754,7 +4758,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -4780,7 +4784,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>339</v>
       </c>
@@ -4806,7 +4810,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>25</v>
       </c>
@@ -4832,7 +4836,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -4862,7 +4866,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -4892,7 +4896,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>91</v>
       </c>
@@ -4907,7 +4911,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -4937,7 +4941,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -4973,7 +4977,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>28</v>
       </c>
@@ -5009,7 +5013,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>343</v>
       </c>
@@ -5045,7 +5049,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>29</v>
       </c>
@@ -5078,7 +5082,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -5114,7 +5118,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -5129,7 +5133,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -5144,7 +5148,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -5159,7 +5163,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -5188,7 +5192,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -5214,7 +5218,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -5240,7 +5244,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>156</v>
       </c>
@@ -5266,7 +5270,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>183</v>
       </c>
@@ -5292,7 +5296,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>184</v>
       </c>
@@ -5318,7 +5322,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>23</v>
       </c>
@@ -5353,7 +5357,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>24</v>
       </c>
@@ -5388,7 +5392,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -5402,7 +5406,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>27</v>
       </c>
@@ -5438,7 +5442,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>28</v>
       </c>
@@ -5474,7 +5478,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>343</v>
       </c>
@@ -5510,7 +5514,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>29</v>
       </c>
@@ -5536,7 +5540,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>30</v>
       </c>
@@ -5562,7 +5566,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>34</v>
       </c>
@@ -5591,7 +5595,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>36</v>
       </c>
@@ -5617,7 +5621,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>341</v>
       </c>
@@ -5643,7 +5647,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>25</v>
       </c>
@@ -5669,7 +5673,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -5695,7 +5699,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>15</v>
       </c>
@@ -5721,7 +5725,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -5747,7 +5751,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>183</v>
       </c>
@@ -5773,7 +5777,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>184</v>
       </c>
@@ -5799,7 +5803,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -5825,7 +5829,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -5851,7 +5855,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>22</v>
       </c>
@@ -5877,7 +5881,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>23</v>
       </c>
@@ -5903,7 +5907,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -5929,7 +5933,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>34</v>
       </c>
@@ -5955,7 +5959,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>36</v>
       </c>
@@ -5981,7 +5985,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>25</v>
       </c>
@@ -6007,7 +6011,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -6037,7 +6041,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -6073,7 +6077,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>156</v>
       </c>
@@ -6103,7 +6107,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>183</v>
       </c>
@@ -6133,7 +6137,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -6163,7 +6167,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>156</v>
       </c>
@@ -6177,7 +6181,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>183</v>
       </c>
@@ -6191,7 +6195,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>184</v>
       </c>
@@ -6205,7 +6209,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -6234,7 +6238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -6263,7 +6267,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>22</v>
       </c>
@@ -6292,7 +6296,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>23</v>
       </c>
@@ -6327,7 +6331,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>24</v>
       </c>
@@ -6362,7 +6366,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>91</v>
       </c>
@@ -6388,7 +6392,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>26</v>
       </c>
@@ -6414,7 +6418,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -6450,7 +6454,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>28</v>
       </c>
@@ -6483,7 +6487,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>343</v>
       </c>
@@ -6516,7 +6520,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>29</v>
       </c>
@@ -6549,7 +6553,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>30</v>
       </c>
@@ -6575,7 +6579,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>31</v>
       </c>
@@ -6601,7 +6605,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>99</v>
       </c>
@@ -6627,7 +6631,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>32</v>
       </c>
@@ -6641,7 +6645,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>33</v>
       </c>
@@ -6655,7 +6659,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>34</v>
       </c>
@@ -6684,7 +6688,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>36</v>
       </c>
@@ -6698,7 +6702,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>37</v>
       </c>
@@ -6727,7 +6731,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>341</v>
       </c>
@@ -6756,7 +6760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>25</v>
       </c>
@@ -6782,7 +6786,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -6809,7 +6813,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>15</v>
       </c>
@@ -6836,7 +6840,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>156</v>
       </c>
@@ -6863,7 +6867,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>183</v>
       </c>
@@ -6890,7 +6894,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>184</v>
       </c>
@@ -6917,7 +6921,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>23</v>
       </c>
@@ -6944,7 +6948,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>24</v>
       </c>
@@ -6971,7 +6975,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>25</v>
       </c>
@@ -6998,7 +7002,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>10</v>
       </c>
@@ -7034,7 +7038,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>10</v>
       </c>
@@ -7070,7 +7074,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -7096,7 +7100,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>34</v>
       </c>
@@ -7122,7 +7126,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>36</v>
       </c>
@@ -7148,7 +7152,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>27</v>
       </c>
@@ -7187,7 +7191,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>28</v>
       </c>
@@ -7223,7 +7227,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>29</v>
       </c>
@@ -7256,7 +7260,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>30</v>
       </c>
@@ -7292,7 +7296,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>31</v>
       </c>
@@ -7325,7 +7329,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>10</v>
       </c>
@@ -7361,7 +7365,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>10</v>
       </c>
@@ -7397,7 +7401,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -7452,7 +7456,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>34</v>
       </c>
@@ -7481,7 +7485,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>36</v>
       </c>
@@ -7539,7 +7543,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>37</v>
       </c>
@@ -7598,7 +7602,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>37</v>
       </c>
@@ -7628,7 +7632,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>10</v>
       </c>
@@ -7658,7 +7662,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>15</v>
       </c>
@@ -7688,7 +7692,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>156</v>
       </c>
@@ -7718,7 +7722,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>184</v>
       </c>
@@ -7748,7 +7752,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>341</v>
       </c>
@@ -7778,7 +7782,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -7805,7 +7809,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>10</v>
       </c>
@@ -7831,7 +7835,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>15</v>
       </c>
@@ -7857,7 +7861,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>10</v>
       </c>
@@ -7909,7 +7913,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>10</v>
       </c>
@@ -7939,7 +7943,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -7966,7 +7970,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>10</v>
       </c>
@@ -7996,7 +8000,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>15</v>
       </c>
@@ -8023,7 +8027,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>35</v>
       </c>
@@ -8050,7 +8054,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>266</v>
       </c>
@@ -8077,7 +8081,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -8103,7 +8107,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>19</v>
       </c>
@@ -8117,7 +8121,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>22</v>
       </c>
@@ -8131,7 +8135,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>23</v>
       </c>
@@ -8142,7 +8146,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>24</v>
       </c>
@@ -8153,7 +8157,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>10</v>
       </c>
@@ -8179,7 +8183,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>19</v>
       </c>
@@ -8205,7 +8209,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>20</v>
       </c>
@@ -8231,7 +8235,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -8257,7 +8261,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>276</v>
       </c>
@@ -8283,7 +8287,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>23</v>
       </c>
@@ -8309,7 +8313,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>277</v>
       </c>
@@ -8335,7 +8339,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>24</v>
       </c>
@@ -8361,7 +8365,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>37</v>
       </c>
@@ -8387,7 +8391,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>25</v>
       </c>
@@ -8413,7 +8417,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>27</v>
       </c>
@@ -8427,7 +8431,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>10</v>
       </c>
@@ -8457,7 +8461,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>341</v>
       </c>
@@ -8487,7 +8491,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>10</v>
       </c>
@@ -8513,7 +8517,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>15</v>
       </c>
@@ -8539,7 +8543,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -8565,7 +8569,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>10</v>
       </c>
@@ -8595,7 +8599,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>15</v>
       </c>
@@ -8622,7 +8626,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>156</v>
       </c>
@@ -8649,7 +8653,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>183</v>
       </c>
@@ -8676,7 +8680,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>184</v>
       </c>
@@ -8703,7 +8707,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -8729,7 +8733,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>19</v>
       </c>
@@ -8758,7 +8762,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>20</v>
       </c>
@@ -8787,7 +8791,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>21</v>
       </c>
@@ -8816,7 +8820,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>22</v>
       </c>
@@ -8845,7 +8849,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>25</v>
       </c>
@@ -8871,7 +8875,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>23</v>
       </c>
@@ -8897,7 +8901,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>24</v>
       </c>
@@ -8923,7 +8927,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>30</v>
       </c>
@@ -8952,7 +8956,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>31</v>
       </c>
@@ -9007,7 +9011,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>10</v>
       </c>
@@ -9037,7 +9041,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>25</v>
       </c>
@@ -9067,7 +9071,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>156</v>
       </c>
@@ -9097,7 +9101,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>184</v>
       </c>
@@ -9127,7 +9131,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>23</v>
       </c>
@@ -9157,7 +9161,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>24</v>
       </c>
@@ -9187,7 +9191,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>99</v>
       </c>
@@ -9217,7 +9221,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>25</v>
       </c>
@@ -9247,7 +9251,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>10</v>
       </c>
@@ -9277,7 +9281,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>15</v>
       </c>
@@ -9307,7 +9311,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>10</v>
       </c>
@@ -9337,7 +9341,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>15</v>
       </c>
@@ -9364,7 +9368,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>327</v>
       </c>
@@ -9391,7 +9395,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>36</v>
       </c>
@@ -9418,7 +9422,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>25</v>
       </c>
@@ -9445,7 +9449,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>341</v>
       </c>
@@ -9472,7 +9476,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>183</v>
       </c>
@@ -9501,7 +9505,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>184</v>
       </c>
@@ -9530,7 +9534,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>19</v>
       </c>
@@ -9556,7 +9560,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>21</v>
       </c>
@@ -9585,7 +9589,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>23</v>
       </c>
@@ -9614,7 +9618,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>24</v>
       </c>
@@ -9643,7 +9647,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>36</v>
       </c>
@@ -9669,7 +9673,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>10</v>
       </c>
@@ -9699,7 +9703,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>35</v>
       </c>
@@ -9726,7 +9730,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>36</v>
       </c>
@@ -9756,7 +9760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>37</v>
       </c>
@@ -9786,7 +9790,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>341</v>
       </c>
@@ -9816,7 +9820,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>25</v>
       </c>
@@ -9843,7 +9847,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>32</v>
       </c>
@@ -9879,7 +9883,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>32</v>
       </c>
@@ -9915,7 +9919,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>32</v>
       </c>
@@ -9951,7 +9955,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>32</v>
       </c>
@@ -9965,7 +9969,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>32</v>
       </c>
@@ -9976,7 +9980,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>32</v>
       </c>
@@ -10002,7 +10006,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>33</v>
       </c>
@@ -10032,7 +10036,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>33</v>
       </c>
@@ -10059,7 +10063,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>33</v>
       </c>
@@ -10070,7 +10074,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>33</v>
       </c>
@@ -10081,7 +10085,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>33</v>
       </c>
@@ -10108,6 +10112,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K309" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="PEMEL"/>
+        <filter val="PEMFC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/premise/data/metals/activities_mapping.xlsx
+++ b/premise/data/metals/activities_mapping.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A220F7-B88E-D04F-BA36-82DBA5E6178F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5C9039-E956-E84D-A4DD-7DB010EF8E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1566,11 +1566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E213" sqref="E213"/>
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1623,7 +1622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1649,7 +1648,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1701,7 +1700,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1727,7 +1726,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1753,7 +1752,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1779,7 +1778,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1805,7 +1804,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1857,7 +1856,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1883,7 +1882,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1909,7 +1908,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1994,7 +1993,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2046,7 +2045,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2072,7 +2071,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2098,7 +2097,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2124,7 +2123,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2176,7 +2175,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2202,7 +2201,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2254,7 +2253,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2280,7 +2279,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2306,7 +2305,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2332,7 +2331,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2361,7 +2360,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -2387,7 +2386,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2423,7 +2422,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -2450,7 +2449,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2477,7 +2476,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -2504,7 +2503,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2534,7 +2533,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -2593,7 +2592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -2619,7 +2618,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2649,7 +2648,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2679,7 +2678,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2709,7 +2708,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2739,7 +2738,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -2829,7 +2828,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>357</v>
       </c>
@@ -2859,7 +2858,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -2889,7 +2888,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2919,7 +2918,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -2949,7 +2948,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2978,7 +2977,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -3034,7 +3033,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -3064,7 +3063,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -3112,7 +3111,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -3160,7 +3159,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -3171,7 +3170,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -3200,7 +3199,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -3229,7 +3228,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -3259,7 +3258,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -3289,7 +3288,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -3325,7 +3324,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -3361,7 +3360,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>343</v>
       </c>
@@ -3397,7 +3396,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -3433,7 +3432,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>99</v>
       </c>
@@ -3499,7 +3498,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -3525,7 +3524,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>37</v>
       </c>
@@ -3551,7 +3550,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>357</v>
       </c>
@@ -3577,7 +3576,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D72" s="3" t="s">
         <v>102</v>
       </c>
@@ -3588,7 +3587,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3618,7 +3617,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -3678,7 +3677,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -3708,7 +3707,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -3738,7 +3737,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3768,7 +3767,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -3798,7 +3797,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -3828,7 +3827,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -3858,7 +3857,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3888,7 +3887,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -3915,7 +3914,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>34</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>35</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -4021,7 +4020,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -4050,7 +4049,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -4079,7 +4078,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -4105,7 +4104,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -4131,7 +4130,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -4157,7 +4156,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>27</v>
       </c>
@@ -4193,7 +4192,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -4226,7 +4225,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -4259,7 +4258,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>25</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -4370,7 +4369,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -4396,7 +4395,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -4422,7 +4421,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>21</v>
       </c>
@@ -4448,7 +4447,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -4474,7 +4473,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>25</v>
       </c>
@@ -4526,7 +4525,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -4556,7 +4555,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>15</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>34</v>
       </c>
@@ -4616,7 +4615,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>35</v>
       </c>
@@ -4646,7 +4645,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>36</v>
       </c>
@@ -4676,7 +4675,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>341</v>
       </c>
@@ -4706,7 +4705,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>156</v>
       </c>
@@ -4732,7 +4731,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -4758,7 +4757,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>339</v>
       </c>
@@ -4810,7 +4809,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>25</v>
       </c>
@@ -4836,7 +4835,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -4866,7 +4865,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -4896,7 +4895,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>91</v>
       </c>
@@ -4911,7 +4910,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -4941,7 +4940,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -4977,7 +4976,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>28</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>343</v>
       </c>
@@ -5049,7 +5048,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>29</v>
       </c>
@@ -5082,7 +5081,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -5118,7 +5117,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -5133,7 +5132,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -5148,7 +5147,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -5163,7 +5162,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -5192,7 +5191,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -5218,7 +5217,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -5244,7 +5243,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>156</v>
       </c>
@@ -5270,7 +5269,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>183</v>
       </c>
@@ -5296,7 +5295,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>184</v>
       </c>
@@ -5322,7 +5321,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>23</v>
       </c>
@@ -5357,7 +5356,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>24</v>
       </c>
@@ -5392,7 +5391,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -5406,7 +5405,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>27</v>
       </c>
@@ -5442,7 +5441,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>28</v>
       </c>
@@ -5478,7 +5477,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>343</v>
       </c>
@@ -5514,7 +5513,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>29</v>
       </c>
@@ -5540,7 +5539,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>30</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>34</v>
       </c>
@@ -5595,7 +5594,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>36</v>
       </c>
@@ -5621,7 +5620,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>341</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>25</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -5699,7 +5698,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>15</v>
       </c>
@@ -5725,7 +5724,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>183</v>
       </c>
@@ -5777,7 +5776,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>184</v>
       </c>
@@ -5803,7 +5802,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -5855,7 +5854,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>22</v>
       </c>
@@ -5881,7 +5880,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>23</v>
       </c>
@@ -5907,7 +5906,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -5933,7 +5932,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>34</v>
       </c>
@@ -5959,7 +5958,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>36</v>
       </c>
@@ -5985,7 +5984,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>25</v>
       </c>
@@ -6011,7 +6010,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -6041,7 +6040,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -6077,7 +6076,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>156</v>
       </c>
@@ -6107,7 +6106,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>183</v>
       </c>
@@ -6137,7 +6136,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -6167,7 +6166,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>156</v>
       </c>
@@ -6181,7 +6180,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>183</v>
       </c>
@@ -6195,7 +6194,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>184</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -6238,7 +6237,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -6267,7 +6266,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>22</v>
       </c>
@@ -6296,7 +6295,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>23</v>
       </c>
@@ -6331,7 +6330,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>24</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>91</v>
       </c>
@@ -6392,7 +6391,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>26</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -6454,7 +6453,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>28</v>
       </c>
@@ -6487,7 +6486,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>343</v>
       </c>
@@ -6520,7 +6519,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>29</v>
       </c>
@@ -6553,7 +6552,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>30</v>
       </c>
@@ -6579,7 +6578,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>31</v>
       </c>
@@ -6605,7 +6604,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>99</v>
       </c>
@@ -6631,7 +6630,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>32</v>
       </c>
@@ -6645,7 +6644,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>33</v>
       </c>
@@ -6659,7 +6658,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>34</v>
       </c>
@@ -6688,7 +6687,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>36</v>
       </c>
@@ -6702,7 +6701,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>37</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>341</v>
       </c>
@@ -6760,7 +6759,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>25</v>
       </c>
@@ -6786,7 +6785,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -6813,7 +6812,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>15</v>
       </c>
@@ -6840,7 +6839,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>156</v>
       </c>
@@ -6867,7 +6866,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>183</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>184</v>
       </c>
@@ -6921,7 +6920,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>23</v>
       </c>
@@ -6948,7 +6947,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>24</v>
       </c>
@@ -6975,7 +6974,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>25</v>
       </c>
@@ -7002,7 +7001,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>10</v>
       </c>
@@ -7038,7 +7037,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>10</v>
       </c>
@@ -7074,7 +7073,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -7100,7 +7099,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>34</v>
       </c>
@@ -7126,7 +7125,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>36</v>
       </c>
@@ -7152,7 +7151,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>27</v>
       </c>
@@ -7191,7 +7190,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>28</v>
       </c>
@@ -7227,7 +7226,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>29</v>
       </c>
@@ -7260,7 +7259,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>30</v>
       </c>
@@ -7296,7 +7295,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>31</v>
       </c>
@@ -7329,7 +7328,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>10</v>
       </c>
@@ -7365,7 +7364,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>10</v>
       </c>
@@ -7401,7 +7400,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>34</v>
       </c>
@@ -7485,7 +7484,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>36</v>
       </c>
@@ -7543,7 +7542,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>37</v>
       </c>
@@ -7602,7 +7601,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>37</v>
       </c>
@@ -7632,7 +7631,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>10</v>
       </c>
@@ -7662,7 +7661,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>15</v>
       </c>
@@ -7692,7 +7691,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>156</v>
       </c>
@@ -7722,7 +7721,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>184</v>
       </c>
@@ -7752,7 +7751,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>341</v>
       </c>
@@ -7782,7 +7781,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -7809,7 +7808,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>10</v>
       </c>
@@ -7835,7 +7834,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>15</v>
       </c>
@@ -7861,7 +7860,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>10</v>
       </c>
@@ -7913,7 +7912,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>10</v>
       </c>
@@ -7943,7 +7942,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -7970,7 +7969,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>10</v>
       </c>
@@ -8000,7 +7999,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>15</v>
       </c>
@@ -8027,7 +8026,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>35</v>
       </c>
@@ -8054,7 +8053,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>266</v>
       </c>
@@ -8081,7 +8080,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -8107,7 +8106,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>19</v>
       </c>
@@ -8121,7 +8120,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>22</v>
       </c>
@@ -8135,7 +8134,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>23</v>
       </c>
@@ -8146,7 +8145,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>24</v>
       </c>
@@ -8157,7 +8156,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>10</v>
       </c>
@@ -8183,7 +8182,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>19</v>
       </c>
@@ -8209,7 +8208,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>20</v>
       </c>
@@ -8235,7 +8234,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -8261,7 +8260,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>276</v>
       </c>
@@ -8287,7 +8286,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>23</v>
       </c>
@@ -8313,7 +8312,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>277</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>24</v>
       </c>
@@ -8365,7 +8364,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>37</v>
       </c>
@@ -8391,7 +8390,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>25</v>
       </c>
@@ -8417,7 +8416,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>27</v>
       </c>
@@ -8431,7 +8430,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>10</v>
       </c>
@@ -8461,7 +8460,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>341</v>
       </c>
@@ -8491,7 +8490,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>10</v>
       </c>
@@ -8517,7 +8516,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>15</v>
       </c>
@@ -8543,7 +8542,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -8569,7 +8568,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>10</v>
       </c>
@@ -8599,7 +8598,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>15</v>
       </c>
@@ -8626,7 +8625,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>156</v>
       </c>
@@ -8653,7 +8652,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>183</v>
       </c>
@@ -8680,7 +8679,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>184</v>
       </c>
@@ -8707,7 +8706,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -8733,7 +8732,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>19</v>
       </c>
@@ -8762,7 +8761,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>20</v>
       </c>
@@ -8791,7 +8790,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>21</v>
       </c>
@@ -8820,7 +8819,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>22</v>
       </c>
@@ -8849,7 +8848,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>25</v>
       </c>
@@ -8875,7 +8874,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>23</v>
       </c>
@@ -8901,7 +8900,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>24</v>
       </c>
@@ -8927,7 +8926,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>30</v>
       </c>
@@ -8956,7 +8955,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>31</v>
       </c>
@@ -9011,7 +9010,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>10</v>
       </c>
@@ -9041,7 +9040,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>25</v>
       </c>
@@ -9071,7 +9070,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>156</v>
       </c>
@@ -9101,7 +9100,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>184</v>
       </c>
@@ -9131,7 +9130,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>23</v>
       </c>
@@ -9161,7 +9160,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>24</v>
       </c>
@@ -9191,7 +9190,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>99</v>
       </c>
@@ -9221,7 +9220,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>25</v>
       </c>
@@ -9251,7 +9250,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>10</v>
       </c>
@@ -9281,7 +9280,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>15</v>
       </c>
@@ -9311,7 +9310,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>10</v>
       </c>
@@ -9341,7 +9340,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>15</v>
       </c>
@@ -9368,7 +9367,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>327</v>
       </c>
@@ -9395,7 +9394,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>36</v>
       </c>
@@ -9422,7 +9421,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>25</v>
       </c>
@@ -9449,7 +9448,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>341</v>
       </c>
@@ -9476,7 +9475,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>183</v>
       </c>
@@ -9505,7 +9504,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>184</v>
       </c>
@@ -9534,7 +9533,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>19</v>
       </c>
@@ -9560,7 +9559,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>21</v>
       </c>
@@ -9589,7 +9588,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>23</v>
       </c>
@@ -9618,7 +9617,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>24</v>
       </c>
@@ -9647,7 +9646,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>36</v>
       </c>
@@ -9673,7 +9672,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>10</v>
       </c>
@@ -9703,7 +9702,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>35</v>
       </c>
@@ -9730,7 +9729,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>36</v>
       </c>
@@ -9760,7 +9759,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>37</v>
       </c>
@@ -9790,7 +9789,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>341</v>
       </c>
@@ -9820,7 +9819,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>25</v>
       </c>
@@ -9847,7 +9846,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>32</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>32</v>
       </c>
@@ -9919,7 +9918,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>32</v>
       </c>
@@ -9955,7 +9954,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>32</v>
       </c>
@@ -9969,7 +9968,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>32</v>
       </c>
@@ -9980,7 +9979,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>32</v>
       </c>
@@ -10006,7 +10005,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>33</v>
       </c>
@@ -10036,7 +10035,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>33</v>
       </c>
@@ -10063,7 +10062,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>33</v>
       </c>
@@ -10074,7 +10073,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>33</v>
       </c>
@@ -10085,7 +10084,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>33</v>
       </c>
@@ -10112,14 +10111,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K309" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="PEMEL"/>
-        <filter val="PEMFC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K309" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/premise/data/metals/activities_mapping.xlsx
+++ b/premise/data/metals/activities_mapping.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5C9039-E956-E84D-A4DD-7DB010EF8E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD41A70-9B45-4C86-A192-213302873BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3615" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="activities_mapping" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">activities_mapping!$A$1:$K$309</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">activities_mapping!$A$1:$K$310</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="379">
   <si>
     <t>technology</t>
   </si>
@@ -1159,6 +1159,18 @@
   </si>
   <si>
     <t>sodium tetrafluoroborate production, sodium tetrahydridoborate fluorination</t>
+  </si>
+  <si>
+    <t>perovskite</t>
+  </si>
+  <si>
+    <t>market for indium tin oxide powder, nanoscale, for sputtering target</t>
+  </si>
+  <si>
+    <t>indium tin oxide powder, nanoscale, for sputtering target</t>
+  </si>
+  <si>
+    <t>Unit convertor set to 1 because we want to keep the current intensity for the uncertainty when considering a value of 0 in 2050.</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1566,28 +1578,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M309"/>
+  <dimension ref="A1:M310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1648,7 +1660,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1674,7 +1686,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1700,7 +1712,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1726,7 +1738,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1752,7 +1764,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1778,7 +1790,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1804,7 +1816,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1830,7 +1842,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1856,7 +1868,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1882,7 +1894,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1908,7 +1920,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1940,7 +1952,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1967,7 +1979,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1993,7 +2005,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2019,7 +2031,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2045,7 +2057,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2071,7 +2083,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2097,7 +2109,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2123,7 +2135,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2149,7 +2161,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2175,7 +2187,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2201,7 +2213,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2227,7 +2239,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2253,7 +2265,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2279,7 +2291,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2305,7 +2317,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2331,7 +2343,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2360,7 +2372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -2386,7 +2398,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2422,7 +2434,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -2449,7 +2461,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2476,7 +2488,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -2503,7 +2515,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2533,7 +2545,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -2563,7 +2575,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -2592,7 +2604,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -2618,7 +2630,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2648,7 +2660,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2678,7 +2690,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2708,7 +2720,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2738,7 +2750,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2768,7 +2780,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -2798,7 +2810,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -2828,7 +2840,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="8" t="s">
         <v>357</v>
       </c>
@@ -2858,7 +2870,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -2888,7 +2900,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2918,7 +2930,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -2948,7 +2960,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2977,7 +2989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -3003,7 +3015,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -3033,7 +3045,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -3063,7 +3075,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -3087,7 +3099,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -3111,7 +3123,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -3135,7 +3147,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -3159,7 +3171,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -3170,7 +3182,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -3199,7 +3211,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -3228,7 +3240,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -3258,7 +3270,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -3288,7 +3300,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -3324,7 +3336,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -3360,7 +3372,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>343</v>
       </c>
@@ -3396,7 +3408,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -3432,7 +3444,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -3462,7 +3474,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>99</v>
       </c>
@@ -3498,7 +3510,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -3524,7 +3536,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>37</v>
       </c>
@@ -3550,7 +3562,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11">
       <c r="A71" s="8" t="s">
         <v>357</v>
       </c>
@@ -3576,7 +3588,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11">
       <c r="D72" s="3" t="s">
         <v>102</v>
       </c>
@@ -3587,7 +3599,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3617,7 +3629,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -3647,7 +3659,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -3677,7 +3689,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -3707,7 +3719,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -3737,7 +3749,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3767,7 +3779,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -3797,7 +3809,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -3827,7 +3839,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -3857,7 +3869,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3887,7 +3899,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -3914,7 +3926,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>34</v>
       </c>
@@ -3941,7 +3953,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>35</v>
       </c>
@@ -3968,7 +3980,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3994,7 +4006,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -4020,7 +4032,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -4049,7 +4061,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -4078,7 +4090,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -4104,7 +4116,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -4130,7 +4142,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -4156,7 +4168,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>27</v>
       </c>
@@ -4192,7 +4204,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -4225,7 +4237,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -4258,7 +4270,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -4291,7 +4303,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -4317,7 +4329,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>25</v>
       </c>
@@ -4343,7 +4355,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -4369,7 +4381,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -4395,7 +4407,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -4421,7 +4433,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>21</v>
       </c>
@@ -4447,7 +4459,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -4473,9 +4485,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>25</v>
+        <v>375</v>
       </c>
       <c r="D104" t="s">
         <v>145</v>
@@ -4484,10 +4496,10 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="G104" t="s">
-        <v>146</v>
+        <v>377</v>
       </c>
       <c r="H104" t="s">
         <v>146</v>
@@ -4498,74 +4510,73 @@
       <c r="J104" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K104" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" t="s">
+        <v>145</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>340</v>
+      </c>
+      <c r="G105" t="s">
+        <v>146</v>
+      </c>
+      <c r="H105" t="s">
+        <v>146</v>
+      </c>
+      <c r="I105" t="s">
+        <v>146</v>
+      </c>
+      <c r="J105" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
         <v>147</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D106" t="s">
         <v>148</v>
       </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
         <v>149</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G106" t="s">
         <v>150</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H106" t="s">
         <v>150</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I106" t="s">
         <v>150</v>
       </c>
-      <c r="J105" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="J106" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
         <v>10</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>151</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E107" s="2">
         <f>1/(2*138.905/(2*138.905+3*15.999))</f>
         <v>1.1727691587775819</v>
       </c>
-      <c r="F106" t="s">
-        <v>152</v>
-      </c>
-      <c r="G106" t="s">
-        <v>153</v>
-      </c>
-      <c r="H106" t="s">
-        <v>153</v>
-      </c>
-      <c r="I106" t="s">
-        <v>154</v>
-      </c>
-      <c r="J106" t="s">
-        <v>337</v>
-      </c>
-      <c r="K106" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" t="s">
-        <v>151</v>
-      </c>
-      <c r="E107" s="2">
-        <f t="shared" ref="E107:E111" si="6">1/(2*138.905/(2*138.905+3*15.999))</f>
-        <v>1.1727691587775819</v>
-      </c>
       <c r="F107" t="s">
         <v>152</v>
       </c>
@@ -4585,15 +4596,15 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
         <v>151</v>
       </c>
       <c r="E108" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E108:E112" si="6">1/(2*138.905/(2*138.905+3*15.999))</f>
         <v>1.1727691587775819</v>
       </c>
       <c r="F108" t="s">
@@ -4615,9 +4626,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D109" t="s">
         <v>151</v>
@@ -4645,9 +4656,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D110" t="s">
         <v>151</v>
@@ -4675,9 +4686,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>341</v>
+        <v>36</v>
       </c>
       <c r="D111" t="s">
         <v>151</v>
@@ -4705,35 +4716,39 @@
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
+        <v>341</v>
+      </c>
+      <c r="D112" t="s">
+        <v>151</v>
+      </c>
+      <c r="E112" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1727691587775819</v>
+      </c>
+      <c r="F112" t="s">
+        <v>152</v>
+      </c>
+      <c r="G112" t="s">
+        <v>153</v>
+      </c>
+      <c r="H112" t="s">
+        <v>153</v>
+      </c>
+      <c r="I112" t="s">
+        <v>154</v>
+      </c>
+      <c r="J112" t="s">
+        <v>337</v>
+      </c>
+      <c r="K112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
         <v>156</v>
-      </c>
-      <c r="D112" t="s">
-        <v>157</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
-      <c r="F112" t="s">
-        <v>158</v>
-      </c>
-      <c r="G112" t="s">
-        <v>159</v>
-      </c>
-      <c r="H112" t="s">
-        <v>159</v>
-      </c>
-      <c r="I112" t="s">
-        <v>159</v>
-      </c>
-      <c r="J112" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>19</v>
       </c>
       <c r="D113" t="s">
         <v>157</v>
@@ -4757,9 +4772,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D114" t="s">
         <v>157</v>
@@ -4783,9 +4798,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>339</v>
+        <v>20</v>
       </c>
       <c r="D115" t="s">
         <v>157</v>
@@ -4809,9 +4824,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>25</v>
+        <v>339</v>
       </c>
       <c r="D116" t="s">
         <v>157</v>
@@ -4835,39 +4850,35 @@
         <v>337</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" t="s">
+        <v>157</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>158</v>
+      </c>
+      <c r="G117" t="s">
+        <v>159</v>
+      </c>
+      <c r="H117" t="s">
+        <v>159</v>
+      </c>
+      <c r="I117" t="s">
+        <v>159</v>
+      </c>
+      <c r="J117" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
         <v>10</v>
-      </c>
-      <c r="D117" t="s">
-        <v>160</v>
-      </c>
-      <c r="E117" s="2">
-        <f>1/(2*6.941/(2*6.941+12.012+3*15.999))</f>
-        <v>5.3227921048840221</v>
-      </c>
-      <c r="F117" t="s">
-        <v>161</v>
-      </c>
-      <c r="G117" t="s">
-        <v>162</v>
-      </c>
-      <c r="H117" t="s">
-        <v>162</v>
-      </c>
-      <c r="I117" t="s">
-        <v>163</v>
-      </c>
-      <c r="J117" t="s">
-        <v>337</v>
-      </c>
-      <c r="K117" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>15</v>
       </c>
       <c r="D118" t="s">
         <v>160</v>
@@ -4895,76 +4906,70 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
         <v>160</v>
       </c>
-      <c r="E119" s="2"/>
+      <c r="E119" s="2">
+        <f>1/(2*6.941/(2*6.941+12.012+3*15.999))</f>
+        <v>5.3227921048840221</v>
+      </c>
+      <c r="F119" t="s">
+        <v>161</v>
+      </c>
+      <c r="G119" t="s">
+        <v>162</v>
+      </c>
+      <c r="H119" t="s">
+        <v>162</v>
+      </c>
+      <c r="I119" t="s">
+        <v>163</v>
+      </c>
       <c r="J119" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K119" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D120" t="s">
         <v>160</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="2"/>
+      <c r="J120" t="s">
+        <v>338</v>
+      </c>
+      <c r="K120" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" t="s">
+        <v>160</v>
+      </c>
+      <c r="E121" s="2">
         <f>1/(1*6.941/(1*6.941+54.938*2+15.999*4))</f>
         <v>26.049992796427031</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F121" t="s">
         <v>166</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G121" t="s">
         <v>167</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H121" t="s">
         <v>167</v>
-      </c>
-      <c r="I120" t="s">
-        <v>163</v>
-      </c>
-      <c r="J120" t="s">
-        <v>337</v>
-      </c>
-      <c r="K120" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>27</v>
-      </c>
-      <c r="B121" t="s">
-        <v>368</v>
-      </c>
-      <c r="C121" t="s">
-        <v>368</v>
-      </c>
-      <c r="D121" t="s">
-        <v>160</v>
-      </c>
-      <c r="E121" s="2">
-        <f>1/(2*6.941/(2*6.941+12.012+3*15.999))/0.41/0.95</f>
-        <v>13.665705018957697</v>
-      </c>
-      <c r="F121" t="s">
-        <v>161</v>
-      </c>
-      <c r="G121" t="s">
-        <v>162</v>
-      </c>
-      <c r="H121" t="s">
-        <v>162</v>
       </c>
       <c r="I121" t="s">
         <v>163</v>
@@ -4973,18 +4978,18 @@
         <v>337</v>
       </c>
       <c r="K121" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B122" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C122" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D122" t="s">
         <v>160</v>
@@ -5012,129 +5017,150 @@
         <v>164</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>343</v>
+        <v>28</v>
       </c>
       <c r="B123" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C123" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D123" t="s">
         <v>160</v>
       </c>
       <c r="E123" s="2">
+        <f>1/(2*6.941/(2*6.941+12.012+3*15.999))/0.41/0.95</f>
+        <v>13.665705018957697</v>
+      </c>
+      <c r="F123" t="s">
+        <v>161</v>
+      </c>
+      <c r="G123" t="s">
+        <v>162</v>
+      </c>
+      <c r="H123" t="s">
+        <v>162</v>
+      </c>
+      <c r="I123" t="s">
+        <v>163</v>
+      </c>
+      <c r="J123" t="s">
+        <v>337</v>
+      </c>
+      <c r="K123" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
+        <v>343</v>
+      </c>
+      <c r="B124" t="s">
+        <v>370</v>
+      </c>
+      <c r="C124" t="s">
+        <v>370</v>
+      </c>
+      <c r="D124" t="s">
+        <v>160</v>
+      </c>
+      <c r="E124" s="2">
         <f>1/(1*6.941/(1*6.941+1*1.008+1*15.999))/0.3773/0.95</f>
         <v>9.6257991288856779</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F124" t="s">
         <v>169</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G124" t="s">
         <v>170</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H124" t="s">
         <v>170</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I124" t="s">
         <v>163</v>
       </c>
-      <c r="J123" t="s">
-        <v>337</v>
-      </c>
-      <c r="K123" t="s">
+      <c r="J124" t="s">
+        <v>337</v>
+      </c>
+      <c r="K124" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="125" spans="1:11">
+      <c r="A125" t="s">
         <v>29</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>371</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>371</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D125" t="s">
         <v>160</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E125" s="2">
         <f>1/(1*6.941/(1*6.941+1*1.008+1*15.999))/0.3738/0.95</f>
         <v>9.7159283342123235</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F125" t="s">
         <v>169</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G125" t="s">
         <v>170</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H125" t="s">
         <v>170</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I125" t="s">
         <v>163</v>
       </c>
-      <c r="J124" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="J125" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" t="s">
         <v>30</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>172</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>172</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D126" t="s">
         <v>160</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E126" s="2">
         <f>1/(1*6.941/(1*6.941+1*55.847+1*30.974+4*15.999))</f>
         <v>22.728425298948281</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F126" t="s">
         <v>360</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G126" t="s">
         <v>361</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H126" t="s">
         <v>361</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I126" t="s">
         <v>163</v>
       </c>
-      <c r="J125" t="s">
-        <v>337</v>
-      </c>
-      <c r="K125" t="s">
+      <c r="J126" t="s">
+        <v>337</v>
+      </c>
+      <c r="K126" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="127" spans="1:11">
+      <c r="A127" t="s">
         <v>31</v>
-      </c>
-      <c r="D126" t="s">
-        <v>160</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="J126" t="s">
-        <v>338</v>
-      </c>
-      <c r="K126" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>32</v>
       </c>
       <c r="D127" t="s">
         <v>160</v>
@@ -5144,12 +5170,12 @@
         <v>338</v>
       </c>
       <c r="K127" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D128" t="s">
         <v>160</v>
@@ -5162,38 +5188,24 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" t="s">
+        <v>160</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="J129" t="s">
+        <v>338</v>
+      </c>
+      <c r="K129" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" t="s">
         <v>23</v>
-      </c>
-      <c r="D129" t="s">
-        <v>176</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="F129" t="s">
-        <v>177</v>
-      </c>
-      <c r="G129" t="s">
-        <v>178</v>
-      </c>
-      <c r="H129" t="s">
-        <v>178</v>
-      </c>
-      <c r="I129" t="s">
-        <v>178</v>
-      </c>
-      <c r="J129" t="s">
-        <v>337</v>
-      </c>
-      <c r="K129" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>24</v>
       </c>
       <c r="D130" t="s">
         <v>176</v>
@@ -5216,36 +5228,39 @@
       <c r="J130" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K130" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" t="s">
+        <v>176</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>177</v>
+      </c>
+      <c r="G131" t="s">
+        <v>178</v>
+      </c>
+      <c r="H131" t="s">
+        <v>178</v>
+      </c>
+      <c r="I131" t="s">
+        <v>178</v>
+      </c>
+      <c r="J131" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" t="s">
         <v>10</v>
-      </c>
-      <c r="D131" t="s">
-        <v>180</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131" t="s">
-        <v>181</v>
-      </c>
-      <c r="G131" t="s">
-        <v>182</v>
-      </c>
-      <c r="H131" t="s">
-        <v>182</v>
-      </c>
-      <c r="I131" t="s">
-        <v>182</v>
-      </c>
-      <c r="J131" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>156</v>
       </c>
       <c r="D132" t="s">
         <v>180</v>
@@ -5269,9 +5284,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D133" t="s">
         <v>180</v>
@@ -5295,9 +5310,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D134" t="s">
         <v>180</v>
@@ -5321,15 +5336,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>23</v>
-      </c>
-      <c r="B135" t="s">
-        <v>186</v>
-      </c>
-      <c r="C135" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D135" t="s">
         <v>180</v>
@@ -5352,19 +5361,16 @@
       <c r="J135" t="s">
         <v>337</v>
       </c>
-      <c r="K135" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B136" t="s">
-        <v>358</v>
+        <v>186</v>
       </c>
       <c r="C136" t="s">
-        <v>359</v>
+        <v>185</v>
       </c>
       <c r="D136" t="s">
         <v>180</v>
@@ -5391,65 +5397,64 @@
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B137" t="s">
+        <v>358</v>
+      </c>
+      <c r="C137" t="s">
+        <v>359</v>
       </c>
       <c r="D137" t="s">
         <v>180</v>
       </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>181</v>
+      </c>
+      <c r="G137" t="s">
+        <v>182</v>
+      </c>
+      <c r="H137" t="s">
+        <v>182</v>
+      </c>
+      <c r="I137" t="s">
+        <v>182</v>
+      </c>
       <c r="J137" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K137" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>27</v>
-      </c>
-      <c r="B138" t="s">
-        <v>372</v>
-      </c>
-      <c r="C138" t="s">
-        <v>372</v>
+        <v>26</v>
       </c>
       <c r="D138" t="s">
         <v>180</v>
       </c>
-      <c r="E138" s="2">
-        <f>1/(1*54.938/(1*54.938+32.065*1+4*15.999))/0.41/0.95/0.949</f>
-        <v>7.4357974595432594</v>
-      </c>
-      <c r="F138" t="s">
-        <v>189</v>
-      </c>
-      <c r="G138" t="s">
-        <v>190</v>
-      </c>
-      <c r="H138" t="s">
-        <v>190</v>
-      </c>
-      <c r="I138" t="s">
-        <v>182</v>
-      </c>
       <c r="J138" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K138" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B139" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C139" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D139" t="s">
         <v>180</v>
@@ -5477,60 +5482,67 @@
         <v>81</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>343</v>
+        <v>28</v>
       </c>
       <c r="B140" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="C140" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="D140" t="s">
         <v>180</v>
       </c>
       <c r="E140" s="2">
+        <f>1/(1*54.938/(1*54.938+32.065*1+4*15.999))/0.41/0.95/0.949</f>
+        <v>7.4357974595432594</v>
+      </c>
+      <c r="F140" t="s">
+        <v>189</v>
+      </c>
+      <c r="G140" t="s">
+        <v>190</v>
+      </c>
+      <c r="H140" t="s">
+        <v>190</v>
+      </c>
+      <c r="I140" t="s">
+        <v>182</v>
+      </c>
+      <c r="J140" t="s">
+        <v>337</v>
+      </c>
+      <c r="K140" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" t="s">
+        <v>343</v>
+      </c>
+      <c r="B141" t="s">
+        <v>342</v>
+      </c>
+      <c r="C141" t="s">
+        <v>342</v>
+      </c>
+      <c r="D141" t="s">
+        <v>180</v>
+      </c>
+      <c r="E141" s="2">
         <f>1/(1*54.938/(1*54.938+32.065*1+4*15.999))/0.3773/0.95/0.949</f>
         <v>8.0802463779823377</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F141" t="s">
         <v>189</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G141" t="s">
         <v>190</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H141" t="s">
         <v>190</v>
-      </c>
-      <c r="I140" t="s">
-        <v>182</v>
-      </c>
-      <c r="J140" t="s">
-        <v>337</v>
-      </c>
-      <c r="K140" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>29</v>
-      </c>
-      <c r="D141" t="s">
-        <v>180</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-      <c r="F141" t="s">
-        <v>181</v>
-      </c>
-      <c r="G141" t="s">
-        <v>182</v>
-      </c>
-      <c r="H141" t="s">
-        <v>182</v>
       </c>
       <c r="I141" t="s">
         <v>182</v>
@@ -5538,10 +5550,13 @@
       <c r="J141" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K141" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D142" t="s">
         <v>180</v>
@@ -5565,9 +5580,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D143" t="s">
         <v>180</v>
@@ -5590,13 +5605,10 @@
       <c r="J143" t="s">
         <v>337</v>
       </c>
-      <c r="K143" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D144" t="s">
         <v>180</v>
@@ -5619,10 +5631,13 @@
       <c r="J144" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K144" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>341</v>
+        <v>36</v>
       </c>
       <c r="D145" t="s">
         <v>180</v>
@@ -5646,9 +5661,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>25</v>
+        <v>341</v>
       </c>
       <c r="D146" t="s">
         <v>180</v>
@@ -5672,35 +5687,35 @@
         <v>337</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" t="s">
+        <v>180</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>181</v>
+      </c>
+      <c r="G147" t="s">
+        <v>182</v>
+      </c>
+      <c r="H147" t="s">
+        <v>182</v>
+      </c>
+      <c r="I147" t="s">
+        <v>182</v>
+      </c>
+      <c r="J147" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
         <v>10</v>
-      </c>
-      <c r="D147" t="s">
-        <v>191</v>
-      </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-      <c r="F147" t="s">
-        <v>192</v>
-      </c>
-      <c r="G147" t="s">
-        <v>193</v>
-      </c>
-      <c r="H147" t="s">
-        <v>193</v>
-      </c>
-      <c r="I147" t="s">
-        <v>193</v>
-      </c>
-      <c r="J147" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>15</v>
       </c>
       <c r="D148" t="s">
         <v>191</v>
@@ -5724,9 +5739,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="D149" t="s">
         <v>191</v>
@@ -5750,9 +5765,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D150" t="s">
         <v>191</v>
@@ -5776,9 +5791,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D151" t="s">
         <v>191</v>
@@ -5802,9 +5817,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="D152" t="s">
         <v>191</v>
@@ -5828,9 +5843,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D153" t="s">
         <v>191</v>
@@ -5854,9 +5869,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D154" t="s">
         <v>191</v>
@@ -5880,9 +5895,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D155" t="s">
         <v>191</v>
@@ -5906,9 +5921,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D156" t="s">
         <v>191</v>
@@ -5932,9 +5947,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D157" t="s">
         <v>191</v>
@@ -5958,9 +5973,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D158" t="s">
         <v>191</v>
@@ -5984,9 +5999,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D159" t="s">
         <v>191</v>
@@ -6010,83 +6025,79 @@
         <v>337</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160" t="s">
+        <v>191</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>192</v>
+      </c>
+      <c r="G160" t="s">
+        <v>193</v>
+      </c>
+      <c r="H160" t="s">
+        <v>193</v>
+      </c>
+      <c r="I160" t="s">
+        <v>193</v>
+      </c>
+      <c r="J160" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" t="s">
         <v>10</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D161" t="s">
         <v>194</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E161" s="2">
         <f>1/(2*144.242/(2*144.242+3*15.999))</f>
         <v>1.1663766448052579</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F161" t="s">
         <v>195</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G161" t="s">
         <v>196</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H161" t="s">
         <v>196</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I161" t="s">
         <v>197</v>
       </c>
-      <c r="J160" t="s">
-        <v>337</v>
-      </c>
-      <c r="K160" t="s">
+      <c r="J161" t="s">
+        <v>337</v>
+      </c>
+      <c r="K161" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="162" spans="1:11">
+      <c r="A162" t="s">
         <v>15</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" t="s">
         <v>45</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C162" t="s">
         <v>46</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D162" t="s">
         <v>194</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E162" s="2">
         <f>1/(2*144.242/(2*144.242+3*15.999))/0.0373584905660377</f>
         <v>31.221193017514512</v>
       </c>
-      <c r="F161" t="s">
-        <v>195</v>
-      </c>
-      <c r="G161" t="s">
-        <v>196</v>
-      </c>
-      <c r="H161" t="s">
-        <v>196</v>
-      </c>
-      <c r="I161" t="s">
-        <v>197</v>
-      </c>
-      <c r="J161" t="s">
-        <v>337</v>
-      </c>
-      <c r="K161" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>156</v>
-      </c>
-      <c r="D162" t="s">
-        <v>194</v>
-      </c>
-      <c r="E162" s="2">
-        <f t="shared" ref="E162:E164" si="7">1/(2*144.242/(2*144.242+3*15.999))</f>
-        <v>1.1663766448052579</v>
-      </c>
       <c r="F162" t="s">
         <v>195</v>
       </c>
@@ -6106,15 +6117,15 @@
         <v>198</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D163" t="s">
         <v>194</v>
       </c>
       <c r="E163" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E163:E165" si="7">1/(2*144.242/(2*144.242+3*15.999))</f>
         <v>1.1663766448052579</v>
       </c>
       <c r="F163" t="s">
@@ -6136,9 +6147,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11">
       <c r="A164" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D164" t="s">
         <v>194</v>
@@ -6166,23 +6177,39 @@
         <v>198</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11">
       <c r="A165" t="s">
+        <v>184</v>
+      </c>
+      <c r="D165" t="s">
+        <v>194</v>
+      </c>
+      <c r="E165" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1663766448052579</v>
+      </c>
+      <c r="F165" t="s">
+        <v>195</v>
+      </c>
+      <c r="G165" t="s">
+        <v>196</v>
+      </c>
+      <c r="H165" t="s">
+        <v>196</v>
+      </c>
+      <c r="I165" t="s">
+        <v>197</v>
+      </c>
+      <c r="J165" t="s">
+        <v>337</v>
+      </c>
+      <c r="K165" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" t="s">
         <v>156</v>
-      </c>
-      <c r="D165" t="s">
-        <v>199</v>
-      </c>
-      <c r="J165" t="s">
-        <v>338</v>
-      </c>
-      <c r="K165" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>183</v>
       </c>
       <c r="D166" t="s">
         <v>199</v>
@@ -6194,9 +6221,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11">
       <c r="A167" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D167" t="s">
         <v>199</v>
@@ -6208,38 +6235,23 @@
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11">
       <c r="A168" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="D168" t="s">
         <v>199</v>
       </c>
-      <c r="E168">
-        <v>1</v>
-      </c>
-      <c r="F168" t="s">
-        <v>201</v>
-      </c>
-      <c r="G168" t="s">
-        <v>202</v>
-      </c>
-      <c r="H168" t="s">
-        <v>202</v>
-      </c>
-      <c r="I168" t="s">
-        <v>203</v>
-      </c>
       <c r="J168" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D169" t="s">
         <v>199</v>
@@ -6263,12 +6275,12 @@
         <v>337</v>
       </c>
       <c r="K169" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D170" t="s">
         <v>199</v>
@@ -6292,18 +6304,12 @@
         <v>337</v>
       </c>
       <c r="K170" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" t="s">
-        <v>23</v>
-      </c>
-      <c r="B171" t="s">
-        <v>186</v>
-      </c>
-      <c r="C171" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="D171" t="s">
         <v>199</v>
@@ -6327,18 +6333,18 @@
         <v>337</v>
       </c>
       <c r="K171" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B172" t="s">
-        <v>358</v>
+        <v>186</v>
       </c>
       <c r="C172" t="s">
-        <v>359</v>
+        <v>185</v>
       </c>
       <c r="D172" t="s">
         <v>199</v>
@@ -6365,9 +6371,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11">
       <c r="A173" t="s">
-        <v>91</v>
+        <v>24</v>
+      </c>
+      <c r="B173" t="s">
+        <v>358</v>
+      </c>
+      <c r="C173" t="s">
+        <v>359</v>
       </c>
       <c r="D173" t="s">
         <v>199</v>
@@ -6390,10 +6402,13 @@
       <c r="J173" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K173" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D174" t="s">
         <v>199</v>
@@ -6417,31 +6432,24 @@
         <v>337</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11">
       <c r="A175" t="s">
-        <v>27</v>
-      </c>
-      <c r="B175" t="s">
-        <v>372</v>
-      </c>
-      <c r="C175" t="s">
-        <v>372</v>
+        <v>26</v>
       </c>
       <c r="D175" t="s">
         <v>199</v>
       </c>
-      <c r="E175" s="2">
-        <f>1/(1*58.693/(1*58.693+1*32.065+4*15.999))/0.41/0.95</f>
-        <v>6.7693678254074037</v>
+      <c r="E175">
+        <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G175" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H175" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I175" t="s">
         <v>203</v>
@@ -6449,19 +6457,16 @@
       <c r="J175" t="s">
         <v>337</v>
       </c>
-      <c r="K175" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B176" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C176" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D176" t="s">
         <v>199</v>
@@ -6485,91 +6490,101 @@
       <c r="J176" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K176" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" t="s">
-        <v>343</v>
+        <v>28</v>
       </c>
       <c r="B177" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="C177" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="D177" t="s">
         <v>199</v>
       </c>
       <c r="E177" s="2">
+        <f>1/(1*58.693/(1*58.693+1*32.065+4*15.999))/0.41/0.95</f>
+        <v>6.7693678254074037</v>
+      </c>
+      <c r="F177" t="s">
+        <v>205</v>
+      </c>
+      <c r="G177" t="s">
+        <v>206</v>
+      </c>
+      <c r="H177" t="s">
+        <v>206</v>
+      </c>
+      <c r="I177" t="s">
+        <v>203</v>
+      </c>
+      <c r="J177" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" t="s">
+        <v>343</v>
+      </c>
+      <c r="B178" t="s">
+        <v>342</v>
+      </c>
+      <c r="C178" t="s">
+        <v>342</v>
+      </c>
+      <c r="D178" t="s">
+        <v>199</v>
+      </c>
+      <c r="E178" s="2">
         <f>1/(1*58.693/(1*58.693+1*32.065+4*15.999))/0.3773/0.95</f>
         <v>7.3560583313465013</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F178" t="s">
         <v>205</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G178" t="s">
         <v>206</v>
       </c>
-      <c r="H177" t="s">
+      <c r="H178" t="s">
         <v>206</v>
       </c>
-      <c r="I177" t="s">
+      <c r="I178" t="s">
         <v>203</v>
       </c>
-      <c r="J177" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="J178" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" t="s">
         <v>29</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>98</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C179" t="s">
         <v>98</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D179" t="s">
         <v>199</v>
       </c>
-      <c r="E178" s="2">
+      <c r="E179" s="2">
         <f>1/(1*58.693/(1*58.693+1*32.065+4*15.999))/0.3738/0.95/0.95</f>
         <v>7.8157213494889888</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F179" t="s">
         <v>205</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G179" t="s">
         <v>206</v>
       </c>
-      <c r="H178" t="s">
+      <c r="H179" t="s">
         <v>206</v>
-      </c>
-      <c r="I178" t="s">
-        <v>203</v>
-      </c>
-      <c r="J178" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>30</v>
-      </c>
-      <c r="D179" t="s">
-        <v>199</v>
-      </c>
-      <c r="E179">
-        <v>1</v>
-      </c>
-      <c r="F179" t="s">
-        <v>201</v>
-      </c>
-      <c r="G179" t="s">
-        <v>202</v>
-      </c>
-      <c r="H179" t="s">
-        <v>202</v>
       </c>
       <c r="I179" t="s">
         <v>203</v>
@@ -6578,9 +6593,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11">
       <c r="A180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D180" t="s">
         <v>199</v>
@@ -6604,9 +6619,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11">
       <c r="A181" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D181" t="s">
         <v>199</v>
@@ -6630,23 +6645,35 @@
         <v>337</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11">
       <c r="A182" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="D182" t="s">
         <v>199</v>
       </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182" t="s">
+        <v>201</v>
+      </c>
+      <c r="G182" t="s">
+        <v>202</v>
+      </c>
+      <c r="H182" t="s">
+        <v>202</v>
+      </c>
+      <c r="I182" t="s">
+        <v>203</v>
+      </c>
       <c r="J182" t="s">
-        <v>338</v>
-      </c>
-      <c r="K182" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D183" t="s">
         <v>199</v>
@@ -6658,81 +6685,66 @@
         <v>165</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11">
       <c r="A184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D184" t="s">
         <v>199</v>
       </c>
-      <c r="E184">
-        <v>1</v>
-      </c>
-      <c r="F184" t="s">
-        <v>201</v>
-      </c>
-      <c r="G184" t="s">
-        <v>202</v>
-      </c>
-      <c r="H184" t="s">
-        <v>202</v>
-      </c>
-      <c r="I184" t="s">
-        <v>203</v>
-      </c>
       <c r="J184" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K184" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D185" t="s">
         <v>199</v>
       </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185" t="s">
+        <v>201</v>
+      </c>
+      <c r="G185" t="s">
+        <v>202</v>
+      </c>
+      <c r="H185" t="s">
+        <v>202</v>
+      </c>
+      <c r="I185" t="s">
+        <v>203</v>
+      </c>
       <c r="J185" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K185" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D186" t="s">
         <v>199</v>
       </c>
-      <c r="E186">
-        <v>1</v>
-      </c>
-      <c r="F186" t="s">
-        <v>201</v>
-      </c>
-      <c r="G186" t="s">
-        <v>202</v>
-      </c>
-      <c r="H186" t="s">
-        <v>202</v>
-      </c>
-      <c r="I186" t="s">
-        <v>203</v>
-      </c>
       <c r="J186" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K186" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" t="s">
-        <v>341</v>
+        <v>37</v>
       </c>
       <c r="D187" t="s">
         <v>199</v>
@@ -6759,9 +6771,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11">
       <c r="A188" t="s">
-        <v>25</v>
+        <v>341</v>
       </c>
       <c r="D188" t="s">
         <v>199</v>
@@ -6784,45 +6796,47 @@
       <c r="J188" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K188" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" t="s">
+        <v>25</v>
+      </c>
+      <c r="D189" t="s">
+        <v>199</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189" t="s">
+        <v>201</v>
+      </c>
+      <c r="G189" t="s">
+        <v>202</v>
+      </c>
+      <c r="H189" t="s">
+        <v>202</v>
+      </c>
+      <c r="I189" t="s">
+        <v>203</v>
+      </c>
+      <c r="J189" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" t="s">
         <v>10</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D190" t="s">
         <v>208</v>
       </c>
-      <c r="E189" s="2">
+      <c r="E190" s="2">
         <f>1/0.66</f>
         <v>1.5151515151515151</v>
       </c>
-      <c r="F189" t="s">
-        <v>209</v>
-      </c>
-      <c r="G189" t="s">
-        <v>210</v>
-      </c>
-      <c r="H189" t="s">
-        <v>210</v>
-      </c>
-      <c r="I189" t="s">
-        <v>211</v>
-      </c>
-      <c r="J189" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>15</v>
-      </c>
-      <c r="D190" t="s">
-        <v>208</v>
-      </c>
-      <c r="E190" s="2">
-        <f t="shared" ref="E190:E196" si="8">1/0.66</f>
-        <v>1.5151515151515151</v>
-      </c>
       <c r="F190" t="s">
         <v>209</v>
       </c>
@@ -6839,15 +6853,15 @@
         <v>337</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11">
       <c r="A191" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="D191" t="s">
         <v>208</v>
       </c>
       <c r="E191" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E191:E197" si="8">1/0.66</f>
         <v>1.5151515151515151</v>
       </c>
       <c r="F191" t="s">
@@ -6866,9 +6880,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11">
       <c r="A192" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D192" t="s">
         <v>208</v>
@@ -6893,9 +6907,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13">
       <c r="A193" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D193" t="s">
         <v>208</v>
@@ -6920,9 +6934,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13">
       <c r="A194" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="D194" t="s">
         <v>208</v>
@@ -6947,9 +6961,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13">
       <c r="A195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D195" t="s">
         <v>208</v>
@@ -6974,9 +6988,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13">
       <c r="A196" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D196" t="s">
         <v>208</v>
@@ -7001,88 +7015,86 @@
         <v>337</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A197" s="6" t="s">
+    <row r="197" spans="1:13">
+      <c r="A197" t="s">
+        <v>25</v>
+      </c>
+      <c r="D197" t="s">
+        <v>208</v>
+      </c>
+      <c r="E197" s="2">
+        <f t="shared" si="8"/>
+        <v>1.5151515151515151</v>
+      </c>
+      <c r="F197" t="s">
+        <v>209</v>
+      </c>
+      <c r="G197" t="s">
+        <v>210</v>
+      </c>
+      <c r="H197" t="s">
+        <v>210</v>
+      </c>
+      <c r="I197" t="s">
+        <v>211</v>
+      </c>
+      <c r="J197" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
+      <c r="A198" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>212</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C198" t="s">
         <v>213</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D198" t="s">
         <v>214</v>
       </c>
-      <c r="E197" s="2">
+      <c r="E198" s="2">
         <f>1/0.26013</f>
         <v>3.8442317302887021</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F198" t="s">
         <v>215</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G198" t="s">
         <v>216</v>
       </c>
-      <c r="H197" t="s">
+      <c r="H198" t="s">
         <v>216</v>
       </c>
-      <c r="I197" t="s">
+      <c r="I198" t="s">
         <v>216</v>
       </c>
-      <c r="J197" t="s">
-        <v>337</v>
-      </c>
-      <c r="K197" t="s">
+      <c r="J198" t="s">
+        <v>337</v>
+      </c>
+      <c r="K198" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A198" s="6" t="s">
+    <row r="199" spans="1:13">
+      <c r="A199" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>212</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C199" t="s">
         <v>213</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D199" t="s">
         <v>214</v>
       </c>
-      <c r="E198" s="2">
+      <c r="E199" s="2">
         <f>1/0.30518</f>
         <v>3.2767547021429975</v>
       </c>
-      <c r="F198" t="s">
-        <v>215</v>
-      </c>
-      <c r="G198" t="s">
-        <v>216</v>
-      </c>
-      <c r="H198" t="s">
-        <v>216</v>
-      </c>
-      <c r="I198" t="s">
-        <v>216</v>
-      </c>
-      <c r="J198" t="s">
-        <v>337</v>
-      </c>
-      <c r="K198" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>15</v>
-      </c>
-      <c r="D199" t="s">
-        <v>214</v>
-      </c>
-      <c r="E199">
-        <v>1</v>
-      </c>
       <c r="F199" t="s">
         <v>215</v>
       </c>
@@ -7098,10 +7110,13 @@
       <c r="J199" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K199" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
       <c r="A200" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D200" t="s">
         <v>214</v>
@@ -7125,9 +7140,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13">
       <c r="A201" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D201" t="s">
         <v>214</v>
@@ -7151,48 +7166,35 @@
         <v>337</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="s">
+    <row r="202" spans="1:13">
+      <c r="A202" t="s">
+        <v>36</v>
+      </c>
+      <c r="D202" t="s">
+        <v>214</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202" t="s">
+        <v>215</v>
+      </c>
+      <c r="G202" t="s">
+        <v>216</v>
+      </c>
+      <c r="H202" t="s">
+        <v>216</v>
+      </c>
+      <c r="I202" t="s">
+        <v>216</v>
+      </c>
+      <c r="J202" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13">
+      <c r="A203" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B202" t="s">
-        <v>219</v>
-      </c>
-      <c r="C202" t="s">
-        <v>219</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E202" s="2">
-        <f>1/(1*6.941/(1*6.941+1*30.974+6*18.998))/0.146</f>
-        <v>149.89648564318037</v>
-      </c>
-      <c r="F202" t="s">
-        <v>221</v>
-      </c>
-      <c r="G202" t="s">
-        <v>222</v>
-      </c>
-      <c r="H202" t="s">
-        <v>222</v>
-      </c>
-      <c r="I202" t="s">
-        <v>163</v>
-      </c>
-      <c r="J202" t="s">
-        <v>338</v>
-      </c>
-      <c r="K202" t="s">
-        <v>223</v>
-      </c>
-      <c r="M202" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A203" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="B203" t="s">
         <v>219</v>
@@ -7222,13 +7224,16 @@
       <c r="J203" t="s">
         <v>338</v>
       </c>
+      <c r="K203" t="s">
+        <v>223</v>
+      </c>
       <c r="M203" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13">
       <c r="A204" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B204" t="s">
         <v>219</v>
@@ -7240,42 +7245,45 @@
         <v>220</v>
       </c>
       <c r="E204" s="2">
+        <f>1/(1*6.941/(1*6.941+1*30.974+6*18.998))/0.146</f>
+        <v>149.89648564318037</v>
+      </c>
+      <c r="F204" t="s">
+        <v>221</v>
+      </c>
+      <c r="G204" t="s">
+        <v>222</v>
+      </c>
+      <c r="H204" t="s">
+        <v>222</v>
+      </c>
+      <c r="I204" t="s">
+        <v>163</v>
+      </c>
+      <c r="J204" t="s">
+        <v>338</v>
+      </c>
+      <c r="M204" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13">
+      <c r="A205" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B205" t="s">
+        <v>219</v>
+      </c>
+      <c r="C205" t="s">
+        <v>219</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E205" s="2">
         <f>1/(1*6.941/(1*6.941+1*30.974+6*18.998))/0.1484</f>
         <v>147.47228371903191</v>
       </c>
-      <c r="F204" t="s">
-        <v>221</v>
-      </c>
-      <c r="G204" t="s">
-        <v>222</v>
-      </c>
-      <c r="H204" t="s">
-        <v>222</v>
-      </c>
-      <c r="I204" t="s">
-        <v>163</v>
-      </c>
-      <c r="J204" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A205" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B205" t="s">
-        <v>226</v>
-      </c>
-      <c r="C205" t="s">
-        <v>226</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E205" s="2">
-        <f t="shared" ref="E205" si="9">1/(1*6.941/(1*6.941+1*30.974+6*18.998))</f>
-        <v>21.884886903904334</v>
-      </c>
       <c r="F205" t="s">
         <v>221</v>
       </c>
@@ -7291,125 +7299,129 @@
       <c r="J205" t="s">
         <v>338</v>
       </c>
-      <c r="M205" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:13">
       <c r="A206" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B206" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C206" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>220</v>
       </c>
       <c r="E206" s="2">
+        <f t="shared" ref="E206" si="9">1/(1*6.941/(1*6.941+1*30.974+6*18.998))</f>
+        <v>21.884886903904334</v>
+      </c>
+      <c r="F206" t="s">
+        <v>221</v>
+      </c>
+      <c r="G206" t="s">
+        <v>222</v>
+      </c>
+      <c r="H206" t="s">
+        <v>222</v>
+      </c>
+      <c r="I206" t="s">
+        <v>163</v>
+      </c>
+      <c r="J206" t="s">
+        <v>338</v>
+      </c>
+      <c r="M206" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13">
+      <c r="A207" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B207" t="s">
+        <v>228</v>
+      </c>
+      <c r="C207" t="s">
+        <v>228</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E207" s="2">
         <f>1/(1*6.941/(1*6.941+1*30.974+6*18.998))/0.085714</f>
         <v>255.32453162732267</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F207" t="s">
         <v>221</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G207" t="s">
         <v>222</v>
       </c>
-      <c r="H206" t="s">
+      <c r="H207" t="s">
         <v>222</v>
       </c>
-      <c r="I206" t="s">
+      <c r="I207" t="s">
         <v>163</v>
       </c>
-      <c r="J206" t="s">
+      <c r="J207" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A207" s="6" t="s">
+    <row r="208" spans="1:13">
+      <c r="A208" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B208" t="s">
         <v>212</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C208" t="s">
         <v>213</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D208" t="s">
         <v>229</v>
       </c>
-      <c r="E207" s="2">
+      <c r="E208" s="2">
         <f>1/0.26013</f>
         <v>3.8442317302887021</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F208" t="s">
         <v>230</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G208" t="s">
         <v>231</v>
       </c>
-      <c r="H207" t="s">
+      <c r="H208" t="s">
         <v>231</v>
       </c>
-      <c r="I207" t="s">
+      <c r="I208" t="s">
         <v>231</v>
       </c>
-      <c r="J207" t="s">
-        <v>337</v>
-      </c>
-      <c r="K207" t="s">
+      <c r="J208" t="s">
+        <v>337</v>
+      </c>
+      <c r="K208" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A208" s="6" t="s">
+    <row r="209" spans="1:11">
+      <c r="A209" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B209" t="s">
         <v>212</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C209" t="s">
         <v>213</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D209" t="s">
         <v>229</v>
       </c>
-      <c r="E208" s="2">
+      <c r="E209" s="2">
         <f>1/0.30518</f>
         <v>3.2767547021429975</v>
       </c>
-      <c r="F208" t="s">
-        <v>230</v>
-      </c>
-      <c r="G208" t="s">
-        <v>231</v>
-      </c>
-      <c r="H208" t="s">
-        <v>231</v>
-      </c>
-      <c r="I208" t="s">
-        <v>231</v>
-      </c>
-      <c r="J208" t="s">
-        <v>337</v>
-      </c>
-      <c r="K208" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>15</v>
-      </c>
-      <c r="D209" t="s">
-        <v>229</v>
-      </c>
-      <c r="E209">
-        <v>1</v>
-      </c>
       <c r="F209" t="s">
         <v>230</v>
       </c>
@@ -7425,10 +7437,13 @@
       <c r="J209" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K209" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="D210" t="s">
         <v>229</v>
@@ -7451,13 +7466,10 @@
       <c r="J210" t="s">
         <v>337</v>
       </c>
-      <c r="K210" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D211" t="s">
         <v>229</v>
@@ -7484,9 +7496,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11">
       <c r="A212" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D212" t="s">
         <v>229</v>
@@ -7513,9 +7525,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11">
       <c r="A213" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="D213" t="s">
         <v>229</v>
@@ -7542,9 +7554,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11">
       <c r="A214" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="D214" t="s">
         <v>229</v>
@@ -7571,39 +7583,38 @@
         <v>81</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11">
       <c r="A215" t="s">
+        <v>37</v>
+      </c>
+      <c r="D215" t="s">
+        <v>229</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215" t="s">
+        <v>230</v>
+      </c>
+      <c r="G215" t="s">
+        <v>231</v>
+      </c>
+      <c r="H215" t="s">
+        <v>231</v>
+      </c>
+      <c r="I215" t="s">
+        <v>231</v>
+      </c>
+      <c r="J215" t="s">
+        <v>337</v>
+      </c>
+      <c r="K215" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216" t="s">
         <v>147</v>
-      </c>
-      <c r="D215" t="s">
-        <v>232</v>
-      </c>
-      <c r="E215" s="2">
-        <f>1/(1*39.098/(1*39.098+1*15.999+1*1.008))</f>
-        <v>1.434983886643818</v>
-      </c>
-      <c r="F215" t="s">
-        <v>233</v>
-      </c>
-      <c r="G215" t="s">
-        <v>234</v>
-      </c>
-      <c r="H215" t="s">
-        <v>234</v>
-      </c>
-      <c r="I215" t="s">
-        <v>235</v>
-      </c>
-      <c r="J215" t="s">
-        <v>337</v>
-      </c>
-      <c r="K215" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>37</v>
       </c>
       <c r="D216" t="s">
         <v>232</v>
@@ -7627,51 +7638,51 @@
       <c r="J216" t="s">
         <v>337</v>
       </c>
-      <c r="K216" s="3" t="s">
+      <c r="K216" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217" t="s">
+        <v>37</v>
+      </c>
+      <c r="D217" t="s">
+        <v>232</v>
+      </c>
+      <c r="E217" s="2">
+        <f>1/(1*39.098/(1*39.098+1*15.999+1*1.008))</f>
+        <v>1.434983886643818</v>
+      </c>
+      <c r="F217" t="s">
+        <v>233</v>
+      </c>
+      <c r="G217" t="s">
+        <v>234</v>
+      </c>
+      <c r="H217" t="s">
+        <v>234</v>
+      </c>
+      <c r="I217" t="s">
+        <v>235</v>
+      </c>
+      <c r="J217" t="s">
+        <v>337</v>
+      </c>
+      <c r="K217" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+    <row r="218" spans="1:11">
+      <c r="A218" t="s">
         <v>10</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D218" t="s">
         <v>238</v>
       </c>
-      <c r="E217" s="2">
+      <c r="E218" s="2">
         <f>1/(2*140.908/(2*140.908+3*15.999))</f>
         <v>1.1703132540380958</v>
       </c>
-      <c r="F217" t="s">
-        <v>239</v>
-      </c>
-      <c r="G217" t="s">
-        <v>240</v>
-      </c>
-      <c r="H217" t="s">
-        <v>240</v>
-      </c>
-      <c r="I217" t="s">
-        <v>241</v>
-      </c>
-      <c r="J217" t="s">
-        <v>337</v>
-      </c>
-      <c r="K217" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>15</v>
-      </c>
-      <c r="D218" t="s">
-        <v>238</v>
-      </c>
-      <c r="E218" s="2">
-        <f t="shared" ref="E218:E221" si="10">1/(2*140.908/(2*140.908+3*15.999))</f>
-        <v>1.1703132540380958</v>
-      </c>
       <c r="F218" t="s">
         <v>239</v>
       </c>
@@ -7688,18 +7699,18 @@
         <v>337</v>
       </c>
       <c r="K218" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="D219" t="s">
         <v>238</v>
       </c>
       <c r="E219" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="E219:E222" si="10">1/(2*140.908/(2*140.908+3*15.999))</f>
         <v>1.1703132540380958</v>
       </c>
       <c r="F219" t="s">
@@ -7718,12 +7729,12 @@
         <v>337</v>
       </c>
       <c r="K219" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="D220" t="s">
         <v>238</v>
@@ -7748,12 +7759,12 @@
         <v>337</v>
       </c>
       <c r="K220" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" t="s">
-        <v>341</v>
+        <v>184</v>
       </c>
       <c r="D221" t="s">
         <v>238</v>
@@ -7778,65 +7789,69 @@
         <v>337</v>
       </c>
       <c r="K221" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222" t="s">
+        <v>341</v>
+      </c>
+      <c r="D222" t="s">
+        <v>238</v>
+      </c>
+      <c r="E222" s="2">
+        <f t="shared" si="10"/>
+        <v>1.1703132540380958</v>
+      </c>
+      <c r="F222" t="s">
+        <v>239</v>
+      </c>
+      <c r="G222" t="s">
+        <v>240</v>
+      </c>
+      <c r="H222" t="s">
+        <v>240</v>
+      </c>
+      <c r="I222" t="s">
+        <v>241</v>
+      </c>
+      <c r="J222" t="s">
+        <v>337</v>
+      </c>
+      <c r="K222" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>10</v>
-      </c>
-      <c r="B222" s="7"/>
-      <c r="D222" t="s">
-        <v>247</v>
-      </c>
-      <c r="E222">
-        <v>1</v>
-      </c>
-      <c r="F222" t="s">
-        <v>248</v>
-      </c>
-      <c r="G222" t="s">
-        <v>249</v>
-      </c>
-      <c r="H222" t="s">
-        <v>249</v>
-      </c>
-      <c r="I222" t="s">
-        <v>249</v>
-      </c>
-      <c r="J222" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11">
       <c r="A223" t="s">
         <v>10</v>
       </c>
+      <c r="B223" s="7"/>
       <c r="D223" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E223">
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G223" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H223" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I223" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J223" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11">
       <c r="A224" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D224" t="s">
         <v>250</v>
@@ -7860,35 +7875,35 @@
         <v>337</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11">
       <c r="A225" t="s">
+        <v>15</v>
+      </c>
+      <c r="D225" t="s">
+        <v>250</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225" t="s">
+        <v>251</v>
+      </c>
+      <c r="G225" t="s">
+        <v>252</v>
+      </c>
+      <c r="H225" t="s">
+        <v>252</v>
+      </c>
+      <c r="I225" t="s">
+        <v>252</v>
+      </c>
+      <c r="J225" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226" t="s">
         <v>10</v>
-      </c>
-      <c r="D225" t="s">
-        <v>253</v>
-      </c>
-      <c r="E225">
-        <v>1</v>
-      </c>
-      <c r="F225" t="s">
-        <v>254</v>
-      </c>
-      <c r="G225" t="s">
-        <v>255</v>
-      </c>
-      <c r="H225" t="s">
-        <v>255</v>
-      </c>
-      <c r="I225" t="s">
-        <v>255</v>
-      </c>
-      <c r="J225" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>147</v>
       </c>
       <c r="D226" t="s">
         <v>253</v>
@@ -7912,39 +7927,35 @@
         <v>337</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11">
       <c r="A227" t="s">
+        <v>147</v>
+      </c>
+      <c r="D227" t="s">
+        <v>253</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227" t="s">
+        <v>254</v>
+      </c>
+      <c r="G227" t="s">
+        <v>255</v>
+      </c>
+      <c r="H227" t="s">
+        <v>255</v>
+      </c>
+      <c r="I227" t="s">
+        <v>255</v>
+      </c>
+      <c r="J227" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228" t="s">
         <v>10</v>
-      </c>
-      <c r="D227" t="s">
-        <v>256</v>
-      </c>
-      <c r="E227" s="2">
-        <f>1/(2*150.36/(2*150.36+3*15.999))</f>
-        <v>1.1596069433359937</v>
-      </c>
-      <c r="F227" t="s">
-        <v>257</v>
-      </c>
-      <c r="G227" t="s">
-        <v>258</v>
-      </c>
-      <c r="H227" t="s">
-        <v>258</v>
-      </c>
-      <c r="I227" t="s">
-        <v>259</v>
-      </c>
-      <c r="J227" t="s">
-        <v>337</v>
-      </c>
-      <c r="K227" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>15</v>
       </c>
       <c r="D228" t="s">
         <v>256</v>
@@ -7968,40 +7979,40 @@
       <c r="J228" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K228" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" t="s">
+        <v>15</v>
+      </c>
+      <c r="D229" t="s">
+        <v>256</v>
+      </c>
+      <c r="E229" s="2">
+        <f>1/(2*150.36/(2*150.36+3*15.999))</f>
+        <v>1.1596069433359937</v>
+      </c>
+      <c r="F229" t="s">
+        <v>257</v>
+      </c>
+      <c r="G229" t="s">
+        <v>258</v>
+      </c>
+      <c r="H229" t="s">
+        <v>258</v>
+      </c>
+      <c r="I229" t="s">
+        <v>259</v>
+      </c>
+      <c r="J229" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230" t="s">
         <v>10</v>
-      </c>
-      <c r="D229" t="s">
-        <v>261</v>
-      </c>
-      <c r="E229" s="2">
-        <f>1/(2*44.956/(2*44.956+3*15.999))</f>
-        <v>1.5338219592490434</v>
-      </c>
-      <c r="F229" t="s">
-        <v>262</v>
-      </c>
-      <c r="G229" t="s">
-        <v>263</v>
-      </c>
-      <c r="H229" t="s">
-        <v>263</v>
-      </c>
-      <c r="I229" t="s">
-        <v>264</v>
-      </c>
-      <c r="J229" t="s">
-        <v>337</v>
-      </c>
-      <c r="K229" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>15</v>
       </c>
       <c r="D230" t="s">
         <v>261</v>
@@ -8025,10 +8036,13 @@
       <c r="J230" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K230" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D231" t="s">
         <v>261</v>
@@ -8053,9 +8067,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11">
       <c r="A232" t="s">
-        <v>266</v>
+        <v>35</v>
       </c>
       <c r="D232" t="s">
         <v>261</v>
@@ -8080,49 +8094,62 @@
         <v>337</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11">
       <c r="A233" t="s">
+        <v>266</v>
+      </c>
+      <c r="D233" t="s">
+        <v>261</v>
+      </c>
+      <c r="E233" s="2">
+        <f>1/(2*44.956/(2*44.956+3*15.999))</f>
+        <v>1.5338219592490434</v>
+      </c>
+      <c r="F233" t="s">
+        <v>262</v>
+      </c>
+      <c r="G233" t="s">
+        <v>263</v>
+      </c>
+      <c r="H233" t="s">
+        <v>263</v>
+      </c>
+      <c r="I233" t="s">
+        <v>264</v>
+      </c>
+      <c r="J233" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234" t="s">
         <v>21</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D234" t="s">
         <v>267</v>
       </c>
-      <c r="E233">
-        <v>1</v>
-      </c>
-      <c r="F233" t="s">
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234" t="s">
         <v>268</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G234" t="s">
         <v>269</v>
       </c>
-      <c r="H233" t="s">
+      <c r="H234" t="s">
         <v>269</v>
       </c>
-      <c r="I233" t="s">
+      <c r="I234" t="s">
         <v>269</v>
       </c>
-      <c r="J233" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+      <c r="J234" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235" t="s">
         <v>19</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J234" t="s">
-        <v>338</v>
-      </c>
-      <c r="K234" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>22</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>270</v>
@@ -8131,12 +8158,12 @@
         <v>338</v>
       </c>
       <c r="K235" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>270</v>
@@ -8144,10 +8171,13 @@
       <c r="J236" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K236" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>270</v>
@@ -8156,35 +8186,20 @@
         <v>338</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11">
       <c r="A238" t="s">
+        <v>24</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J238" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239" t="s">
         <v>10</v>
-      </c>
-      <c r="D238" t="s">
-        <v>273</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238" t="s">
-        <v>274</v>
-      </c>
-      <c r="G238" t="s">
-        <v>275</v>
-      </c>
-      <c r="H238" t="s">
-        <v>275</v>
-      </c>
-      <c r="I238" t="s">
-        <v>275</v>
-      </c>
-      <c r="J238" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>19</v>
       </c>
       <c r="D239" t="s">
         <v>273</v>
@@ -8208,9 +8223,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11">
       <c r="A240" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D240" t="s">
         <v>273</v>
@@ -8234,9 +8249,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11">
       <c r="A241" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D241" t="s">
         <v>273</v>
@@ -8260,9 +8275,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11">
       <c r="A242" t="s">
-        <v>276</v>
+        <v>21</v>
       </c>
       <c r="D242" t="s">
         <v>273</v>
@@ -8286,9 +8301,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11">
       <c r="A243" t="s">
-        <v>23</v>
+        <v>276</v>
       </c>
       <c r="D243" t="s">
         <v>273</v>
@@ -8312,9 +8327,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11">
       <c r="A244" t="s">
-        <v>277</v>
+        <v>23</v>
       </c>
       <c r="D244" t="s">
         <v>273</v>
@@ -8338,9 +8353,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11">
       <c r="A245" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="D245" t="s">
         <v>273</v>
@@ -8364,9 +8379,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11">
       <c r="A246" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D246" t="s">
         <v>273</v>
@@ -8390,9 +8405,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11">
       <c r="A247" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D247" t="s">
         <v>273</v>
@@ -8416,53 +8431,49 @@
         <v>337</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A248" s="3" t="s">
+    <row r="248" spans="1:11">
+      <c r="A248" t="s">
+        <v>25</v>
+      </c>
+      <c r="D248" t="s">
+        <v>273</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248" t="s">
+        <v>274</v>
+      </c>
+      <c r="G248" t="s">
+        <v>275</v>
+      </c>
+      <c r="H248" t="s">
+        <v>275</v>
+      </c>
+      <c r="I248" t="s">
+        <v>275</v>
+      </c>
+      <c r="J248" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
+      <c r="A249" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D249" t="s">
         <v>278</v>
       </c>
-      <c r="J248" t="s">
+      <c r="J249" t="s">
         <v>338</v>
       </c>
-      <c r="K248" t="s">
+      <c r="K249" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+    <row r="250" spans="1:11">
+      <c r="A250" t="s">
         <v>10</v>
-      </c>
-      <c r="D249" t="s">
-        <v>280</v>
-      </c>
-      <c r="E249" s="2">
-        <f>1/(1*87.62/(1*87.62+1*12.011+15.999*3))</f>
-        <v>1.6848664688427297</v>
-      </c>
-      <c r="F249" t="s">
-        <v>281</v>
-      </c>
-      <c r="G249" t="s">
-        <v>282</v>
-      </c>
-      <c r="H249" t="s">
-        <v>282</v>
-      </c>
-      <c r="I249" t="s">
-        <v>283</v>
-      </c>
-      <c r="J249" t="s">
-        <v>337</v>
-      </c>
-      <c r="K249" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>341</v>
       </c>
       <c r="D250" t="s">
         <v>280</v>
@@ -8487,38 +8498,42 @@
         <v>337</v>
       </c>
       <c r="K250" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
+      <c r="A251" t="s">
+        <v>341</v>
+      </c>
+      <c r="D251" t="s">
+        <v>280</v>
+      </c>
+      <c r="E251" s="2">
+        <f>1/(1*87.62/(1*87.62+1*12.011+15.999*3))</f>
+        <v>1.6848664688427297</v>
+      </c>
+      <c r="F251" t="s">
+        <v>281</v>
+      </c>
+      <c r="G251" t="s">
+        <v>282</v>
+      </c>
+      <c r="H251" t="s">
+        <v>282</v>
+      </c>
+      <c r="I251" t="s">
+        <v>283</v>
+      </c>
+      <c r="J251" t="s">
+        <v>337</v>
+      </c>
+      <c r="K251" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+    <row r="252" spans="1:11">
+      <c r="A252" t="s">
         <v>10</v>
-      </c>
-      <c r="D251" t="s">
-        <v>285</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-      <c r="F251" t="s">
-        <v>286</v>
-      </c>
-      <c r="G251" t="s">
-        <v>287</v>
-      </c>
-      <c r="H251" t="s">
-        <v>287</v>
-      </c>
-      <c r="I251" t="s">
-        <v>288</v>
-      </c>
-      <c r="J251" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>15</v>
       </c>
       <c r="D252" t="s">
         <v>285</v>
@@ -8542,73 +8557,69 @@
         <v>337</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11">
       <c r="A253" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D253" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E253">
         <v>1</v>
       </c>
       <c r="F253" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G253" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H253" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I253" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J253" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11">
       <c r="A254" t="s">
         <v>10</v>
       </c>
       <c r="D254" t="s">
+        <v>289</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254" t="s">
+        <v>290</v>
+      </c>
+      <c r="G254" t="s">
+        <v>291</v>
+      </c>
+      <c r="H254" t="s">
+        <v>291</v>
+      </c>
+      <c r="I254" t="s">
+        <v>292</v>
+      </c>
+      <c r="J254" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
+      <c r="A255" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" t="s">
         <v>293</v>
       </c>
-      <c r="E254" s="2">
+      <c r="E255" s="2">
         <f>1/(1*158.925/(1*158.925+2*15.999))</f>
         <v>1.2013402548371872</v>
       </c>
-      <c r="F254" t="s">
-        <v>294</v>
-      </c>
-      <c r="G254" t="s">
-        <v>295</v>
-      </c>
-      <c r="H254" t="s">
-        <v>295</v>
-      </c>
-      <c r="I254" t="s">
-        <v>296</v>
-      </c>
-      <c r="J254" t="s">
-        <v>337</v>
-      </c>
-      <c r="K254" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>15</v>
-      </c>
-      <c r="D255" t="s">
-        <v>293</v>
-      </c>
-      <c r="E255" s="2">
-        <f t="shared" ref="E255:E258" si="11">1/(1*158.925/(1*158.925+2*15.999))</f>
-        <v>1.2013402548371872</v>
-      </c>
       <c r="F255" t="s">
         <v>294</v>
       </c>
@@ -8624,16 +8635,19 @@
       <c r="J255" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K255" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="D256" t="s">
         <v>293</v>
       </c>
       <c r="E256" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="E256:E259" si="11">1/(1*158.925/(1*158.925+2*15.999))</f>
         <v>1.2013402548371872</v>
       </c>
       <c r="F256" t="s">
@@ -8652,9 +8666,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11">
       <c r="A257" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D257" t="s">
         <v>293</v>
@@ -8679,9 +8693,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11">
       <c r="A258" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D258" t="s">
         <v>293</v>
@@ -8706,35 +8720,36 @@
         <v>337</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11">
       <c r="A259" t="s">
+        <v>184</v>
+      </c>
+      <c r="D259" t="s">
+        <v>293</v>
+      </c>
+      <c r="E259" s="2">
+        <f t="shared" si="11"/>
+        <v>1.2013402548371872</v>
+      </c>
+      <c r="F259" t="s">
+        <v>294</v>
+      </c>
+      <c r="G259" t="s">
+        <v>295</v>
+      </c>
+      <c r="H259" t="s">
+        <v>295</v>
+      </c>
+      <c r="I259" t="s">
+        <v>296</v>
+      </c>
+      <c r="J259" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
+      <c r="A260" t="s">
         <v>10</v>
-      </c>
-      <c r="D259" t="s">
-        <v>298</v>
-      </c>
-      <c r="E259">
-        <v>1</v>
-      </c>
-      <c r="F259" t="s">
-        <v>299</v>
-      </c>
-      <c r="G259" t="s">
-        <v>300</v>
-      </c>
-      <c r="H259" t="s">
-        <v>300</v>
-      </c>
-      <c r="I259" t="s">
-        <v>300</v>
-      </c>
-      <c r="J259" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>19</v>
       </c>
       <c r="D260" t="s">
         <v>298</v>
@@ -8757,13 +8772,10 @@
       <c r="J260" t="s">
         <v>337</v>
       </c>
-      <c r="K260" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D261" t="s">
         <v>298</v>
@@ -8790,9 +8802,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11">
       <c r="A262" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D262" t="s">
         <v>298</v>
@@ -8816,12 +8828,12 @@
         <v>337</v>
       </c>
       <c r="K262" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D263" t="s">
         <v>298</v>
@@ -8845,12 +8857,12 @@
         <v>337</v>
       </c>
       <c r="K263" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D264" t="s">
         <v>298</v>
@@ -8873,36 +8885,39 @@
       <c r="J264" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K264" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" t="s">
+        <v>25</v>
+      </c>
+      <c r="D265" t="s">
+        <v>298</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265" t="s">
+        <v>299</v>
+      </c>
+      <c r="G265" t="s">
+        <v>300</v>
+      </c>
+      <c r="H265" t="s">
+        <v>300</v>
+      </c>
+      <c r="I265" t="s">
+        <v>300</v>
+      </c>
+      <c r="J265" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
+      <c r="A266" t="s">
         <v>23</v>
-      </c>
-      <c r="D265" t="s">
-        <v>302</v>
-      </c>
-      <c r="E265">
-        <v>1</v>
-      </c>
-      <c r="F265" t="s">
-        <v>303</v>
-      </c>
-      <c r="G265" t="s">
-        <v>304</v>
-      </c>
-      <c r="H265" t="s">
-        <v>304</v>
-      </c>
-      <c r="I265" t="s">
-        <v>304</v>
-      </c>
-      <c r="J265" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>24</v>
       </c>
       <c r="D266" t="s">
         <v>302</v>
@@ -8926,9 +8941,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11">
       <c r="A267" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D267" t="s">
         <v>302</v>
@@ -8946,18 +8961,15 @@
         <v>304</v>
       </c>
       <c r="I267" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J267" t="s">
         <v>337</v>
       </c>
-      <c r="K267" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D268" t="s">
         <v>302</v>
@@ -8975,15 +8987,18 @@
         <v>304</v>
       </c>
       <c r="I268" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J268" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K268" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="D269" t="s">
         <v>302</v>
@@ -9006,43 +9021,39 @@
       <c r="J269" t="s">
         <v>337</v>
       </c>
-      <c r="K269" t="s">
+    </row>
+    <row r="270" spans="1:11">
+      <c r="A270" t="s">
+        <v>147</v>
+      </c>
+      <c r="D270" t="s">
+        <v>302</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270" t="s">
+        <v>303</v>
+      </c>
+      <c r="G270" t="s">
+        <v>304</v>
+      </c>
+      <c r="H270" t="s">
+        <v>304</v>
+      </c>
+      <c r="I270" t="s">
+        <v>304</v>
+      </c>
+      <c r="J270" t="s">
+        <v>337</v>
+      </c>
+      <c r="K270" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
+    <row r="271" spans="1:11">
+      <c r="A271" t="s">
         <v>10</v>
-      </c>
-      <c r="D270" t="s">
-        <v>307</v>
-      </c>
-      <c r="E270" s="2">
-        <f>1/(1*183.84/(1*183.84+12.012))</f>
-        <v>1.0653394255874673</v>
-      </c>
-      <c r="F270" t="s">
-        <v>308</v>
-      </c>
-      <c r="G270" t="s">
-        <v>309</v>
-      </c>
-      <c r="H270" t="s">
-        <v>309</v>
-      </c>
-      <c r="I270" t="s">
-        <v>310</v>
-      </c>
-      <c r="J270" t="s">
-        <v>337</v>
-      </c>
-      <c r="K270" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>25</v>
       </c>
       <c r="D271" t="s">
         <v>307</v>
@@ -9070,47 +9081,47 @@
         <v>311</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11">
       <c r="A272" t="s">
+        <v>25</v>
+      </c>
+      <c r="D272" t="s">
+        <v>307</v>
+      </c>
+      <c r="E272" s="2">
+        <f>1/(1*183.84/(1*183.84+12.012))</f>
+        <v>1.0653394255874673</v>
+      </c>
+      <c r="F272" t="s">
+        <v>308</v>
+      </c>
+      <c r="G272" t="s">
+        <v>309</v>
+      </c>
+      <c r="H272" t="s">
+        <v>309</v>
+      </c>
+      <c r="I272" t="s">
+        <v>310</v>
+      </c>
+      <c r="J272" t="s">
+        <v>337</v>
+      </c>
+      <c r="K272" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
+      <c r="A273" t="s">
         <v>156</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D273" t="s">
         <v>312</v>
       </c>
-      <c r="E272" s="2">
+      <c r="E273" s="2">
         <f>1/(2*50.942/(2*50.942+15.999*5))</f>
         <v>1.7851576302461625</v>
       </c>
-      <c r="F272" t="s">
-        <v>313</v>
-      </c>
-      <c r="G272" t="s">
-        <v>314</v>
-      </c>
-      <c r="H272" t="s">
-        <v>314</v>
-      </c>
-      <c r="I272" t="s">
-        <v>315</v>
-      </c>
-      <c r="J272" t="s">
-        <v>337</v>
-      </c>
-      <c r="K272" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>184</v>
-      </c>
-      <c r="D273" t="s">
-        <v>312</v>
-      </c>
-      <c r="E273" s="2">
-        <f t="shared" ref="E273:E277" si="12">1/(2*50.942/(2*50.942+15.999*5))</f>
-        <v>1.7851576302461625</v>
-      </c>
       <c r="F273" t="s">
         <v>313</v>
       </c>
@@ -9130,15 +9141,15 @@
         <v>316</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11">
       <c r="A274" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="D274" t="s">
         <v>312</v>
       </c>
       <c r="E274" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="E274:E278" si="12">1/(2*50.942/(2*50.942+15.999*5))</f>
         <v>1.7851576302461625</v>
       </c>
       <c r="F274" t="s">
@@ -9160,9 +9171,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11">
       <c r="A275" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D275" t="s">
         <v>312</v>
@@ -9190,9 +9201,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11">
       <c r="A276" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D276" t="s">
         <v>312</v>
@@ -9220,9 +9231,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11">
       <c r="A277" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D277" t="s">
         <v>312</v>
@@ -9250,39 +9261,39 @@
         <v>316</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11">
       <c r="A278" t="s">
+        <v>25</v>
+      </c>
+      <c r="D278" t="s">
+        <v>312</v>
+      </c>
+      <c r="E278" s="2">
+        <f t="shared" si="12"/>
+        <v>1.7851576302461625</v>
+      </c>
+      <c r="F278" t="s">
+        <v>313</v>
+      </c>
+      <c r="G278" t="s">
+        <v>314</v>
+      </c>
+      <c r="H278" t="s">
+        <v>314</v>
+      </c>
+      <c r="I278" t="s">
+        <v>315</v>
+      </c>
+      <c r="J278" t="s">
+        <v>337</v>
+      </c>
+      <c r="K278" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
+      <c r="A279" t="s">
         <v>10</v>
-      </c>
-      <c r="D278" t="s">
-        <v>317</v>
-      </c>
-      <c r="E278" s="2">
-        <f>1/(2*173.04/(2*173.04+3*15.999))</f>
-        <v>1.1386875866851596</v>
-      </c>
-      <c r="F278" t="s">
-        <v>318</v>
-      </c>
-      <c r="G278" t="s">
-        <v>319</v>
-      </c>
-      <c r="H278" t="s">
-        <v>319</v>
-      </c>
-      <c r="I278" t="s">
-        <v>320</v>
-      </c>
-      <c r="J278" t="s">
-        <v>337</v>
-      </c>
-      <c r="K278" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>15</v>
       </c>
       <c r="D279" t="s">
         <v>317</v>
@@ -9310,47 +9321,47 @@
         <v>321</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11">
       <c r="A280" t="s">
+        <v>15</v>
+      </c>
+      <c r="D280" t="s">
+        <v>317</v>
+      </c>
+      <c r="E280" s="2">
+        <f>1/(2*173.04/(2*173.04+3*15.999))</f>
+        <v>1.1386875866851596</v>
+      </c>
+      <c r="F280" t="s">
+        <v>318</v>
+      </c>
+      <c r="G280" t="s">
+        <v>319</v>
+      </c>
+      <c r="H280" t="s">
+        <v>319</v>
+      </c>
+      <c r="I280" t="s">
+        <v>320</v>
+      </c>
+      <c r="J280" t="s">
+        <v>337</v>
+      </c>
+      <c r="K280" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
+      <c r="A281" t="s">
         <v>10</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D281" t="s">
         <v>322</v>
       </c>
-      <c r="E280" s="2">
+      <c r="E281" s="2">
         <f>1/(2*88.906/(2*88.906+3*15.999))</f>
         <v>1.2699311632510744</v>
       </c>
-      <c r="F280" t="s">
-        <v>323</v>
-      </c>
-      <c r="G280" t="s">
-        <v>324</v>
-      </c>
-      <c r="H280" t="s">
-        <v>324</v>
-      </c>
-      <c r="I280" t="s">
-        <v>325</v>
-      </c>
-      <c r="J280" t="s">
-        <v>337</v>
-      </c>
-      <c r="K280" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>15</v>
-      </c>
-      <c r="D281" t="s">
-        <v>322</v>
-      </c>
-      <c r="E281" s="2">
-        <f t="shared" ref="E281:E285" si="13">1/(2*88.906/(2*88.906+3*15.999))</f>
-        <v>1.2699311632510744</v>
-      </c>
       <c r="F281" t="s">
         <v>323</v>
       </c>
@@ -9366,16 +9377,19 @@
       <c r="J281" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K281" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" t="s">
-        <v>327</v>
+        <v>15</v>
       </c>
       <c r="D282" t="s">
         <v>322</v>
       </c>
       <c r="E282" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="E282:E286" si="13">1/(2*88.906/(2*88.906+3*15.999))</f>
         <v>1.2699311632510744</v>
       </c>
       <c r="F282" t="s">
@@ -9394,9 +9408,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11">
       <c r="A283" t="s">
-        <v>36</v>
+        <v>327</v>
       </c>
       <c r="D283" t="s">
         <v>322</v>
@@ -9421,9 +9435,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11">
       <c r="A284" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D284" t="s">
         <v>322</v>
@@ -9448,9 +9462,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11">
       <c r="A285" t="s">
-        <v>341</v>
+        <v>25</v>
       </c>
       <c r="D285" t="s">
         <v>322</v>
@@ -9475,38 +9489,36 @@
         <v>337</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11">
       <c r="A286" t="s">
+        <v>341</v>
+      </c>
+      <c r="D286" t="s">
+        <v>322</v>
+      </c>
+      <c r="E286" s="2">
+        <f t="shared" si="13"/>
+        <v>1.2699311632510744</v>
+      </c>
+      <c r="F286" t="s">
+        <v>323</v>
+      </c>
+      <c r="G286" t="s">
+        <v>324</v>
+      </c>
+      <c r="H286" t="s">
+        <v>324</v>
+      </c>
+      <c r="I286" t="s">
+        <v>325</v>
+      </c>
+      <c r="J286" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
+      <c r="A287" t="s">
         <v>183</v>
-      </c>
-      <c r="D286" t="s">
-        <v>328</v>
-      </c>
-      <c r="E286">
-        <v>1</v>
-      </c>
-      <c r="F286" t="s">
-        <v>329</v>
-      </c>
-      <c r="G286" t="s">
-        <v>330</v>
-      </c>
-      <c r="H286" t="s">
-        <v>330</v>
-      </c>
-      <c r="I286" t="s">
-        <v>330</v>
-      </c>
-      <c r="J286" t="s">
-        <v>337</v>
-      </c>
-      <c r="K286" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>184</v>
       </c>
       <c r="D287" t="s">
         <v>328</v>
@@ -9533,9 +9545,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11">
       <c r="A288" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="D288" t="s">
         <v>328</v>
@@ -9558,10 +9570,13 @@
       <c r="J288" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K288" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D289" t="s">
         <v>328</v>
@@ -9584,13 +9599,10 @@
       <c r="J289" t="s">
         <v>337</v>
       </c>
-      <c r="K289" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D290" t="s">
         <v>328</v>
@@ -9617,9 +9629,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11">
       <c r="A291" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D291" t="s">
         <v>328</v>
@@ -9646,9 +9658,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11">
       <c r="A292" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D292" t="s">
         <v>328</v>
@@ -9671,48 +9683,47 @@
       <c r="J292" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K292" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" t="s">
+        <v>36</v>
+      </c>
+      <c r="D293" t="s">
+        <v>328</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293" t="s">
+        <v>329</v>
+      </c>
+      <c r="G293" t="s">
+        <v>330</v>
+      </c>
+      <c r="H293" t="s">
+        <v>330</v>
+      </c>
+      <c r="I293" t="s">
+        <v>330</v>
+      </c>
+      <c r="J293" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
+      <c r="A294" t="s">
         <v>10</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D294" t="s">
         <v>331</v>
       </c>
-      <c r="E293" s="2">
+      <c r="E294" s="2">
         <f>1/(1*91.224/(1*91.224+2*15.999))</f>
         <v>1.3507629571165483</v>
       </c>
-      <c r="F293" t="s">
-        <v>332</v>
-      </c>
-      <c r="G293" t="s">
-        <v>333</v>
-      </c>
-      <c r="H293" t="s">
-        <v>333</v>
-      </c>
-      <c r="I293" t="s">
-        <v>334</v>
-      </c>
-      <c r="J293" t="s">
-        <v>337</v>
-      </c>
-      <c r="K293" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>35</v>
-      </c>
-      <c r="D294" t="s">
-        <v>331</v>
-      </c>
-      <c r="E294" s="2">
-        <f t="shared" ref="E294:E298" si="14">1/(1*91.224/(1*91.224+2*15.999))</f>
-        <v>1.3507629571165483</v>
-      </c>
       <c r="F294" t="s">
         <v>332</v>
       </c>
@@ -9728,16 +9739,19 @@
       <c r="J294" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K294" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D295" t="s">
         <v>331</v>
       </c>
       <c r="E295" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="E295:E299" si="14">1/(1*91.224/(1*91.224+2*15.999))</f>
         <v>1.3507629571165483</v>
       </c>
       <c r="F295" t="s">
@@ -9755,13 +9769,10 @@
       <c r="J295" t="s">
         <v>337</v>
       </c>
-      <c r="K295" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D296" t="s">
         <v>331</v>
@@ -9789,9 +9800,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11">
       <c r="A297" t="s">
-        <v>341</v>
+        <v>37</v>
       </c>
       <c r="D297" t="s">
         <v>331</v>
@@ -9819,9 +9830,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11">
       <c r="A298" t="s">
-        <v>25</v>
+        <v>341</v>
       </c>
       <c r="D298" t="s">
         <v>331</v>
@@ -9845,273 +9856,303 @@
       <c r="J298" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K298" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" t="s">
+        <v>25</v>
+      </c>
+      <c r="D299" t="s">
+        <v>331</v>
+      </c>
+      <c r="E299" s="2">
+        <f t="shared" si="14"/>
+        <v>1.3507629571165483</v>
+      </c>
+      <c r="F299" t="s">
+        <v>332</v>
+      </c>
+      <c r="G299" t="s">
+        <v>333</v>
+      </c>
+      <c r="H299" t="s">
+        <v>333</v>
+      </c>
+      <c r="I299" t="s">
+        <v>334</v>
+      </c>
+      <c r="J299" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
+      <c r="A300" t="s">
         <v>32</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B300" t="s">
         <v>348</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C300" t="s">
         <v>349</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D300" t="s">
         <v>160</v>
       </c>
-      <c r="E299" s="2">
+      <c r="E300" s="2">
         <f>1/(2*6.941/(2*6.941+12.012+3*15.999))*0.89</f>
         <v>4.7372849733467799</v>
       </c>
-      <c r="F299" t="s">
+      <c r="F300" t="s">
         <v>161</v>
       </c>
-      <c r="G299" t="s">
+      <c r="G300" t="s">
         <v>162</v>
       </c>
-      <c r="H299" t="s">
+      <c r="H300" t="s">
         <v>344</v>
       </c>
-      <c r="I299" t="s">
+      <c r="I300" t="s">
         <v>163</v>
       </c>
-      <c r="J299" t="s">
-        <v>337</v>
-      </c>
-      <c r="K299" t="s">
+      <c r="J300" t="s">
+        <v>337</v>
+      </c>
+      <c r="K300" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
+    <row r="301" spans="1:11">
+      <c r="A301" t="s">
         <v>32</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B301" t="s">
         <v>350</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C301" t="s">
         <v>351</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D301" t="s">
         <v>160</v>
       </c>
-      <c r="E300" s="2">
+      <c r="E301" s="2">
         <f>1/(2*6.941/(2*6.941+12.012+3*15.999))*0.1</f>
         <v>0.53227921048840221</v>
       </c>
-      <c r="F300" t="s">
+      <c r="F301" t="s">
         <v>161</v>
       </c>
-      <c r="G300" t="s">
+      <c r="G301" t="s">
         <v>162</v>
       </c>
-      <c r="H300" t="s">
+      <c r="H301" t="s">
         <v>344</v>
       </c>
-      <c r="I300" t="s">
+      <c r="I301" t="s">
         <v>163</v>
       </c>
-      <c r="J300" t="s">
-        <v>337</v>
-      </c>
-      <c r="K300" t="s">
+      <c r="J301" t="s">
+        <v>337</v>
+      </c>
+      <c r="K301" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+    <row r="302" spans="1:11">
+      <c r="A302" t="s">
         <v>32</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B302" t="s">
         <v>350</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C302" t="s">
         <v>351</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D302" t="s">
         <v>160</v>
       </c>
-      <c r="E301" s="2">
+      <c r="E302" s="2">
         <f>1/(1*6.941/(1*6.941+1*1.008+1*15.999))*0.01</f>
         <v>3.4502233107621384E-2</v>
       </c>
-      <c r="F301" t="s">
+      <c r="F302" t="s">
         <v>169</v>
       </c>
-      <c r="G301" t="s">
+      <c r="G302" t="s">
         <v>170</v>
       </c>
-      <c r="H301" t="s">
+      <c r="H302" t="s">
         <v>170</v>
       </c>
-      <c r="I301" t="s">
+      <c r="I302" t="s">
         <v>163</v>
       </c>
-      <c r="J301" t="s">
-        <v>337</v>
-      </c>
-      <c r="K301" t="s">
+      <c r="J302" t="s">
+        <v>337</v>
+      </c>
+      <c r="K302" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>32</v>
-      </c>
-      <c r="D302" t="s">
-        <v>11</v>
-      </c>
-      <c r="J302" t="s">
-        <v>338</v>
-      </c>
-      <c r="K302" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11">
       <c r="A303" t="s">
         <v>32</v>
       </c>
       <c r="D303" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="J303" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K303" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" t="s">
         <v>32</v>
       </c>
       <c r="D304" t="s">
+        <v>102</v>
+      </c>
+      <c r="J304" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
+      <c r="A305" t="s">
+        <v>32</v>
+      </c>
+      <c r="D305" t="s">
         <v>199</v>
       </c>
-      <c r="E304">
-        <v>1</v>
-      </c>
-      <c r="F304" t="s">
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="F305" t="s">
         <v>201</v>
       </c>
-      <c r="G304" t="s">
+      <c r="G305" t="s">
         <v>202</v>
       </c>
-      <c r="H304" t="s">
+      <c r="H305" t="s">
         <v>202</v>
       </c>
-      <c r="I304" t="s">
+      <c r="I305" t="s">
         <v>203</v>
       </c>
-      <c r="J304" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
+      <c r="J305" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
+      <c r="A306" t="s">
         <v>33</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D306" t="s">
         <v>160</v>
       </c>
-      <c r="E305" s="2">
+      <c r="E306" s="2">
         <f>1*0.99</f>
         <v>0.99</v>
       </c>
-      <c r="F305" t="s">
+      <c r="F306" t="s">
         <v>354</v>
       </c>
-      <c r="G305" t="s">
+      <c r="G306" t="s">
         <v>163</v>
       </c>
-      <c r="H305" t="s">
+      <c r="H306" t="s">
         <v>163</v>
       </c>
-      <c r="I305" t="s">
+      <c r="I306" t="s">
         <v>163</v>
       </c>
-      <c r="J305" t="s">
-        <v>337</v>
-      </c>
-      <c r="K305" t="s">
+      <c r="J306" t="s">
+        <v>337</v>
+      </c>
+      <c r="K306" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
+    <row r="307" spans="1:11">
+      <c r="A307" t="s">
         <v>33</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D307" t="s">
         <v>160</v>
       </c>
-      <c r="E306" s="2">
+      <c r="E307" s="2">
         <f>0.01*1/(1*6.941/(1*6.941+35.453))</f>
         <v>6.107765451664026E-2</v>
       </c>
-      <c r="F306" t="s">
+      <c r="F307" t="s">
         <v>355</v>
       </c>
-      <c r="G306" t="s">
+      <c r="G307" t="s">
         <v>356</v>
       </c>
-      <c r="H306" t="s">
+      <c r="H307" t="s">
         <v>356</v>
       </c>
-      <c r="I306" t="s">
+      <c r="I307" t="s">
         <v>163</v>
       </c>
-      <c r="J306" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>33</v>
-      </c>
-      <c r="D307" t="s">
-        <v>11</v>
-      </c>
       <c r="J307" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" t="s">
         <v>33</v>
       </c>
       <c r="D308" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="J308" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11">
       <c r="A309" t="s">
         <v>33</v>
       </c>
       <c r="D309" t="s">
+        <v>102</v>
+      </c>
+      <c r="J309" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
+      <c r="A310" t="s">
+        <v>33</v>
+      </c>
+      <c r="D310" t="s">
         <v>199</v>
       </c>
-      <c r="E309">
-        <v>1</v>
-      </c>
-      <c r="F309" t="s">
+      <c r="E310">
+        <v>1</v>
+      </c>
+      <c r="F310" t="s">
         <v>201</v>
       </c>
-      <c r="G309" t="s">
+      <c r="G310" t="s">
         <v>202</v>
       </c>
-      <c r="H309" t="s">
+      <c r="H310" t="s">
         <v>202</v>
       </c>
-      <c r="I309" t="s">
+      <c r="I310" t="s">
         <v>203</v>
       </c>
-      <c r="J309" t="s">
+      <c r="J310" t="s">
         <v>337</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K309" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K310" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/premise/data/metals/activities_mapping.xlsx
+++ b/premise/data/metals/activities_mapping.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD41A70-9B45-4C86-A192-213302873BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB17B051-95BF-4AE8-AED7-7695E10BDCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3615" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="activities_mapping" sheetId="2" r:id="rId1"/>
@@ -1158,19 +1158,19 @@
     <t>NMC-622 hydroxide</t>
   </si>
   <si>
+    <t>perovskite</t>
+  </si>
+  <si>
+    <t>market for indium tin oxide powder, nanoscale, for sputtering target</t>
+  </si>
+  <si>
+    <t>indium tin oxide powder, nanoscale, for sputtering target</t>
+  </si>
+  <si>
+    <t>Unit convertor set to 1 because we want to keep the current intensity for the uncertainty when considering a value of 0 in 2050.</t>
+  </si>
+  <si>
     <t>sodium tetrafluoroborate production, sodium tetrahydridoborate fluorination</t>
-  </si>
-  <si>
-    <t>perovskite</t>
-  </si>
-  <si>
-    <t>market for indium tin oxide powder, nanoscale, for sputtering target</t>
-  </si>
-  <si>
-    <t>indium tin oxide powder, nanoscale, for sputtering target</t>
-  </si>
-  <si>
-    <t>Unit convertor set to 1 because we want to keep the current intensity for the uncertainty when considering a value of 0 in 2050.</t>
   </si>
 </sst>
 </file>
@@ -1580,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2527,7 +2527,7 @@
         <v>1.2797151049856628</v>
       </c>
       <c r="F35" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G35" t="s">
         <v>52</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D104" t="s">
         <v>145</v>
@@ -4496,10 +4496,10 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
+        <v>375</v>
+      </c>
+      <c r="G104" t="s">
         <v>376</v>
-      </c>
-      <c r="G104" t="s">
-        <v>377</v>
       </c>
       <c r="H104" t="s">
         <v>146</v>
@@ -4511,7 +4511,7 @@
         <v>337</v>
       </c>
       <c r="K104" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="105" spans="1:11">

--- a/premise/data/metals/activities_mapping.xlsx
+++ b/premise/data/metals/activities_mapping.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB17B051-95BF-4AE8-AED7-7695E10BDCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6016CCC-09E6-4CEF-8DC0-05650536816B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="activities_mapping" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="375">
   <si>
     <t>technology</t>
   </si>
@@ -504,9 +504,6 @@
     <t>La2O3</t>
   </si>
   <si>
-    <t>DDPM</t>
-  </si>
-  <si>
     <t>Lead</t>
   </si>
   <si>
@@ -585,12 +582,6 @@
     <t>manganese</t>
   </si>
   <si>
-    <t>DDEE</t>
-  </si>
-  <si>
-    <t>Gearbox</t>
-  </si>
-  <si>
     <t>collector field area, solar thermal parabolic trough, 50 MW</t>
   </si>
   <si>
@@ -1057,9 +1048,6 @@
   </si>
   <si>
     <t>market for indium</t>
-  </si>
-  <si>
-    <t>HTEL</t>
   </si>
   <si>
     <t>NMC-811 hydroxide</t>
@@ -1578,10 +1566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1628,13 +1617,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1657,10 +1646,10 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1683,7 +1672,7 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1709,10 +1698,10 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1735,10 +1724,10 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1761,10 +1750,10 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1787,10 +1776,10 @@
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1813,10 +1802,10 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1839,10 +1828,10 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1865,10 +1854,10 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1891,10 +1880,10 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1917,10 +1906,10 @@
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1934,10 +1923,10 @@
         <v>0.32</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>14</v>
@@ -1946,13 +1935,13 @@
         <v>14</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1976,10 +1965,10 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2002,10 +1991,10 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2028,10 +2017,10 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2054,10 +2043,10 @@
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2080,10 +2069,10 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2106,10 +2095,10 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2132,10 +2121,10 @@
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2158,10 +2147,10 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2184,10 +2173,10 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2210,10 +2199,10 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2236,10 +2225,10 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2262,10 +2251,10 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2288,10 +2277,10 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2314,10 +2303,10 @@
         <v>40</v>
       </c>
       <c r="J27" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2340,10 +2329,10 @@
         <v>40</v>
       </c>
       <c r="J28" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2366,13 +2355,13 @@
         <v>43</v>
       </c>
       <c r="J29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -2395,10 +2384,10 @@
         <v>43</v>
       </c>
       <c r="J30" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2428,7 +2417,7 @@
         <v>50</v>
       </c>
       <c r="J31" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K31" t="s">
         <v>51</v>
@@ -2458,10 +2447,10 @@
         <v>50</v>
       </c>
       <c r="J32" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2485,10 +2474,10 @@
         <v>50</v>
       </c>
       <c r="J33" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -2512,10 +2501,10 @@
         <v>50</v>
       </c>
       <c r="J34" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2527,7 +2516,7 @@
         <v>1.2797151049856628</v>
       </c>
       <c r="F35" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G35" t="s">
         <v>52</v>
@@ -2539,13 +2528,13 @@
         <v>50</v>
       </c>
       <c r="J35" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -2569,13 +2558,13 @@
         <v>50</v>
       </c>
       <c r="J36" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -2598,13 +2587,13 @@
         <v>59</v>
       </c>
       <c r="J37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -2627,10 +2616,10 @@
         <v>63</v>
       </c>
       <c r="J38" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2654,13 +2643,13 @@
         <v>63</v>
       </c>
       <c r="J39" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2684,13 +2673,13 @@
         <v>63</v>
       </c>
       <c r="J40" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2714,13 +2703,13 @@
         <v>63</v>
       </c>
       <c r="J41" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2744,13 +2733,13 @@
         <v>73</v>
       </c>
       <c r="J42" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2774,13 +2763,13 @@
         <v>73</v>
       </c>
       <c r="J43" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K43" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -2804,13 +2793,13 @@
         <v>73</v>
       </c>
       <c r="J44" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K44" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -2834,15 +2823,15 @@
         <v>73</v>
       </c>
       <c r="J45" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K45" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D46" t="s">
         <v>70</v>
@@ -2864,7 +2853,7 @@
         <v>73</v>
       </c>
       <c r="J46" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K46" t="s">
         <v>75</v>
@@ -2894,13 +2883,13 @@
         <v>80</v>
       </c>
       <c r="J47" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K47" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2924,13 +2913,13 @@
         <v>80</v>
       </c>
       <c r="J48" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -2954,13 +2943,13 @@
         <v>80</v>
       </c>
       <c r="J49" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K49" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2983,13 +2972,13 @@
         <v>80</v>
       </c>
       <c r="J50" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" hidden="1">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -3012,10 +3001,10 @@
         <v>80</v>
       </c>
       <c r="J51" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -3039,13 +3028,13 @@
         <v>80</v>
       </c>
       <c r="J52" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K52" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -3069,13 +3058,13 @@
         <v>80</v>
       </c>
       <c r="J53" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K53" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -3096,10 +3085,10 @@
         <v>79</v>
       </c>
       <c r="J54" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -3120,10 +3109,10 @@
         <v>79</v>
       </c>
       <c r="J55" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -3144,10 +3133,10 @@
         <v>79</v>
       </c>
       <c r="J56" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -3168,10 +3157,10 @@
         <v>79</v>
       </c>
       <c r="J57" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -3179,10 +3168,10 @@
         <v>76</v>
       </c>
       <c r="J58" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -3205,13 +3194,13 @@
         <v>88</v>
       </c>
       <c r="J59" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K59" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -3234,13 +3223,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K60" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -3264,13 +3253,13 @@
         <v>88</v>
       </c>
       <c r="J61" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K61" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -3294,21 +3283,21 @@
         <v>88</v>
       </c>
       <c r="J62" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K62" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" t="s">
         <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C63" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D63" t="s">
         <v>86</v>
@@ -3330,21 +3319,21 @@
         <v>88</v>
       </c>
       <c r="J63" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K63" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" hidden="1">
       <c r="A64" t="s">
         <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C64" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D64" t="s">
         <v>86</v>
@@ -3366,21 +3355,21 @@
         <v>88</v>
       </c>
       <c r="J64" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K64" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" hidden="1">
       <c r="A65" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C65" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D65" t="s">
         <v>86</v>
@@ -3402,13 +3391,13 @@
         <v>88</v>
       </c>
       <c r="J65" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K65" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -3438,13 +3427,13 @@
         <v>88</v>
       </c>
       <c r="J66" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K66" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -3468,13 +3457,13 @@
         <v>88</v>
       </c>
       <c r="J67" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K67" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68" t="s">
         <v>99</v>
       </c>
@@ -3504,13 +3493,13 @@
         <v>88</v>
       </c>
       <c r="J68" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K68" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -3533,10 +3522,10 @@
         <v>88</v>
       </c>
       <c r="J69" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1">
       <c r="A70" t="s">
         <v>37</v>
       </c>
@@ -3559,12 +3548,12 @@
         <v>88</v>
       </c>
       <c r="J70" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1">
       <c r="A71" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D71" t="s">
         <v>86</v>
@@ -3585,21 +3574,21 @@
         <v>88</v>
       </c>
       <c r="J71" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1">
       <c r="D72" s="3" t="s">
         <v>102</v>
       </c>
       <c r="J72" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K72" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" hidden="1">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3623,13 +3612,13 @@
         <v>107</v>
       </c>
       <c r="J73" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K73" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" hidden="1">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -3653,7 +3642,7 @@
         <v>107</v>
       </c>
       <c r="J74" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K74" t="s">
         <v>108</v>
@@ -3683,13 +3672,13 @@
         <v>107</v>
       </c>
       <c r="J75" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K75" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" hidden="1">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -3713,13 +3702,13 @@
         <v>107</v>
       </c>
       <c r="J76" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K76" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" hidden="1">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -3743,13 +3732,13 @@
         <v>107</v>
       </c>
       <c r="J77" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K77" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" hidden="1">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3773,13 +3762,13 @@
         <v>112</v>
       </c>
       <c r="J78" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K78" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" hidden="1">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -3803,13 +3792,13 @@
         <v>112</v>
       </c>
       <c r="J79" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K79" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" hidden="1">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -3833,13 +3822,13 @@
         <v>117</v>
       </c>
       <c r="J80" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K80" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" hidden="1">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -3863,13 +3852,13 @@
         <v>117</v>
       </c>
       <c r="J81" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K81" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" hidden="1">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3893,13 +3882,13 @@
         <v>122</v>
       </c>
       <c r="J82" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K82" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" hidden="1">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -3923,10 +3912,10 @@
         <v>122</v>
       </c>
       <c r="J83" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1">
       <c r="A84" t="s">
         <v>34</v>
       </c>
@@ -3950,10 +3939,10 @@
         <v>122</v>
       </c>
       <c r="J84" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1">
       <c r="A85" t="s">
         <v>35</v>
       </c>
@@ -3977,10 +3966,10 @@
         <v>122</v>
       </c>
       <c r="J85" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -4003,10 +3992,10 @@
         <v>127</v>
       </c>
       <c r="J86" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -4029,10 +4018,10 @@
         <v>127</v>
       </c>
       <c r="J87" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -4055,13 +4044,13 @@
         <v>127</v>
       </c>
       <c r="J88" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K88" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" hidden="1">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -4084,13 +4073,13 @@
         <v>131</v>
       </c>
       <c r="J89" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" hidden="1">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -4113,10 +4102,10 @@
         <v>131</v>
       </c>
       <c r="J90" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" hidden="1">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -4139,10 +4128,10 @@
         <v>135</v>
       </c>
       <c r="J91" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -4165,15 +4154,15 @@
         <v>135</v>
       </c>
       <c r="J92" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1">
       <c r="A93" t="s">
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C93" t="s">
         <v>136</v>
@@ -4186,10 +4175,10 @@
         <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G93" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H93" t="s">
         <v>138</v>
@@ -4198,18 +4187,18 @@
         <v>138</v>
       </c>
       <c r="J93" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" hidden="1">
       <c r="A94" t="s">
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C94" t="s">
         <v>136</v>
@@ -4222,10 +4211,10 @@
         <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G94" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H94" t="s">
         <v>138</v>
@@ -4234,15 +4223,15 @@
         <v>138</v>
       </c>
       <c r="J94" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1">
       <c r="A95" t="s">
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C95" t="s">
         <v>136</v>
@@ -4255,10 +4244,10 @@
         <v>4.3365134431916736</v>
       </c>
       <c r="F95" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G95" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H95" t="s">
         <v>138</v>
@@ -4267,15 +4256,15 @@
         <v>138</v>
       </c>
       <c r="J95" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1">
       <c r="A96" t="s">
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C96" t="s">
         <v>136</v>
@@ -4288,10 +4277,10 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="F96" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G96" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H96" t="s">
         <v>138</v>
@@ -4300,10 +4289,10 @@
         <v>138</v>
       </c>
       <c r="J96" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -4326,10 +4315,10 @@
         <v>138</v>
       </c>
       <c r="J97" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" hidden="1">
       <c r="A98" t="s">
         <v>25</v>
       </c>
@@ -4352,10 +4341,10 @@
         <v>144</v>
       </c>
       <c r="J98" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" hidden="1">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -4366,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G99" t="s">
         <v>146</v>
@@ -4378,10 +4367,10 @@
         <v>146</v>
       </c>
       <c r="J99" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -4392,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G100" t="s">
         <v>146</v>
@@ -4404,10 +4393,10 @@
         <v>146</v>
       </c>
       <c r="J100" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -4418,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G101" t="s">
         <v>146</v>
@@ -4430,10 +4419,10 @@
         <v>146</v>
       </c>
       <c r="J101" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" hidden="1">
       <c r="A102" t="s">
         <v>21</v>
       </c>
@@ -4444,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G102" t="s">
         <v>146</v>
@@ -4456,10 +4445,10 @@
         <v>146</v>
       </c>
       <c r="J102" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" hidden="1">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -4470,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G103" t="s">
         <v>146</v>
@@ -4482,12 +4471,12 @@
         <v>146</v>
       </c>
       <c r="J103" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" hidden="1">
       <c r="A104" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D104" t="s">
         <v>145</v>
@@ -4496,10 +4485,10 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G104" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H104" t="s">
         <v>146</v>
@@ -4508,13 +4497,13 @@
         <v>146</v>
       </c>
       <c r="J104" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K104" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" hidden="1">
       <c r="A105" t="s">
         <v>25</v>
       </c>
@@ -4525,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G105" t="s">
         <v>146</v>
@@ -4537,10 +4526,10 @@
         <v>146</v>
       </c>
       <c r="J105" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" hidden="1">
       <c r="A106" t="s">
         <v>147</v>
       </c>
@@ -4563,10 +4552,10 @@
         <v>150</v>
       </c>
       <c r="J106" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -4590,13 +4579,13 @@
         <v>154</v>
       </c>
       <c r="J107" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K107" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" hidden="1">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -4620,13 +4609,13 @@
         <v>154</v>
       </c>
       <c r="J108" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K108" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" hidden="1">
       <c r="A109" t="s">
         <v>34</v>
       </c>
@@ -4650,13 +4639,13 @@
         <v>154</v>
       </c>
       <c r="J109" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K109" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" hidden="1">
       <c r="A110" t="s">
         <v>35</v>
       </c>
@@ -4680,13 +4669,13 @@
         <v>154</v>
       </c>
       <c r="J110" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K110" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" hidden="1">
       <c r="A111" t="s">
         <v>36</v>
       </c>
@@ -4710,15 +4699,15 @@
         <v>154</v>
       </c>
       <c r="J111" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K111" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
-      <c r="A112" t="s">
-        <v>341</v>
+    <row r="112" spans="1:11" hidden="1">
+      <c r="A112" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="D112" t="s">
         <v>151</v>
@@ -4740,7 +4729,7 @@
         <v>154</v>
       </c>
       <c r="J112" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K112" t="s">
         <v>155</v>
@@ -4748,1340 +4737,1340 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
         <v>156</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
         <v>157</v>
       </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>158</v>
       </c>
-      <c r="G113" t="s">
-        <v>159</v>
-      </c>
       <c r="H113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J113" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1">
       <c r="A114" t="s">
         <v>19</v>
       </c>
       <c r="D114" t="s">
+        <v>156</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
         <v>157</v>
       </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>158</v>
       </c>
-      <c r="G114" t="s">
-        <v>159</v>
-      </c>
       <c r="H114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J114" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" hidden="1">
       <c r="A115" t="s">
         <v>20</v>
       </c>
       <c r="D115" t="s">
+        <v>156</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
         <v>157</v>
       </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>158</v>
       </c>
-      <c r="G115" t="s">
-        <v>159</v>
-      </c>
       <c r="H115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J115" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1">
       <c r="A116" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D116" t="s">
+        <v>156</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
         <v>157</v>
       </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>158</v>
       </c>
-      <c r="G116" t="s">
-        <v>159</v>
-      </c>
       <c r="H116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J116" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" hidden="1">
       <c r="A117" t="s">
         <v>25</v>
       </c>
       <c r="D117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
         <v>157</v>
       </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>158</v>
       </c>
-      <c r="G117" t="s">
-        <v>159</v>
-      </c>
       <c r="H117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J117" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" hidden="1">
       <c r="A118" t="s">
         <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E118" s="2">
         <f>1/(2*6.941/(2*6.941+12.012+3*15.999))</f>
         <v>5.3227921048840221</v>
       </c>
       <c r="F118" t="s">
+        <v>160</v>
+      </c>
+      <c r="G118" t="s">
         <v>161</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
+        <v>161</v>
+      </c>
+      <c r="I118" t="s">
         <v>162</v>
       </c>
-      <c r="H118" t="s">
-        <v>162</v>
-      </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
+        <v>334</v>
+      </c>
+      <c r="K118" t="s">
         <v>163</v>
       </c>
-      <c r="J118" t="s">
-        <v>337</v>
-      </c>
-      <c r="K118" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+    </row>
+    <row r="119" spans="1:11" hidden="1">
       <c r="A119" t="s">
         <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E119" s="2">
         <f>1/(2*6.941/(2*6.941+12.012+3*15.999))</f>
         <v>5.3227921048840221</v>
       </c>
       <c r="F119" t="s">
+        <v>160</v>
+      </c>
+      <c r="G119" t="s">
         <v>161</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
+        <v>161</v>
+      </c>
+      <c r="I119" t="s">
         <v>162</v>
       </c>
-      <c r="H119" t="s">
-        <v>162</v>
-      </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
+        <v>334</v>
+      </c>
+      <c r="K119" t="s">
         <v>163</v>
       </c>
-      <c r="J119" t="s">
-        <v>337</v>
-      </c>
-      <c r="K119" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+    </row>
+    <row r="120" spans="1:11" hidden="1">
       <c r="A120" t="s">
         <v>91</v>
       </c>
       <c r="D120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E120" s="2"/>
       <c r="J120" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K120" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" hidden="1">
       <c r="A121" t="s">
         <v>26</v>
       </c>
       <c r="D121" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E121" s="2">
         <f>1/(1*6.941/(1*6.941+54.938*2+15.999*4))</f>
         <v>26.049992796427031</v>
       </c>
       <c r="F121" t="s">
+        <v>165</v>
+      </c>
+      <c r="G121" t="s">
         <v>166</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
+        <v>166</v>
+      </c>
+      <c r="I121" t="s">
+        <v>162</v>
+      </c>
+      <c r="J121" t="s">
+        <v>334</v>
+      </c>
+      <c r="K121" t="s">
         <v>167</v>
       </c>
-      <c r="H121" t="s">
-        <v>167</v>
-      </c>
-      <c r="I121" t="s">
-        <v>163</v>
-      </c>
-      <c r="J121" t="s">
-        <v>337</v>
-      </c>
-      <c r="K121" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+    </row>
+    <row r="122" spans="1:11" hidden="1">
       <c r="A122" t="s">
         <v>27</v>
       </c>
       <c r="B122" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C122" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E122" s="2">
         <f>1/(2*6.941/(2*6.941+12.012+3*15.999))/0.41/0.95</f>
         <v>13.665705018957697</v>
       </c>
       <c r="F122" t="s">
+        <v>160</v>
+      </c>
+      <c r="G122" t="s">
         <v>161</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
+        <v>161</v>
+      </c>
+      <c r="I122" t="s">
         <v>162</v>
       </c>
-      <c r="H122" t="s">
-        <v>162</v>
-      </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
+        <v>334</v>
+      </c>
+      <c r="K122" t="s">
         <v>163</v>
       </c>
-      <c r="J122" t="s">
-        <v>337</v>
-      </c>
-      <c r="K122" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+    </row>
+    <row r="123" spans="1:11" hidden="1">
       <c r="A123" t="s">
         <v>28</v>
       </c>
       <c r="B123" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C123" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D123" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E123" s="2">
         <f>1/(2*6.941/(2*6.941+12.012+3*15.999))/0.41/0.95</f>
         <v>13.665705018957697</v>
       </c>
       <c r="F123" t="s">
+        <v>160</v>
+      </c>
+      <c r="G123" t="s">
         <v>161</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
+        <v>161</v>
+      </c>
+      <c r="I123" t="s">
         <v>162</v>
       </c>
-      <c r="H123" t="s">
-        <v>162</v>
-      </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
+        <v>334</v>
+      </c>
+      <c r="K123" t="s">
         <v>163</v>
       </c>
-      <c r="J123" t="s">
-        <v>337</v>
-      </c>
-      <c r="K123" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+    </row>
+    <row r="124" spans="1:11" hidden="1">
       <c r="A124" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B124" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C124" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E124" s="2">
         <f>1/(1*6.941/(1*6.941+1*1.008+1*15.999))/0.3773/0.95</f>
         <v>9.6257991288856779</v>
       </c>
       <c r="F124" t="s">
+        <v>168</v>
+      </c>
+      <c r="G124" t="s">
         <v>169</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
+        <v>169</v>
+      </c>
+      <c r="I124" t="s">
+        <v>162</v>
+      </c>
+      <c r="J124" t="s">
+        <v>334</v>
+      </c>
+      <c r="K124" t="s">
         <v>170</v>
       </c>
-      <c r="H124" t="s">
-        <v>170</v>
-      </c>
-      <c r="I124" t="s">
-        <v>163</v>
-      </c>
-      <c r="J124" t="s">
-        <v>337</v>
-      </c>
-      <c r="K124" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+    </row>
+    <row r="125" spans="1:11" hidden="1">
       <c r="A125" t="s">
         <v>29</v>
       </c>
       <c r="B125" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C125" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E125" s="2">
         <f>1/(1*6.941/(1*6.941+1*1.008+1*15.999))/0.3738/0.95</f>
         <v>9.7159283342123235</v>
       </c>
       <c r="F125" t="s">
+        <v>168</v>
+      </c>
+      <c r="G125" t="s">
         <v>169</v>
       </c>
-      <c r="G125" t="s">
-        <v>170</v>
-      </c>
       <c r="H125" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I125" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J125" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" hidden="1">
       <c r="A126" t="s">
         <v>30</v>
       </c>
       <c r="B126" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C126" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E126" s="2">
         <f>1/(1*6.941/(1*6.941+1*55.847+1*30.974+4*15.999))</f>
         <v>22.728425298948281</v>
       </c>
       <c r="F126" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G126" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H126" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I126" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J126" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K126" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" hidden="1">
       <c r="A127" t="s">
         <v>31</v>
       </c>
       <c r="D127" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E127" s="2"/>
       <c r="J127" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K127" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1">
       <c r="A128" t="s">
         <v>32</v>
       </c>
       <c r="D128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E128" s="2"/>
       <c r="J128" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K128" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" hidden="1">
       <c r="A129" t="s">
         <v>33</v>
       </c>
       <c r="D129" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E129" s="2"/>
       <c r="J129" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K129" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" hidden="1">
       <c r="A130" t="s">
         <v>23</v>
       </c>
       <c r="D130" t="s">
+        <v>175</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
         <v>176</v>
       </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>177</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
+        <v>177</v>
+      </c>
+      <c r="I130" t="s">
+        <v>177</v>
+      </c>
+      <c r="J130" t="s">
+        <v>334</v>
+      </c>
+      <c r="K130" t="s">
         <v>178</v>
       </c>
-      <c r="H130" t="s">
-        <v>178</v>
-      </c>
-      <c r="I130" t="s">
-        <v>178</v>
-      </c>
-      <c r="J130" t="s">
-        <v>337</v>
-      </c>
-      <c r="K130" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+    </row>
+    <row r="131" spans="1:11" hidden="1">
       <c r="A131" t="s">
         <v>24</v>
       </c>
       <c r="D131" t="s">
+        <v>175</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
         <v>176</v>
       </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>177</v>
       </c>
-      <c r="G131" t="s">
-        <v>178</v>
-      </c>
       <c r="H131" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I131" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J131" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" hidden="1">
       <c r="A132" t="s">
         <v>10</v>
       </c>
       <c r="D132" t="s">
+        <v>179</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
         <v>180</v>
       </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>181</v>
       </c>
-      <c r="G132" t="s">
-        <v>182</v>
-      </c>
       <c r="H132" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I132" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J132" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="D133" t="s">
+        <v>179</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
         <v>180</v>
       </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>181</v>
       </c>
-      <c r="G133" t="s">
-        <v>182</v>
-      </c>
       <c r="H133" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I133" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J133" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" hidden="1">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="D134" t="s">
+        <v>179</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
         <v>180</v>
       </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>181</v>
       </c>
-      <c r="G134" t="s">
-        <v>182</v>
-      </c>
       <c r="H134" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I134" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J134" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" hidden="1">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="D135" t="s">
+        <v>179</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
         <v>180</v>
       </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>181</v>
       </c>
-      <c r="G135" t="s">
-        <v>182</v>
-      </c>
       <c r="H135" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I135" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J135" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" hidden="1">
       <c r="A136" t="s">
         <v>23</v>
       </c>
       <c r="B136" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C136" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D136" t="s">
+        <v>179</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
         <v>180</v>
       </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>181</v>
       </c>
-      <c r="G136" t="s">
-        <v>182</v>
-      </c>
       <c r="H136" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I136" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J136" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K136" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" hidden="1">
       <c r="A137" t="s">
         <v>24</v>
       </c>
       <c r="B137" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C137" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D137" t="s">
+        <v>179</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
         <v>180</v>
       </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>181</v>
       </c>
-      <c r="G137" t="s">
-        <v>182</v>
-      </c>
       <c r="H137" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I137" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J137" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K137" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" hidden="1">
       <c r="A138" t="s">
         <v>26</v>
       </c>
       <c r="D138" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J138" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K138" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" hidden="1">
       <c r="A139" t="s">
         <v>27</v>
       </c>
       <c r="B139" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C139" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D139" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E139" s="2">
         <f>1/(1*54.938/(1*54.938+32.065*1+4*15.999))/0.41/0.95/0.949</f>
         <v>7.4357974595432594</v>
       </c>
       <c r="F139" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G139" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H139" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I139" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J139" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K139" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" hidden="1">
       <c r="A140" t="s">
         <v>28</v>
       </c>
       <c r="B140" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C140" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E140" s="2">
         <f>1/(1*54.938/(1*54.938+32.065*1+4*15.999))/0.41/0.95/0.949</f>
         <v>7.4357974595432594</v>
       </c>
       <c r="F140" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G140" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H140" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I140" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J140" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K140" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" hidden="1">
       <c r="A141" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B141" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C141" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E141" s="2">
         <f>1/(1*54.938/(1*54.938+32.065*1+4*15.999))/0.3773/0.95/0.949</f>
         <v>8.0802463779823377</v>
       </c>
       <c r="F141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G141" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H141" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J141" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K141" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" hidden="1">
       <c r="A142" t="s">
         <v>29</v>
       </c>
       <c r="D142" t="s">
+        <v>179</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
         <v>180</v>
       </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>181</v>
       </c>
-      <c r="G142" t="s">
-        <v>182</v>
-      </c>
       <c r="H142" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I142" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J142" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" hidden="1">
       <c r="A143" t="s">
         <v>30</v>
       </c>
       <c r="D143" t="s">
+        <v>179</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
         <v>180</v>
       </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>181</v>
       </c>
-      <c r="G143" t="s">
-        <v>182</v>
-      </c>
       <c r="H143" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I143" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J143" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" hidden="1">
       <c r="A144" t="s">
         <v>34</v>
       </c>
       <c r="D144" t="s">
+        <v>179</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
         <v>180</v>
       </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>181</v>
       </c>
-      <c r="G144" t="s">
-        <v>182</v>
-      </c>
       <c r="H144" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I144" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J144" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K144" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" hidden="1">
       <c r="A145" t="s">
         <v>36</v>
       </c>
       <c r="D145" t="s">
+        <v>179</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
         <v>180</v>
       </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>181</v>
       </c>
-      <c r="G145" t="s">
-        <v>182</v>
-      </c>
       <c r="H145" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I145" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J145" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
-      <c r="A146" t="s">
-        <v>341</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" hidden="1">
+      <c r="A146" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="D146" t="s">
+        <v>179</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
         <v>180</v>
       </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>181</v>
       </c>
-      <c r="G146" t="s">
-        <v>182</v>
-      </c>
       <c r="H146" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I146" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J146" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" hidden="1">
       <c r="A147" t="s">
         <v>25</v>
       </c>
       <c r="D147" t="s">
+        <v>179</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
         <v>180</v>
       </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>181</v>
       </c>
-      <c r="G147" t="s">
-        <v>182</v>
-      </c>
       <c r="H147" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I147" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J147" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" hidden="1">
       <c r="A148" t="s">
         <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E148">
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G148" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H148" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I148" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J148" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" hidden="1">
       <c r="A149" t="s">
         <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G149" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H149" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I149" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J149" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E150">
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G150" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H150" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I150" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J150" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" hidden="1">
       <c r="A151" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="D151" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E151">
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G151" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H151" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I151" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J151" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" hidden="1">
       <c r="A152" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E152">
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G152" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H152" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I152" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J152" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" hidden="1">
       <c r="A153" t="s">
         <v>20</v>
       </c>
       <c r="D153" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E153">
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G153" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H153" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I153" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J153" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" hidden="1">
       <c r="A154" t="s">
         <v>21</v>
       </c>
       <c r="D154" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E154">
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G154" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H154" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I154" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J154" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" hidden="1">
       <c r="A155" t="s">
         <v>22</v>
       </c>
       <c r="D155" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E155">
         <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G155" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H155" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I155" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J155" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" hidden="1">
       <c r="A156" t="s">
         <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E156">
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G156" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H156" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I156" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J156" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" hidden="1">
       <c r="A157" t="s">
         <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E157">
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G157" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H157" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I157" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J157" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" hidden="1">
       <c r="A158" t="s">
         <v>34</v>
       </c>
       <c r="D158" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E158">
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G158" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H158" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I158" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J158" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" hidden="1">
       <c r="A159" t="s">
         <v>36</v>
       </c>
       <c r="D159" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E159">
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G159" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H159" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I159" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J159" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" hidden="1">
       <c r="A160" t="s">
         <v>25</v>
       </c>
       <c r="D160" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E160">
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G160" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H160" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I160" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J160" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" hidden="1">
       <c r="A161" t="s">
         <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E161" s="2">
         <f>1/(2*144.242/(2*144.242+3*15.999))</f>
         <v>1.1663766448052579</v>
       </c>
       <c r="F161" t="s">
+        <v>192</v>
+      </c>
+      <c r="G161" t="s">
+        <v>193</v>
+      </c>
+      <c r="H161" t="s">
+        <v>193</v>
+      </c>
+      <c r="I161" t="s">
+        <v>194</v>
+      </c>
+      <c r="J161" t="s">
+        <v>334</v>
+      </c>
+      <c r="K161" t="s">
         <v>195</v>
       </c>
-      <c r="G161" t="s">
-        <v>196</v>
-      </c>
-      <c r="H161" t="s">
-        <v>196</v>
-      </c>
-      <c r="I161" t="s">
-        <v>197</v>
-      </c>
-      <c r="J161" t="s">
-        <v>337</v>
-      </c>
-      <c r="K161" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
+    </row>
+    <row r="162" spans="1:11" hidden="1">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -6092,475 +6081,475 @@
         <v>46</v>
       </c>
       <c r="D162" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E162" s="2">
         <f>1/(2*144.242/(2*144.242+3*15.999))/0.0373584905660377</f>
         <v>31.221193017514512</v>
       </c>
       <c r="F162" t="s">
+        <v>192</v>
+      </c>
+      <c r="G162" t="s">
+        <v>193</v>
+      </c>
+      <c r="H162" t="s">
+        <v>193</v>
+      </c>
+      <c r="I162" t="s">
+        <v>194</v>
+      </c>
+      <c r="J162" t="s">
+        <v>334</v>
+      </c>
+      <c r="K162" t="s">
         <v>195</v>
-      </c>
-      <c r="G162" t="s">
-        <v>196</v>
-      </c>
-      <c r="H162" t="s">
-        <v>196</v>
-      </c>
-      <c r="I162" t="s">
-        <v>197</v>
-      </c>
-      <c r="J162" t="s">
-        <v>337</v>
-      </c>
-      <c r="K162" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E163" s="2">
         <f t="shared" ref="E163:E165" si="7">1/(2*144.242/(2*144.242+3*15.999))</f>
         <v>1.1663766448052579</v>
       </c>
       <c r="F163" t="s">
+        <v>192</v>
+      </c>
+      <c r="G163" t="s">
+        <v>193</v>
+      </c>
+      <c r="H163" t="s">
+        <v>193</v>
+      </c>
+      <c r="I163" t="s">
+        <v>194</v>
+      </c>
+      <c r="J163" t="s">
+        <v>334</v>
+      </c>
+      <c r="K163" t="s">
         <v>195</v>
       </c>
-      <c r="G163" t="s">
-        <v>196</v>
-      </c>
-      <c r="H163" t="s">
-        <v>196</v>
-      </c>
-      <c r="I163" t="s">
-        <v>197</v>
-      </c>
-      <c r="J163" t="s">
-        <v>337</v>
-      </c>
-      <c r="K163" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
+    </row>
+    <row r="164" spans="1:11" hidden="1">
       <c r="A164" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="D164" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E164" s="2">
         <f t="shared" si="7"/>
         <v>1.1663766448052579</v>
       </c>
       <c r="F164" t="s">
+        <v>192</v>
+      </c>
+      <c r="G164" t="s">
+        <v>193</v>
+      </c>
+      <c r="H164" t="s">
+        <v>193</v>
+      </c>
+      <c r="I164" t="s">
+        <v>194</v>
+      </c>
+      <c r="J164" t="s">
+        <v>334</v>
+      </c>
+      <c r="K164" t="s">
         <v>195</v>
       </c>
-      <c r="G164" t="s">
-        <v>196</v>
-      </c>
-      <c r="H164" t="s">
-        <v>196</v>
-      </c>
-      <c r="I164" t="s">
-        <v>197</v>
-      </c>
-      <c r="J164" t="s">
-        <v>337</v>
-      </c>
-      <c r="K164" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
+    </row>
+    <row r="165" spans="1:11" hidden="1">
       <c r="A165" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="D165" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E165" s="2">
         <f t="shared" si="7"/>
         <v>1.1663766448052579</v>
       </c>
       <c r="F165" t="s">
+        <v>192</v>
+      </c>
+      <c r="G165" t="s">
+        <v>193</v>
+      </c>
+      <c r="H165" t="s">
+        <v>193</v>
+      </c>
+      <c r="I165" t="s">
+        <v>194</v>
+      </c>
+      <c r="J165" t="s">
+        <v>334</v>
+      </c>
+      <c r="K165" t="s">
         <v>195</v>
-      </c>
-      <c r="G165" t="s">
-        <v>196</v>
-      </c>
-      <c r="H165" t="s">
-        <v>196</v>
-      </c>
-      <c r="I165" t="s">
-        <v>197</v>
-      </c>
-      <c r="J165" t="s">
-        <v>337</v>
-      </c>
-      <c r="K165" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J166" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K166" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" hidden="1">
       <c r="A167" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="D167" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J167" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K167" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" hidden="1">
       <c r="A168" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="D168" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J168" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K168" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" hidden="1">
       <c r="A169" t="s">
         <v>19</v>
       </c>
       <c r="D169" t="s">
+        <v>196</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169" t="s">
+        <v>198</v>
+      </c>
+      <c r="G169" t="s">
         <v>199</v>
       </c>
-      <c r="E169">
-        <v>1</v>
-      </c>
-      <c r="F169" t="s">
-        <v>201</v>
-      </c>
-      <c r="G169" t="s">
-        <v>202</v>
-      </c>
       <c r="H169" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I169" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J169" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K169" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" hidden="1">
       <c r="A170" t="s">
         <v>20</v>
       </c>
       <c r="D170" t="s">
+        <v>196</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170" t="s">
+        <v>198</v>
+      </c>
+      <c r="G170" t="s">
         <v>199</v>
       </c>
-      <c r="E170">
-        <v>1</v>
-      </c>
-      <c r="F170" t="s">
-        <v>201</v>
-      </c>
-      <c r="G170" t="s">
-        <v>202</v>
-      </c>
       <c r="H170" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I170" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J170" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K170" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" hidden="1">
       <c r="A171" t="s">
         <v>22</v>
       </c>
       <c r="D171" t="s">
+        <v>196</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171" t="s">
+        <v>198</v>
+      </c>
+      <c r="G171" t="s">
         <v>199</v>
       </c>
-      <c r="E171">
-        <v>1</v>
-      </c>
-      <c r="F171" t="s">
+      <c r="H171" t="s">
+        <v>199</v>
+      </c>
+      <c r="I171" t="s">
+        <v>200</v>
+      </c>
+      <c r="J171" t="s">
+        <v>334</v>
+      </c>
+      <c r="K171" t="s">
         <v>201</v>
       </c>
-      <c r="G171" t="s">
-        <v>202</v>
-      </c>
-      <c r="H171" t="s">
-        <v>202</v>
-      </c>
-      <c r="I171" t="s">
-        <v>203</v>
-      </c>
-      <c r="J171" t="s">
-        <v>337</v>
-      </c>
-      <c r="K171" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
+    </row>
+    <row r="172" spans="1:11" hidden="1">
       <c r="A172" t="s">
         <v>23</v>
       </c>
       <c r="B172" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C172" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D172" t="s">
+        <v>196</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172" t="s">
+        <v>198</v>
+      </c>
+      <c r="G172" t="s">
         <v>199</v>
       </c>
-      <c r="E172">
-        <v>1</v>
-      </c>
-      <c r="F172" t="s">
-        <v>201</v>
-      </c>
-      <c r="G172" t="s">
-        <v>202</v>
-      </c>
       <c r="H172" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I172" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J172" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K172" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" hidden="1">
       <c r="A173" t="s">
         <v>24</v>
       </c>
       <c r="B173" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C173" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D173" t="s">
+        <v>196</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" t="s">
+        <v>198</v>
+      </c>
+      <c r="G173" t="s">
         <v>199</v>
       </c>
-      <c r="E173">
-        <v>1</v>
-      </c>
-      <c r="F173" t="s">
-        <v>201</v>
-      </c>
-      <c r="G173" t="s">
-        <v>202</v>
-      </c>
       <c r="H173" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I173" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J173" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K173" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" hidden="1">
       <c r="A174" t="s">
         <v>91</v>
       </c>
       <c r="D174" t="s">
+        <v>196</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174" t="s">
+        <v>198</v>
+      </c>
+      <c r="G174" t="s">
         <v>199</v>
       </c>
-      <c r="E174">
-        <v>1</v>
-      </c>
-      <c r="F174" t="s">
-        <v>201</v>
-      </c>
-      <c r="G174" t="s">
-        <v>202</v>
-      </c>
       <c r="H174" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I174" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J174" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" hidden="1">
       <c r="A175" t="s">
         <v>26</v>
       </c>
       <c r="D175" t="s">
+        <v>196</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>198</v>
+      </c>
+      <c r="G175" t="s">
         <v>199</v>
       </c>
-      <c r="E175">
-        <v>1</v>
-      </c>
-      <c r="F175" t="s">
-        <v>201</v>
-      </c>
-      <c r="G175" t="s">
-        <v>202</v>
-      </c>
       <c r="H175" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I175" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J175" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" hidden="1">
       <c r="A176" t="s">
         <v>27</v>
       </c>
       <c r="B176" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C176" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D176" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E176" s="2">
         <f>1/(1*58.693/(1*58.693+1*32.065+4*15.999))/0.41/0.95</f>
         <v>6.7693678254074037</v>
       </c>
       <c r="F176" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G176" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H176" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I176" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J176" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K176" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" hidden="1">
       <c r="A177" t="s">
         <v>28</v>
       </c>
       <c r="B177" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C177" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D177" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E177" s="2">
         <f>1/(1*58.693/(1*58.693+1*32.065+4*15.999))/0.41/0.95</f>
         <v>6.7693678254074037</v>
       </c>
       <c r="F177" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G177" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H177" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I177" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J177" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" hidden="1">
       <c r="A178" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B178" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C178" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D178" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E178" s="2">
         <f>1/(1*58.693/(1*58.693+1*32.065+4*15.999))/0.3773/0.95</f>
         <v>7.3560583313465013</v>
       </c>
       <c r="F178" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G178" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H178" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I178" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J178" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" hidden="1">
       <c r="A179" t="s">
         <v>29</v>
       </c>
@@ -6571,3431 +6560,3431 @@
         <v>98</v>
       </c>
       <c r="D179" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E179" s="2">
         <f>1/(1*58.693/(1*58.693+1*32.065+4*15.999))/0.3738/0.95/0.95</f>
         <v>7.8157213494889888</v>
       </c>
       <c r="F179" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G179" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H179" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I179" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J179" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" hidden="1">
       <c r="A180" t="s">
         <v>30</v>
       </c>
       <c r="D180" t="s">
+        <v>196</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180" t="s">
+        <v>198</v>
+      </c>
+      <c r="G180" t="s">
         <v>199</v>
       </c>
-      <c r="E180">
-        <v>1</v>
-      </c>
-      <c r="F180" t="s">
-        <v>201</v>
-      </c>
-      <c r="G180" t="s">
-        <v>202</v>
-      </c>
       <c r="H180" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I180" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J180" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" hidden="1">
       <c r="A181" t="s">
         <v>31</v>
       </c>
       <c r="D181" t="s">
+        <v>196</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181" t="s">
+        <v>198</v>
+      </c>
+      <c r="G181" t="s">
         <v>199</v>
       </c>
-      <c r="E181">
-        <v>1</v>
-      </c>
-      <c r="F181" t="s">
-        <v>201</v>
-      </c>
-      <c r="G181" t="s">
-        <v>202</v>
-      </c>
       <c r="H181" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I181" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J181" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" hidden="1">
       <c r="A182" t="s">
         <v>99</v>
       </c>
       <c r="D182" t="s">
+        <v>196</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182" t="s">
+        <v>198</v>
+      </c>
+      <c r="G182" t="s">
         <v>199</v>
       </c>
-      <c r="E182">
-        <v>1</v>
-      </c>
-      <c r="F182" t="s">
-        <v>201</v>
-      </c>
-      <c r="G182" t="s">
-        <v>202</v>
-      </c>
       <c r="H182" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I182" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J182" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" hidden="1">
       <c r="A183" t="s">
         <v>32</v>
       </c>
       <c r="D183" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J183" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K183" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" hidden="1">
       <c r="A184" t="s">
         <v>33</v>
       </c>
       <c r="D184" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J184" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K184" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" hidden="1">
       <c r="A185" t="s">
         <v>34</v>
       </c>
       <c r="D185" t="s">
+        <v>196</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185" t="s">
+        <v>198</v>
+      </c>
+      <c r="G185" t="s">
         <v>199</v>
       </c>
-      <c r="E185">
-        <v>1</v>
-      </c>
-      <c r="F185" t="s">
-        <v>201</v>
-      </c>
-      <c r="G185" t="s">
-        <v>202</v>
-      </c>
       <c r="H185" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I185" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J185" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K185" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" hidden="1">
       <c r="A186" t="s">
         <v>36</v>
       </c>
       <c r="D186" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J186" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K186" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" hidden="1">
       <c r="A187" t="s">
         <v>37</v>
       </c>
       <c r="D187" t="s">
+        <v>196</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187" t="s">
+        <v>198</v>
+      </c>
+      <c r="G187" t="s">
         <v>199</v>
       </c>
-      <c r="E187">
-        <v>1</v>
-      </c>
-      <c r="F187" t="s">
-        <v>201</v>
-      </c>
-      <c r="G187" t="s">
-        <v>202</v>
-      </c>
       <c r="H187" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I187" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J187" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K187" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
-      <c r="A188" t="s">
-        <v>341</v>
+    <row r="188" spans="1:11" hidden="1">
+      <c r="A188" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="D188" t="s">
+        <v>196</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188" t="s">
+        <v>198</v>
+      </c>
+      <c r="G188" t="s">
         <v>199</v>
       </c>
-      <c r="E188">
-        <v>1</v>
-      </c>
-      <c r="F188" t="s">
-        <v>201</v>
-      </c>
-      <c r="G188" t="s">
-        <v>202</v>
-      </c>
       <c r="H188" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I188" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J188" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K188" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" hidden="1">
       <c r="A189" t="s">
         <v>25</v>
       </c>
       <c r="D189" t="s">
+        <v>196</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189" t="s">
+        <v>198</v>
+      </c>
+      <c r="G189" t="s">
         <v>199</v>
       </c>
-      <c r="E189">
-        <v>1</v>
-      </c>
-      <c r="F189" t="s">
-        <v>201</v>
-      </c>
-      <c r="G189" t="s">
-        <v>202</v>
-      </c>
       <c r="H189" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I189" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J189" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" hidden="1">
       <c r="A190" t="s">
         <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E190" s="2">
         <f>1/0.66</f>
         <v>1.5151515151515151</v>
       </c>
       <c r="F190" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G190" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H190" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I190" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J190" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" hidden="1">
       <c r="A191" t="s">
         <v>15</v>
       </c>
       <c r="D191" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E191" s="2">
         <f t="shared" ref="E191:E197" si="8">1/0.66</f>
         <v>1.5151515151515151</v>
       </c>
       <c r="F191" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G191" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H191" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I191" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J191" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E192" s="2">
         <f t="shared" si="8"/>
         <v>1.5151515151515151</v>
       </c>
       <c r="F192" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G192" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H192" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I192" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J192" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" hidden="1">
       <c r="A193" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="D193" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E193" s="2">
         <f t="shared" si="8"/>
         <v>1.5151515151515151</v>
       </c>
       <c r="F193" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G193" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H193" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I193" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J193" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" hidden="1">
       <c r="A194" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="D194" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E194" s="2">
         <f t="shared" si="8"/>
         <v>1.5151515151515151</v>
       </c>
       <c r="F194" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G194" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H194" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I194" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J194" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" hidden="1">
       <c r="A195" t="s">
         <v>23</v>
       </c>
       <c r="D195" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E195" s="2">
         <f t="shared" si="8"/>
         <v>1.5151515151515151</v>
       </c>
       <c r="F195" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G195" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H195" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I195" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J195" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" hidden="1">
       <c r="A196" t="s">
         <v>24</v>
       </c>
       <c r="D196" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E196" s="2">
         <f t="shared" si="8"/>
         <v>1.5151515151515151</v>
       </c>
       <c r="F196" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G196" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H196" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I196" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J196" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" hidden="1">
       <c r="A197" t="s">
         <v>25</v>
       </c>
       <c r="D197" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E197" s="2">
         <f t="shared" si="8"/>
         <v>1.5151515151515151</v>
       </c>
       <c r="F197" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G197" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H197" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I197" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J197" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" hidden="1">
       <c r="A198" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B198" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C198" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D198" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E198" s="2">
         <f>1/0.26013</f>
         <v>3.8442317302887021</v>
       </c>
       <c r="F198" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G198" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H198" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I198" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J198" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K198" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" hidden="1">
       <c r="A199" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B199" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C199" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D199" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E199" s="2">
         <f>1/0.30518</f>
         <v>3.2767547021429975</v>
       </c>
       <c r="F199" t="s">
+        <v>212</v>
+      </c>
+      <c r="G199" t="s">
+        <v>213</v>
+      </c>
+      <c r="H199" t="s">
+        <v>213</v>
+      </c>
+      <c r="I199" t="s">
+        <v>213</v>
+      </c>
+      <c r="J199" t="s">
+        <v>334</v>
+      </c>
+      <c r="K199" t="s">
         <v>215</v>
       </c>
-      <c r="G199" t="s">
-        <v>216</v>
-      </c>
-      <c r="H199" t="s">
-        <v>216</v>
-      </c>
-      <c r="I199" t="s">
-        <v>216</v>
-      </c>
-      <c r="J199" t="s">
-        <v>337</v>
-      </c>
-      <c r="K199" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13">
+    </row>
+    <row r="200" spans="1:13" hidden="1">
       <c r="A200" t="s">
         <v>15</v>
       </c>
       <c r="D200" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E200">
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G200" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H200" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I200" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J200" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" hidden="1">
       <c r="A201" t="s">
         <v>34</v>
       </c>
       <c r="D201" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G201" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H201" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I201" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J201" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" hidden="1">
       <c r="A202" t="s">
         <v>36</v>
       </c>
       <c r="D202" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E202">
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G202" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H202" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I202" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J202" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" hidden="1">
       <c r="A203" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B203" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C203" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E203" s="2">
         <f>1/(1*6.941/(1*6.941+1*30.974+6*18.998))/0.146</f>
         <v>149.89648564318037</v>
       </c>
       <c r="F203" t="s">
+        <v>218</v>
+      </c>
+      <c r="G203" t="s">
+        <v>219</v>
+      </c>
+      <c r="H203" t="s">
+        <v>219</v>
+      </c>
+      <c r="I203" t="s">
+        <v>162</v>
+      </c>
+      <c r="J203" t="s">
+        <v>335</v>
+      </c>
+      <c r="K203" t="s">
+        <v>220</v>
+      </c>
+      <c r="M203" t="s">
         <v>221</v>
       </c>
-      <c r="G203" t="s">
-        <v>222</v>
-      </c>
-      <c r="H203" t="s">
-        <v>222</v>
-      </c>
-      <c r="I203" t="s">
-        <v>163</v>
-      </c>
-      <c r="J203" t="s">
-        <v>338</v>
-      </c>
-      <c r="K203" t="s">
-        <v>223</v>
-      </c>
-      <c r="M203" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13">
+    </row>
+    <row r="204" spans="1:13" hidden="1">
       <c r="A204" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B204" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C204" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E204" s="2">
         <f>1/(1*6.941/(1*6.941+1*30.974+6*18.998))/0.146</f>
         <v>149.89648564318037</v>
       </c>
       <c r="F204" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G204" t="s">
+        <v>219</v>
+      </c>
+      <c r="H204" t="s">
+        <v>219</v>
+      </c>
+      <c r="I204" t="s">
+        <v>162</v>
+      </c>
+      <c r="J204" t="s">
+        <v>335</v>
+      </c>
+      <c r="M204" t="s">
         <v>222</v>
       </c>
-      <c r="H204" t="s">
-        <v>222</v>
-      </c>
-      <c r="I204" t="s">
-        <v>163</v>
-      </c>
-      <c r="J204" t="s">
-        <v>338</v>
-      </c>
-      <c r="M204" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13">
+    </row>
+    <row r="205" spans="1:13" hidden="1">
       <c r="A205" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B205" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C205" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E205" s="2">
         <f>1/(1*6.941/(1*6.941+1*30.974+6*18.998))/0.1484</f>
         <v>147.47228371903191</v>
       </c>
       <c r="F205" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G205" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H205" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I205" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J205" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" hidden="1">
       <c r="A206" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B206" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C206" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E206" s="2">
         <f t="shared" ref="E206" si="9">1/(1*6.941/(1*6.941+1*30.974+6*18.998))</f>
         <v>21.884886903904334</v>
       </c>
       <c r="F206" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G206" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H206" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I206" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J206" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M206" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" hidden="1">
       <c r="A207" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B207" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C207" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E207" s="2">
         <f>1/(1*6.941/(1*6.941+1*30.974+6*18.998))/0.085714</f>
         <v>255.32453162732267</v>
       </c>
       <c r="F207" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G207" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H207" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I207" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J207" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" hidden="1">
       <c r="A208" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B208" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D208" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E208" s="2">
         <f>1/0.26013</f>
         <v>3.8442317302887021</v>
       </c>
       <c r="F208" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G208" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H208" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I208" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J208" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K208" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" hidden="1">
       <c r="A209" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B209" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C209" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D209" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E209" s="2">
         <f>1/0.30518</f>
         <v>3.2767547021429975</v>
       </c>
       <c r="F209" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G209" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H209" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I209" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J209" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K209" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" hidden="1">
       <c r="A210" t="s">
         <v>15</v>
       </c>
       <c r="D210" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E210">
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G210" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H210" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I210" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J210" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" hidden="1">
       <c r="A211" t="s">
         <v>85</v>
       </c>
       <c r="D211" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E211">
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G211" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H211" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I211" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J211" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K211" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" hidden="1">
       <c r="A212" t="s">
         <v>34</v>
       </c>
       <c r="D212" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E212">
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G212" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H212" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I212" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J212" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K212" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" hidden="1">
       <c r="A213" t="s">
         <v>36</v>
       </c>
       <c r="D213" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E213">
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G213" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H213" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I213" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J213" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K213" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" hidden="1">
       <c r="A214" t="s">
         <v>147</v>
       </c>
       <c r="D214" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E214">
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G214" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H214" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I214" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J214" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K214" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" hidden="1">
       <c r="A215" t="s">
         <v>37</v>
       </c>
       <c r="D215" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E215">
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G215" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H215" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I215" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J215" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K215" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" hidden="1">
       <c r="A216" t="s">
         <v>147</v>
       </c>
       <c r="D216" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E216" s="2">
         <f>1/(1*39.098/(1*39.098+1*15.999+1*1.008))</f>
         <v>1.434983886643818</v>
       </c>
       <c r="F216" t="s">
+        <v>230</v>
+      </c>
+      <c r="G216" t="s">
+        <v>231</v>
+      </c>
+      <c r="H216" t="s">
+        <v>231</v>
+      </c>
+      <c r="I216" t="s">
+        <v>232</v>
+      </c>
+      <c r="J216" t="s">
+        <v>334</v>
+      </c>
+      <c r="K216" t="s">
         <v>233</v>
       </c>
-      <c r="G216" t="s">
-        <v>234</v>
-      </c>
-      <c r="H216" t="s">
-        <v>234</v>
-      </c>
-      <c r="I216" t="s">
-        <v>235</v>
-      </c>
-      <c r="J216" t="s">
-        <v>337</v>
-      </c>
-      <c r="K216" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11">
+    </row>
+    <row r="217" spans="1:11" hidden="1">
       <c r="A217" t="s">
         <v>37</v>
       </c>
       <c r="D217" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E217" s="2">
         <f>1/(1*39.098/(1*39.098+1*15.999+1*1.008))</f>
         <v>1.434983886643818</v>
       </c>
       <c r="F217" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G217" t="s">
+        <v>231</v>
+      </c>
+      <c r="H217" t="s">
+        <v>231</v>
+      </c>
+      <c r="I217" t="s">
+        <v>232</v>
+      </c>
+      <c r="J217" t="s">
+        <v>334</v>
+      </c>
+      <c r="K217" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H217" t="s">
-        <v>234</v>
-      </c>
-      <c r="I217" t="s">
-        <v>235</v>
-      </c>
-      <c r="J217" t="s">
-        <v>337</v>
-      </c>
-      <c r="K217" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11">
+    </row>
+    <row r="218" spans="1:11" hidden="1">
       <c r="A218" t="s">
         <v>10</v>
       </c>
       <c r="D218" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E218" s="2">
         <f>1/(2*140.908/(2*140.908+3*15.999))</f>
         <v>1.1703132540380958</v>
       </c>
       <c r="F218" t="s">
+        <v>236</v>
+      </c>
+      <c r="G218" t="s">
+        <v>237</v>
+      </c>
+      <c r="H218" t="s">
+        <v>237</v>
+      </c>
+      <c r="I218" t="s">
+        <v>238</v>
+      </c>
+      <c r="J218" t="s">
+        <v>334</v>
+      </c>
+      <c r="K218" t="s">
         <v>239</v>
       </c>
-      <c r="G218" t="s">
-        <v>240</v>
-      </c>
-      <c r="H218" t="s">
-        <v>240</v>
-      </c>
-      <c r="I218" t="s">
-        <v>241</v>
-      </c>
-      <c r="J218" t="s">
-        <v>337</v>
-      </c>
-      <c r="K218" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11">
+    </row>
+    <row r="219" spans="1:11" hidden="1">
       <c r="A219" t="s">
         <v>15</v>
       </c>
       <c r="D219" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E219" s="2">
         <f t="shared" ref="E219:E222" si="10">1/(2*140.908/(2*140.908+3*15.999))</f>
         <v>1.1703132540380958</v>
       </c>
       <c r="F219" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G219" t="s">
+        <v>237</v>
+      </c>
+      <c r="H219" t="s">
+        <v>237</v>
+      </c>
+      <c r="I219" t="s">
+        <v>238</v>
+      </c>
+      <c r="J219" t="s">
+        <v>334</v>
+      </c>
+      <c r="K219" t="s">
         <v>240</v>
-      </c>
-      <c r="H219" t="s">
-        <v>240</v>
-      </c>
-      <c r="I219" t="s">
-        <v>241</v>
-      </c>
-      <c r="J219" t="s">
-        <v>337</v>
-      </c>
-      <c r="K219" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="D220" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E220" s="2">
         <f t="shared" si="10"/>
         <v>1.1703132540380958</v>
       </c>
       <c r="F220" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G220" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H220" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I220" t="s">
+        <v>238</v>
+      </c>
+      <c r="J220" t="s">
+        <v>334</v>
+      </c>
+      <c r="K220" t="s">
         <v>241</v>
       </c>
-      <c r="J220" t="s">
-        <v>337</v>
-      </c>
-      <c r="K220" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11">
+    </row>
+    <row r="221" spans="1:11" hidden="1">
       <c r="A221" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="D221" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E221" s="2">
         <f t="shared" si="10"/>
         <v>1.1703132540380958</v>
       </c>
       <c r="F221" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G221" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H221" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I221" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J221" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K221" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11">
-      <c r="A222" t="s">
-        <v>341</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" hidden="1">
+      <c r="A222" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="D222" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E222" s="2">
         <f t="shared" si="10"/>
         <v>1.1703132540380958</v>
       </c>
       <c r="F222" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G222" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H222" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I222" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J222" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K222" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" hidden="1">
       <c r="A223" t="s">
         <v>10</v>
       </c>
       <c r="B223" s="7"/>
       <c r="D223" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E223">
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G223" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H223" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I223" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J223" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" hidden="1">
       <c r="A224" t="s">
         <v>10</v>
       </c>
       <c r="D224" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E224">
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G224" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H224" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I224" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J224" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" hidden="1">
       <c r="A225" t="s">
         <v>15</v>
       </c>
       <c r="D225" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E225">
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G225" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H225" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I225" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J225" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" hidden="1">
       <c r="A226" t="s">
         <v>10</v>
       </c>
       <c r="D226" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E226">
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G226" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H226" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I226" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J226" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" hidden="1">
       <c r="A227" t="s">
         <v>147</v>
       </c>
       <c r="D227" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E227">
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G227" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H227" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I227" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J227" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" hidden="1">
       <c r="A228" t="s">
         <v>10</v>
       </c>
       <c r="D228" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E228" s="2">
         <f>1/(2*150.36/(2*150.36+3*15.999))</f>
         <v>1.1596069433359937</v>
       </c>
       <c r="F228" t="s">
+        <v>254</v>
+      </c>
+      <c r="G228" t="s">
+        <v>255</v>
+      </c>
+      <c r="H228" t="s">
+        <v>255</v>
+      </c>
+      <c r="I228" t="s">
+        <v>256</v>
+      </c>
+      <c r="J228" t="s">
+        <v>334</v>
+      </c>
+      <c r="K228" t="s">
         <v>257</v>
       </c>
-      <c r="G228" t="s">
-        <v>258</v>
-      </c>
-      <c r="H228" t="s">
-        <v>258</v>
-      </c>
-      <c r="I228" t="s">
-        <v>259</v>
-      </c>
-      <c r="J228" t="s">
-        <v>337</v>
-      </c>
-      <c r="K228" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11">
+    </row>
+    <row r="229" spans="1:11" hidden="1">
       <c r="A229" t="s">
         <v>15</v>
       </c>
       <c r="D229" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E229" s="2">
         <f>1/(2*150.36/(2*150.36+3*15.999))</f>
         <v>1.1596069433359937</v>
       </c>
       <c r="F229" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G229" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H229" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I229" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J229" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" hidden="1">
       <c r="A230" t="s">
         <v>10</v>
       </c>
       <c r="D230" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E230" s="2">
         <f>1/(2*44.956/(2*44.956+3*15.999))</f>
         <v>1.5338219592490434</v>
       </c>
       <c r="F230" t="s">
+        <v>259</v>
+      </c>
+      <c r="G230" t="s">
+        <v>260</v>
+      </c>
+      <c r="H230" t="s">
+        <v>260</v>
+      </c>
+      <c r="I230" t="s">
+        <v>261</v>
+      </c>
+      <c r="J230" t="s">
+        <v>334</v>
+      </c>
+      <c r="K230" t="s">
         <v>262</v>
       </c>
-      <c r="G230" t="s">
-        <v>263</v>
-      </c>
-      <c r="H230" t="s">
-        <v>263</v>
-      </c>
-      <c r="I230" t="s">
-        <v>264</v>
-      </c>
-      <c r="J230" t="s">
-        <v>337</v>
-      </c>
-      <c r="K230" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11">
+    </row>
+    <row r="231" spans="1:11" hidden="1">
       <c r="A231" t="s">
         <v>15</v>
       </c>
       <c r="D231" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E231" s="2">
         <f>1/(2*44.956/(2*44.956+3*15.999))</f>
         <v>1.5338219592490434</v>
       </c>
       <c r="F231" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G231" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H231" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I231" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J231" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" hidden="1">
       <c r="A232" t="s">
         <v>35</v>
       </c>
       <c r="D232" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E232" s="2">
         <f>1/(2*44.956/(2*44.956+3*15.999))</f>
         <v>1.5338219592490434</v>
       </c>
       <c r="F232" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G232" t="s">
+        <v>260</v>
+      </c>
+      <c r="H232" t="s">
+        <v>260</v>
+      </c>
+      <c r="I232" t="s">
+        <v>261</v>
+      </c>
+      <c r="J232" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" hidden="1">
+      <c r="A233" t="s">
         <v>263</v>
       </c>
-      <c r="H232" t="s">
-        <v>263</v>
-      </c>
-      <c r="I232" t="s">
-        <v>264</v>
-      </c>
-      <c r="J232" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11">
-      <c r="A233" t="s">
-        <v>266</v>
-      </c>
       <c r="D233" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E233" s="2">
         <f>1/(2*44.956/(2*44.956+3*15.999))</f>
         <v>1.5338219592490434</v>
       </c>
       <c r="F233" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G233" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H233" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I233" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J233" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" hidden="1">
       <c r="A234" t="s">
         <v>21</v>
       </c>
       <c r="D234" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E234">
         <v>1</v>
       </c>
       <c r="F234" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G234" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H234" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I234" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J234" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" hidden="1">
       <c r="A235" t="s">
         <v>19</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J235" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K235" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" hidden="1">
       <c r="A236" t="s">
         <v>22</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J236" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K236" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" hidden="1">
       <c r="A237" t="s">
         <v>23</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J237" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" hidden="1">
       <c r="A238" t="s">
         <v>24</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J238" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" hidden="1">
       <c r="A239" t="s">
         <v>10</v>
       </c>
       <c r="D239" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E239">
         <v>1</v>
       </c>
       <c r="F239" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G239" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H239" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I239" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J239" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" hidden="1">
       <c r="A240" t="s">
         <v>19</v>
       </c>
       <c r="D240" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E240">
         <v>1</v>
       </c>
       <c r="F240" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G240" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H240" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I240" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J240" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" hidden="1">
       <c r="A241" t="s">
         <v>20</v>
       </c>
       <c r="D241" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E241">
         <v>1</v>
       </c>
       <c r="F241" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G241" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H241" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I241" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J241" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" hidden="1">
       <c r="A242" t="s">
         <v>21</v>
       </c>
       <c r="D242" t="s">
+        <v>270</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242" t="s">
+        <v>271</v>
+      </c>
+      <c r="G242" t="s">
+        <v>272</v>
+      </c>
+      <c r="H242" t="s">
+        <v>272</v>
+      </c>
+      <c r="I242" t="s">
+        <v>272</v>
+      </c>
+      <c r="J242" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" hidden="1">
+      <c r="A243" t="s">
         <v>273</v>
       </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242" t="s">
-        <v>274</v>
-      </c>
-      <c r="G242" t="s">
-        <v>275</v>
-      </c>
-      <c r="H242" t="s">
-        <v>275</v>
-      </c>
-      <c r="I242" t="s">
-        <v>275</v>
-      </c>
-      <c r="J242" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11">
-      <c r="A243" t="s">
-        <v>276</v>
-      </c>
       <c r="D243" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E243">
         <v>1</v>
       </c>
       <c r="F243" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G243" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H243" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I243" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J243" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" hidden="1">
       <c r="A244" t="s">
         <v>23</v>
       </c>
       <c r="D244" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E244">
         <v>1</v>
       </c>
       <c r="F244" t="s">
+        <v>271</v>
+      </c>
+      <c r="G244" t="s">
+        <v>272</v>
+      </c>
+      <c r="H244" t="s">
+        <v>272</v>
+      </c>
+      <c r="I244" t="s">
+        <v>272</v>
+      </c>
+      <c r="J244" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" hidden="1">
+      <c r="A245" t="s">
         <v>274</v>
       </c>
-      <c r="G244" t="s">
-        <v>275</v>
-      </c>
-      <c r="H244" t="s">
-        <v>275</v>
-      </c>
-      <c r="I244" t="s">
-        <v>275</v>
-      </c>
-      <c r="J244" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11">
-      <c r="A245" t="s">
-        <v>277</v>
-      </c>
       <c r="D245" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E245">
         <v>1</v>
       </c>
       <c r="F245" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G245" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H245" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I245" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J245" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" hidden="1">
       <c r="A246" t="s">
         <v>24</v>
       </c>
       <c r="D246" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E246">
         <v>1</v>
       </c>
       <c r="F246" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G246" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H246" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I246" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J246" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" hidden="1">
       <c r="A247" t="s">
         <v>37</v>
       </c>
       <c r="D247" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E247">
         <v>1</v>
       </c>
       <c r="F247" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G247" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H247" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I247" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J247" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" hidden="1">
       <c r="A248" t="s">
         <v>25</v>
       </c>
       <c r="D248" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E248">
         <v>1</v>
       </c>
       <c r="F248" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G248" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H248" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I248" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J248" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" hidden="1">
       <c r="A249" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D249" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J249" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K249" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" hidden="1">
       <c r="A250" t="s">
         <v>10</v>
       </c>
       <c r="D250" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E250" s="2">
         <f>1/(1*87.62/(1*87.62+1*12.011+15.999*3))</f>
         <v>1.6848664688427297</v>
       </c>
       <c r="F250" t="s">
+        <v>278</v>
+      </c>
+      <c r="G250" t="s">
+        <v>279</v>
+      </c>
+      <c r="H250" t="s">
+        <v>279</v>
+      </c>
+      <c r="I250" t="s">
+        <v>280</v>
+      </c>
+      <c r="J250" t="s">
+        <v>334</v>
+      </c>
+      <c r="K250" t="s">
         <v>281</v>
       </c>
-      <c r="G250" t="s">
-        <v>282</v>
-      </c>
-      <c r="H250" t="s">
-        <v>282</v>
-      </c>
-      <c r="I250" t="s">
-        <v>283</v>
-      </c>
-      <c r="J250" t="s">
-        <v>337</v>
-      </c>
-      <c r="K250" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11">
-      <c r="A251" t="s">
-        <v>341</v>
+    </row>
+    <row r="251" spans="1:11" hidden="1">
+      <c r="A251" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="D251" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E251" s="2">
         <f>1/(1*87.62/(1*87.62+1*12.011+15.999*3))</f>
         <v>1.6848664688427297</v>
       </c>
       <c r="F251" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G251" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H251" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I251" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J251" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K251" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" hidden="1">
       <c r="A252" t="s">
         <v>10</v>
       </c>
       <c r="D252" t="s">
+        <v>282</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252" t="s">
+        <v>283</v>
+      </c>
+      <c r="G252" t="s">
+        <v>284</v>
+      </c>
+      <c r="H252" t="s">
+        <v>284</v>
+      </c>
+      <c r="I252" t="s">
         <v>285</v>
       </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252" t="s">
-        <v>286</v>
-      </c>
-      <c r="G252" t="s">
-        <v>287</v>
-      </c>
-      <c r="H252" t="s">
-        <v>287</v>
-      </c>
-      <c r="I252" t="s">
-        <v>288</v>
-      </c>
       <c r="J252" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" hidden="1">
       <c r="A253" t="s">
         <v>15</v>
       </c>
       <c r="D253" t="s">
+        <v>282</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253" t="s">
+        <v>283</v>
+      </c>
+      <c r="G253" t="s">
+        <v>284</v>
+      </c>
+      <c r="H253" t="s">
+        <v>284</v>
+      </c>
+      <c r="I253" t="s">
         <v>285</v>
       </c>
-      <c r="E253">
-        <v>1</v>
-      </c>
-      <c r="F253" t="s">
-        <v>286</v>
-      </c>
-      <c r="G253" t="s">
-        <v>287</v>
-      </c>
-      <c r="H253" t="s">
-        <v>287</v>
-      </c>
-      <c r="I253" t="s">
-        <v>288</v>
-      </c>
       <c r="J253" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" hidden="1">
       <c r="A254" t="s">
         <v>10</v>
       </c>
       <c r="D254" t="s">
+        <v>286</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254" t="s">
+        <v>287</v>
+      </c>
+      <c r="G254" t="s">
+        <v>288</v>
+      </c>
+      <c r="H254" t="s">
+        <v>288</v>
+      </c>
+      <c r="I254" t="s">
         <v>289</v>
       </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254" t="s">
-        <v>290</v>
-      </c>
-      <c r="G254" t="s">
-        <v>291</v>
-      </c>
-      <c r="H254" t="s">
-        <v>291</v>
-      </c>
-      <c r="I254" t="s">
-        <v>292</v>
-      </c>
       <c r="J254" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" hidden="1">
       <c r="A255" t="s">
         <v>10</v>
       </c>
       <c r="D255" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E255" s="2">
         <f>1/(1*158.925/(1*158.925+2*15.999))</f>
         <v>1.2013402548371872</v>
       </c>
       <c r="F255" t="s">
+        <v>291</v>
+      </c>
+      <c r="G255" t="s">
+        <v>292</v>
+      </c>
+      <c r="H255" t="s">
+        <v>292</v>
+      </c>
+      <c r="I255" t="s">
+        <v>293</v>
+      </c>
+      <c r="J255" t="s">
+        <v>334</v>
+      </c>
+      <c r="K255" t="s">
         <v>294</v>
       </c>
-      <c r="G255" t="s">
-        <v>295</v>
-      </c>
-      <c r="H255" t="s">
-        <v>295</v>
-      </c>
-      <c r="I255" t="s">
-        <v>296</v>
-      </c>
-      <c r="J255" t="s">
-        <v>337</v>
-      </c>
-      <c r="K255" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11">
+    </row>
+    <row r="256" spans="1:11" hidden="1">
       <c r="A256" t="s">
         <v>15</v>
       </c>
       <c r="D256" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E256" s="2">
         <f t="shared" ref="E256:E259" si="11">1/(1*158.925/(1*158.925+2*15.999))</f>
         <v>1.2013402548371872</v>
       </c>
       <c r="F256" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G256" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H256" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I256" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J256" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="D257" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E257" s="2">
         <f t="shared" si="11"/>
         <v>1.2013402548371872</v>
       </c>
       <c r="F257" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G257" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H257" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I257" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J257" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" hidden="1">
       <c r="A258" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="D258" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E258" s="2">
         <f t="shared" si="11"/>
         <v>1.2013402548371872</v>
       </c>
       <c r="F258" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G258" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H258" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I258" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J258" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" hidden="1">
       <c r="A259" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="D259" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E259" s="2">
         <f t="shared" si="11"/>
         <v>1.2013402548371872</v>
       </c>
       <c r="F259" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G259" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H259" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I259" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J259" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" hidden="1">
       <c r="A260" t="s">
         <v>10</v>
       </c>
       <c r="D260" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E260">
         <v>1</v>
       </c>
       <c r="F260" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G260" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H260" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I260" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J260" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" hidden="1">
       <c r="A261" t="s">
         <v>19</v>
       </c>
       <c r="D261" t="s">
+        <v>295</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261" t="s">
+        <v>296</v>
+      </c>
+      <c r="G261" t="s">
+        <v>297</v>
+      </c>
+      <c r="H261" t="s">
+        <v>297</v>
+      </c>
+      <c r="I261" t="s">
+        <v>297</v>
+      </c>
+      <c r="J261" t="s">
+        <v>334</v>
+      </c>
+      <c r="K261" t="s">
         <v>298</v>
       </c>
-      <c r="E261">
-        <v>1</v>
-      </c>
-      <c r="F261" t="s">
-        <v>299</v>
-      </c>
-      <c r="G261" t="s">
-        <v>300</v>
-      </c>
-      <c r="H261" t="s">
-        <v>300</v>
-      </c>
-      <c r="I261" t="s">
-        <v>300</v>
-      </c>
-      <c r="J261" t="s">
-        <v>337</v>
-      </c>
-      <c r="K261" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11">
+    </row>
+    <row r="262" spans="1:11" hidden="1">
       <c r="A262" t="s">
         <v>20</v>
       </c>
       <c r="D262" t="s">
+        <v>295</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262" t="s">
+        <v>296</v>
+      </c>
+      <c r="G262" t="s">
+        <v>297</v>
+      </c>
+      <c r="H262" t="s">
+        <v>297</v>
+      </c>
+      <c r="I262" t="s">
+        <v>297</v>
+      </c>
+      <c r="J262" t="s">
+        <v>334</v>
+      </c>
+      <c r="K262" t="s">
         <v>298</v>
       </c>
-      <c r="E262">
-        <v>1</v>
-      </c>
-      <c r="F262" t="s">
-        <v>299</v>
-      </c>
-      <c r="G262" t="s">
-        <v>300</v>
-      </c>
-      <c r="H262" t="s">
-        <v>300</v>
-      </c>
-      <c r="I262" t="s">
-        <v>300</v>
-      </c>
-      <c r="J262" t="s">
-        <v>337</v>
-      </c>
-      <c r="K262" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11">
+    </row>
+    <row r="263" spans="1:11" hidden="1">
       <c r="A263" t="s">
         <v>21</v>
       </c>
       <c r="D263" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E263">
         <v>1</v>
       </c>
       <c r="F263" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G263" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H263" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I263" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J263" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K263" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" hidden="1">
       <c r="A264" t="s">
         <v>22</v>
       </c>
       <c r="D264" t="s">
+        <v>295</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264" t="s">
+        <v>296</v>
+      </c>
+      <c r="G264" t="s">
+        <v>297</v>
+      </c>
+      <c r="H264" t="s">
+        <v>297</v>
+      </c>
+      <c r="I264" t="s">
+        <v>297</v>
+      </c>
+      <c r="J264" t="s">
+        <v>334</v>
+      </c>
+      <c r="K264" t="s">
         <v>298</v>
       </c>
-      <c r="E264">
-        <v>1</v>
-      </c>
-      <c r="F264" t="s">
-        <v>299</v>
-      </c>
-      <c r="G264" t="s">
-        <v>300</v>
-      </c>
-      <c r="H264" t="s">
-        <v>300</v>
-      </c>
-      <c r="I264" t="s">
-        <v>300</v>
-      </c>
-      <c r="J264" t="s">
-        <v>337</v>
-      </c>
-      <c r="K264" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11">
+    </row>
+    <row r="265" spans="1:11" hidden="1">
       <c r="A265" t="s">
         <v>25</v>
       </c>
       <c r="D265" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E265">
         <v>1</v>
       </c>
       <c r="F265" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G265" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H265" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I265" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J265" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" hidden="1">
       <c r="A266" t="s">
         <v>23</v>
       </c>
       <c r="D266" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E266">
         <v>1</v>
       </c>
       <c r="F266" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G266" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H266" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I266" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J266" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" hidden="1">
       <c r="A267" t="s">
         <v>24</v>
       </c>
       <c r="D267" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E267">
         <v>1</v>
       </c>
       <c r="F267" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G267" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H267" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I267" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J267" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" hidden="1">
       <c r="A268" t="s">
         <v>30</v>
       </c>
       <c r="D268" t="s">
+        <v>299</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268" t="s">
+        <v>300</v>
+      </c>
+      <c r="G268" t="s">
+        <v>301</v>
+      </c>
+      <c r="H268" t="s">
+        <v>301</v>
+      </c>
+      <c r="I268" t="s">
         <v>302</v>
       </c>
-      <c r="E268">
-        <v>1</v>
-      </c>
-      <c r="F268" t="s">
+      <c r="J268" t="s">
+        <v>334</v>
+      </c>
+      <c r="K268" t="s">
         <v>303</v>
       </c>
-      <c r="G268" t="s">
-        <v>304</v>
-      </c>
-      <c r="H268" t="s">
-        <v>304</v>
-      </c>
-      <c r="I268" t="s">
-        <v>305</v>
-      </c>
-      <c r="J268" t="s">
-        <v>337</v>
-      </c>
-      <c r="K268" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11">
+    </row>
+    <row r="269" spans="1:11" hidden="1">
       <c r="A269" t="s">
         <v>31</v>
       </c>
       <c r="D269" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E269">
         <v>1</v>
       </c>
       <c r="F269" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G269" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H269" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I269" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J269" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" hidden="1">
       <c r="A270" t="s">
         <v>147</v>
       </c>
       <c r="D270" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E270">
         <v>1</v>
       </c>
       <c r="F270" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G270" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H270" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I270" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J270" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K270" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" hidden="1">
       <c r="A271" t="s">
         <v>10</v>
       </c>
       <c r="D271" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E271" s="2">
         <f>1/(1*183.84/(1*183.84+12.012))</f>
         <v>1.0653394255874673</v>
       </c>
       <c r="F271" t="s">
+        <v>305</v>
+      </c>
+      <c r="G271" t="s">
+        <v>306</v>
+      </c>
+      <c r="H271" t="s">
+        <v>306</v>
+      </c>
+      <c r="I271" t="s">
+        <v>307</v>
+      </c>
+      <c r="J271" t="s">
+        <v>334</v>
+      </c>
+      <c r="K271" t="s">
         <v>308</v>
       </c>
-      <c r="G271" t="s">
-        <v>309</v>
-      </c>
-      <c r="H271" t="s">
-        <v>309</v>
-      </c>
-      <c r="I271" t="s">
-        <v>310</v>
-      </c>
-      <c r="J271" t="s">
-        <v>337</v>
-      </c>
-      <c r="K271" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11">
+    </row>
+    <row r="272" spans="1:11" hidden="1">
       <c r="A272" t="s">
         <v>25</v>
       </c>
       <c r="D272" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E272" s="2">
         <f>1/(1*183.84/(1*183.84+12.012))</f>
         <v>1.0653394255874673</v>
       </c>
       <c r="F272" t="s">
+        <v>305</v>
+      </c>
+      <c r="G272" t="s">
+        <v>306</v>
+      </c>
+      <c r="H272" t="s">
+        <v>306</v>
+      </c>
+      <c r="I272" t="s">
+        <v>307</v>
+      </c>
+      <c r="J272" t="s">
+        <v>334</v>
+      </c>
+      <c r="K272" t="s">
         <v>308</v>
-      </c>
-      <c r="G272" t="s">
-        <v>309</v>
-      </c>
-      <c r="H272" t="s">
-        <v>309</v>
-      </c>
-      <c r="I272" t="s">
-        <v>310</v>
-      </c>
-      <c r="J272" t="s">
-        <v>337</v>
-      </c>
-      <c r="K272" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="D273" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E273" s="2">
         <f>1/(2*50.942/(2*50.942+15.999*5))</f>
         <v>1.7851576302461625</v>
       </c>
       <c r="F273" t="s">
+        <v>310</v>
+      </c>
+      <c r="G273" t="s">
+        <v>311</v>
+      </c>
+      <c r="H273" t="s">
+        <v>311</v>
+      </c>
+      <c r="I273" t="s">
+        <v>312</v>
+      </c>
+      <c r="J273" t="s">
+        <v>334</v>
+      </c>
+      <c r="K273" t="s">
         <v>313</v>
       </c>
-      <c r="G273" t="s">
-        <v>314</v>
-      </c>
-      <c r="H273" t="s">
-        <v>314</v>
-      </c>
-      <c r="I273" t="s">
-        <v>315</v>
-      </c>
-      <c r="J273" t="s">
-        <v>337</v>
-      </c>
-      <c r="K273" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11">
+    </row>
+    <row r="274" spans="1:11" hidden="1">
       <c r="A274" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="D274" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E274" s="2">
         <f t="shared" ref="E274:E278" si="12">1/(2*50.942/(2*50.942+15.999*5))</f>
         <v>1.7851576302461625</v>
       </c>
       <c r="F274" t="s">
+        <v>310</v>
+      </c>
+      <c r="G274" t="s">
+        <v>311</v>
+      </c>
+      <c r="H274" t="s">
+        <v>311</v>
+      </c>
+      <c r="I274" t="s">
+        <v>312</v>
+      </c>
+      <c r="J274" t="s">
+        <v>334</v>
+      </c>
+      <c r="K274" t="s">
         <v>313</v>
       </c>
-      <c r="G274" t="s">
-        <v>314</v>
-      </c>
-      <c r="H274" t="s">
-        <v>314</v>
-      </c>
-      <c r="I274" t="s">
-        <v>315</v>
-      </c>
-      <c r="J274" t="s">
-        <v>337</v>
-      </c>
-      <c r="K274" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11">
+    </row>
+    <row r="275" spans="1:11" hidden="1">
       <c r="A275" t="s">
         <v>23</v>
       </c>
       <c r="D275" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E275" s="2">
         <f t="shared" si="12"/>
         <v>1.7851576302461625</v>
       </c>
       <c r="F275" t="s">
+        <v>310</v>
+      </c>
+      <c r="G275" t="s">
+        <v>311</v>
+      </c>
+      <c r="H275" t="s">
+        <v>311</v>
+      </c>
+      <c r="I275" t="s">
+        <v>312</v>
+      </c>
+      <c r="J275" t="s">
+        <v>334</v>
+      </c>
+      <c r="K275" t="s">
         <v>313</v>
       </c>
-      <c r="G275" t="s">
-        <v>314</v>
-      </c>
-      <c r="H275" t="s">
-        <v>314</v>
-      </c>
-      <c r="I275" t="s">
-        <v>315</v>
-      </c>
-      <c r="J275" t="s">
-        <v>337</v>
-      </c>
-      <c r="K275" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11">
+    </row>
+    <row r="276" spans="1:11" hidden="1">
       <c r="A276" t="s">
         <v>24</v>
       </c>
       <c r="D276" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E276" s="2">
         <f t="shared" si="12"/>
         <v>1.7851576302461625</v>
       </c>
       <c r="F276" t="s">
+        <v>310</v>
+      </c>
+      <c r="G276" t="s">
+        <v>311</v>
+      </c>
+      <c r="H276" t="s">
+        <v>311</v>
+      </c>
+      <c r="I276" t="s">
+        <v>312</v>
+      </c>
+      <c r="J276" t="s">
+        <v>334</v>
+      </c>
+      <c r="K276" t="s">
         <v>313</v>
       </c>
-      <c r="G276" t="s">
-        <v>314</v>
-      </c>
-      <c r="H276" t="s">
-        <v>314</v>
-      </c>
-      <c r="I276" t="s">
-        <v>315</v>
-      </c>
-      <c r="J276" t="s">
-        <v>337</v>
-      </c>
-      <c r="K276" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11">
+    </row>
+    <row r="277" spans="1:11" hidden="1">
       <c r="A277" t="s">
         <v>99</v>
       </c>
       <c r="D277" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E277" s="2">
         <f t="shared" si="12"/>
         <v>1.7851576302461625</v>
       </c>
       <c r="F277" t="s">
+        <v>310</v>
+      </c>
+      <c r="G277" t="s">
+        <v>311</v>
+      </c>
+      <c r="H277" t="s">
+        <v>311</v>
+      </c>
+      <c r="I277" t="s">
+        <v>312</v>
+      </c>
+      <c r="J277" t="s">
+        <v>334</v>
+      </c>
+      <c r="K277" t="s">
         <v>313</v>
       </c>
-      <c r="G277" t="s">
-        <v>314</v>
-      </c>
-      <c r="H277" t="s">
-        <v>314</v>
-      </c>
-      <c r="I277" t="s">
-        <v>315</v>
-      </c>
-      <c r="J277" t="s">
-        <v>337</v>
-      </c>
-      <c r="K277" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11">
+    </row>
+    <row r="278" spans="1:11" hidden="1">
       <c r="A278" t="s">
         <v>25</v>
       </c>
       <c r="D278" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E278" s="2">
         <f t="shared" si="12"/>
         <v>1.7851576302461625</v>
       </c>
       <c r="F278" t="s">
+        <v>310</v>
+      </c>
+      <c r="G278" t="s">
+        <v>311</v>
+      </c>
+      <c r="H278" t="s">
+        <v>311</v>
+      </c>
+      <c r="I278" t="s">
+        <v>312</v>
+      </c>
+      <c r="J278" t="s">
+        <v>334</v>
+      </c>
+      <c r="K278" t="s">
         <v>313</v>
       </c>
-      <c r="G278" t="s">
-        <v>314</v>
-      </c>
-      <c r="H278" t="s">
-        <v>314</v>
-      </c>
-      <c r="I278" t="s">
-        <v>315</v>
-      </c>
-      <c r="J278" t="s">
-        <v>337</v>
-      </c>
-      <c r="K278" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11">
+    </row>
+    <row r="279" spans="1:11" hidden="1">
       <c r="A279" t="s">
         <v>10</v>
       </c>
       <c r="D279" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E279" s="2">
         <f>1/(2*173.04/(2*173.04+3*15.999))</f>
         <v>1.1386875866851596</v>
       </c>
       <c r="F279" t="s">
+        <v>315</v>
+      </c>
+      <c r="G279" t="s">
+        <v>316</v>
+      </c>
+      <c r="H279" t="s">
+        <v>316</v>
+      </c>
+      <c r="I279" t="s">
+        <v>317</v>
+      </c>
+      <c r="J279" t="s">
+        <v>334</v>
+      </c>
+      <c r="K279" t="s">
         <v>318</v>
       </c>
-      <c r="G279" t="s">
-        <v>319</v>
-      </c>
-      <c r="H279" t="s">
-        <v>319</v>
-      </c>
-      <c r="I279" t="s">
-        <v>320</v>
-      </c>
-      <c r="J279" t="s">
-        <v>337</v>
-      </c>
-      <c r="K279" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11">
+    </row>
+    <row r="280" spans="1:11" hidden="1">
       <c r="A280" t="s">
         <v>15</v>
       </c>
       <c r="D280" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E280" s="2">
         <f>1/(2*173.04/(2*173.04+3*15.999))</f>
         <v>1.1386875866851596</v>
       </c>
       <c r="F280" t="s">
+        <v>315</v>
+      </c>
+      <c r="G280" t="s">
+        <v>316</v>
+      </c>
+      <c r="H280" t="s">
+        <v>316</v>
+      </c>
+      <c r="I280" t="s">
+        <v>317</v>
+      </c>
+      <c r="J280" t="s">
+        <v>334</v>
+      </c>
+      <c r="K280" t="s">
         <v>318</v>
       </c>
-      <c r="G280" t="s">
-        <v>319</v>
-      </c>
-      <c r="H280" t="s">
-        <v>319</v>
-      </c>
-      <c r="I280" t="s">
-        <v>320</v>
-      </c>
-      <c r="J280" t="s">
-        <v>337</v>
-      </c>
-      <c r="K280" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11">
+    </row>
+    <row r="281" spans="1:11" hidden="1">
       <c r="A281" t="s">
         <v>10</v>
       </c>
       <c r="D281" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E281" s="2">
         <f>1/(2*88.906/(2*88.906+3*15.999))</f>
         <v>1.2699311632510744</v>
       </c>
       <c r="F281" t="s">
+        <v>320</v>
+      </c>
+      <c r="G281" t="s">
+        <v>321</v>
+      </c>
+      <c r="H281" t="s">
+        <v>321</v>
+      </c>
+      <c r="I281" t="s">
+        <v>322</v>
+      </c>
+      <c r="J281" t="s">
+        <v>334</v>
+      </c>
+      <c r="K281" t="s">
         <v>323</v>
       </c>
-      <c r="G281" t="s">
-        <v>324</v>
-      </c>
-      <c r="H281" t="s">
-        <v>324</v>
-      </c>
-      <c r="I281" t="s">
-        <v>325</v>
-      </c>
-      <c r="J281" t="s">
-        <v>337</v>
-      </c>
-      <c r="K281" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11">
+    </row>
+    <row r="282" spans="1:11" hidden="1">
       <c r="A282" t="s">
         <v>15</v>
       </c>
       <c r="D282" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E282" s="2">
         <f t="shared" ref="E282:E286" si="13">1/(2*88.906/(2*88.906+3*15.999))</f>
         <v>1.2699311632510744</v>
       </c>
       <c r="F282" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G282" t="s">
+        <v>321</v>
+      </c>
+      <c r="H282" t="s">
+        <v>321</v>
+      </c>
+      <c r="I282" t="s">
+        <v>322</v>
+      </c>
+      <c r="J282" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" hidden="1">
+      <c r="A283" t="s">
         <v>324</v>
       </c>
-      <c r="H282" t="s">
-        <v>324</v>
-      </c>
-      <c r="I282" t="s">
-        <v>325</v>
-      </c>
-      <c r="J282" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11">
-      <c r="A283" t="s">
-        <v>327</v>
-      </c>
       <c r="D283" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E283" s="2">
         <f t="shared" si="13"/>
         <v>1.2699311632510744</v>
       </c>
       <c r="F283" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G283" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H283" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I283" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J283" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" hidden="1">
       <c r="A284" t="s">
         <v>36</v>
       </c>
       <c r="D284" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E284" s="2">
         <f t="shared" si="13"/>
         <v>1.2699311632510744</v>
       </c>
       <c r="F284" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G284" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H284" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I284" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J284" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" hidden="1">
       <c r="A285" t="s">
         <v>25</v>
       </c>
       <c r="D285" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E285" s="2">
         <f t="shared" si="13"/>
         <v>1.2699311632510744</v>
       </c>
       <c r="F285" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G285" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H285" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I285" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J285" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11">
-      <c r="A286" t="s">
-        <v>341</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" hidden="1">
+      <c r="A286" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="D286" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E286" s="2">
         <f t="shared" si="13"/>
         <v>1.2699311632510744</v>
       </c>
       <c r="F286" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G286" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H286" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I286" t="s">
+        <v>322</v>
+      </c>
+      <c r="J286" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" hidden="1">
+      <c r="A287" t="s">
+        <v>17</v>
+      </c>
+      <c r="D287" t="s">
         <v>325</v>
       </c>
-      <c r="J286" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11">
-      <c r="A287" t="s">
-        <v>183</v>
-      </c>
-      <c r="D287" t="s">
-        <v>328</v>
-      </c>
       <c r="E287">
         <v>1</v>
       </c>
       <c r="F287" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G287" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H287" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I287" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J287" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K287" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" hidden="1">
       <c r="A288" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="D288" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E288">
         <v>1</v>
       </c>
       <c r="F288" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G288" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H288" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I288" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J288" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K288" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" hidden="1">
       <c r="A289" t="s">
         <v>19</v>
       </c>
       <c r="D289" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E289">
         <v>1</v>
       </c>
       <c r="F289" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G289" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H289" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I289" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J289" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" hidden="1">
       <c r="A290" t="s">
         <v>21</v>
       </c>
       <c r="D290" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E290">
         <v>1</v>
       </c>
       <c r="F290" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G290" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H290" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I290" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J290" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K290" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" hidden="1">
       <c r="A291" t="s">
         <v>23</v>
       </c>
       <c r="D291" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E291">
         <v>1</v>
       </c>
       <c r="F291" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G291" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H291" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I291" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J291" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K291" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" hidden="1">
       <c r="A292" t="s">
         <v>24</v>
       </c>
       <c r="D292" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E292">
         <v>1</v>
       </c>
       <c r="F292" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G292" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H292" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I292" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J292" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K292" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" hidden="1">
       <c r="A293" t="s">
         <v>36</v>
       </c>
       <c r="D293" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E293">
         <v>1</v>
       </c>
       <c r="F293" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G293" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H293" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I293" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J293" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" hidden="1">
       <c r="A294" t="s">
         <v>10</v>
       </c>
       <c r="D294" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E294" s="2">
         <f>1/(1*91.224/(1*91.224+2*15.999))</f>
         <v>1.3507629571165483</v>
       </c>
       <c r="F294" t="s">
+        <v>329</v>
+      </c>
+      <c r="G294" t="s">
+        <v>330</v>
+      </c>
+      <c r="H294" t="s">
+        <v>330</v>
+      </c>
+      <c r="I294" t="s">
+        <v>331</v>
+      </c>
+      <c r="J294" t="s">
+        <v>334</v>
+      </c>
+      <c r="K294" t="s">
         <v>332</v>
       </c>
-      <c r="G294" t="s">
-        <v>333</v>
-      </c>
-      <c r="H294" t="s">
-        <v>333</v>
-      </c>
-      <c r="I294" t="s">
-        <v>334</v>
-      </c>
-      <c r="J294" t="s">
-        <v>337</v>
-      </c>
-      <c r="K294" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11">
+    </row>
+    <row r="295" spans="1:11" hidden="1">
       <c r="A295" t="s">
         <v>35</v>
       </c>
       <c r="D295" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E295" s="2">
         <f t="shared" ref="E295:E299" si="14">1/(1*91.224/(1*91.224+2*15.999))</f>
         <v>1.3507629571165483</v>
       </c>
       <c r="F295" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G295" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H295" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I295" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J295" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" hidden="1">
       <c r="A296" t="s">
         <v>36</v>
       </c>
       <c r="D296" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E296" s="2">
         <f t="shared" si="14"/>
         <v>1.3507629571165483</v>
       </c>
       <c r="F296" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G296" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H296" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I296" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J296" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K296" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" hidden="1">
       <c r="A297" t="s">
         <v>37</v>
       </c>
       <c r="D297" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E297" s="2">
         <f t="shared" si="14"/>
         <v>1.3507629571165483</v>
       </c>
       <c r="F297" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G297" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H297" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I297" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J297" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K297" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
-      <c r="A298" t="s">
-        <v>341</v>
+    <row r="298" spans="1:11" hidden="1">
+      <c r="A298" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="D298" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E298" s="2">
         <f t="shared" si="14"/>
         <v>1.3507629571165483</v>
       </c>
       <c r="F298" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G298" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H298" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I298" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J298" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K298" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" hidden="1">
       <c r="A299" t="s">
         <v>25</v>
       </c>
       <c r="D299" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E299" s="2">
         <f t="shared" si="14"/>
         <v>1.3507629571165483</v>
       </c>
       <c r="F299" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G299" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H299" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I299" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J299" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" hidden="1">
       <c r="A300" t="s">
         <v>32</v>
       </c>
       <c r="B300" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C300" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D300" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E300" s="2">
         <f>1/(2*6.941/(2*6.941+12.012+3*15.999))*0.89</f>
         <v>4.7372849733467799</v>
       </c>
       <c r="F300" t="s">
+        <v>160</v>
+      </c>
+      <c r="G300" t="s">
         <v>161</v>
       </c>
-      <c r="G300" t="s">
+      <c r="H300" t="s">
+        <v>340</v>
+      </c>
+      <c r="I300" t="s">
         <v>162</v>
       </c>
-      <c r="H300" t="s">
-        <v>344</v>
-      </c>
-      <c r="I300" t="s">
-        <v>163</v>
-      </c>
       <c r="J300" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K300" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" hidden="1">
       <c r="A301" t="s">
         <v>32</v>
       </c>
       <c r="B301" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C301" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D301" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E301" s="2">
         <f>1/(2*6.941/(2*6.941+12.012+3*15.999))*0.1</f>
         <v>0.53227921048840221</v>
       </c>
       <c r="F301" t="s">
+        <v>160</v>
+      </c>
+      <c r="G301" t="s">
         <v>161</v>
       </c>
-      <c r="G301" t="s">
+      <c r="H301" t="s">
+        <v>340</v>
+      </c>
+      <c r="I301" t="s">
         <v>162</v>
       </c>
-      <c r="H301" t="s">
-        <v>344</v>
-      </c>
-      <c r="I301" t="s">
-        <v>163</v>
-      </c>
       <c r="J301" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K301" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" hidden="1">
       <c r="A302" t="s">
         <v>32</v>
       </c>
       <c r="B302" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C302" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D302" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E302" s="2">
         <f>1/(1*6.941/(1*6.941+1*1.008+1*15.999))*0.01</f>
         <v>3.4502233107621384E-2</v>
       </c>
       <c r="F302" t="s">
+        <v>168</v>
+      </c>
+      <c r="G302" t="s">
         <v>169</v>
       </c>
-      <c r="G302" t="s">
-        <v>170</v>
-      </c>
       <c r="H302" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I302" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J302" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K302" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" hidden="1">
       <c r="A303" t="s">
         <v>32</v>
       </c>
@@ -10003,13 +9992,13 @@
         <v>11</v>
       </c>
       <c r="J303" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K303" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" hidden="1">
       <c r="A304" t="s">
         <v>32</v>
       </c>
@@ -10017,93 +10006,93 @@
         <v>102</v>
       </c>
       <c r="J304" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" hidden="1">
       <c r="A305" t="s">
         <v>32</v>
       </c>
       <c r="D305" t="s">
+        <v>196</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="F305" t="s">
+        <v>198</v>
+      </c>
+      <c r="G305" t="s">
         <v>199</v>
       </c>
-      <c r="E305">
-        <v>1</v>
-      </c>
-      <c r="F305" t="s">
-        <v>201</v>
-      </c>
-      <c r="G305" t="s">
-        <v>202</v>
-      </c>
       <c r="H305" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I305" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J305" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" hidden="1">
       <c r="A306" t="s">
         <v>33</v>
       </c>
       <c r="D306" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E306" s="2">
         <f>1*0.99</f>
         <v>0.99</v>
       </c>
       <c r="F306" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G306" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H306" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I306" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J306" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K306" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" hidden="1">
       <c r="A307" t="s">
         <v>33</v>
       </c>
       <c r="D307" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E307" s="2">
         <f>0.01*1/(1*6.941/(1*6.941+35.453))</f>
         <v>6.107765451664026E-2</v>
       </c>
       <c r="F307" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G307" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H307" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I307" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J307" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" hidden="1">
       <c r="A308" t="s">
         <v>33</v>
       </c>
@@ -10111,10 +10100,10 @@
         <v>11</v>
       </c>
       <c r="J308" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" hidden="1">
       <c r="A309" t="s">
         <v>33</v>
       </c>
@@ -10122,37 +10111,43 @@
         <v>102</v>
       </c>
       <c r="J309" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" hidden="1">
       <c r="A310" t="s">
         <v>33</v>
       </c>
       <c r="D310" t="s">
+        <v>196</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+      <c r="F310" t="s">
+        <v>198</v>
+      </c>
+      <c r="G310" t="s">
         <v>199</v>
       </c>
-      <c r="E310">
-        <v>1</v>
-      </c>
-      <c r="F310" t="s">
-        <v>201</v>
-      </c>
-      <c r="G310" t="s">
-        <v>202</v>
-      </c>
       <c r="H310" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I310" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J310" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K310" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K310" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Wind-DDPM"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/premise/data/metals/activities_mapping.xlsx
+++ b/premise/data/metals/activities_mapping.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6016CCC-09E6-4CEF-8DC0-05650536816B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7EAD9B-9E6E-444F-8006-7501E7C3F4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="activities_mapping" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">activities_mapping!$A$1:$K$310</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">activities_mapping!$A$1:$K$309</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="373">
   <si>
     <t>technology</t>
   </si>
@@ -853,12 +853,6 @@
   </si>
   <si>
     <t>silver</t>
-  </si>
-  <si>
-    <t>Parabolic Trough - Solar Field</t>
-  </si>
-  <si>
-    <t>Solar Tower - Solar Field</t>
   </si>
   <si>
     <t>Sulfur</t>
@@ -1168,7 +1162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1567,13 +1561,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M310"/>
+  <dimension ref="A1:M309"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
@@ -1588,7 +1582,7 @@
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1617,13 +1611,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1646,10 +1640,10 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1672,10 +1666,10 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1698,10 +1692,10 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1724,10 +1718,10 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1750,10 +1744,10 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1776,10 +1770,10 @@
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1802,10 +1796,10 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1828,10 +1822,10 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1854,10 +1848,10 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1880,10 +1874,10 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1906,10 +1900,10 @@
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1923,10 +1917,10 @@
         <v>0.32</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>14</v>
@@ -1935,13 +1929,13 @@
         <v>14</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1965,10 +1959,10 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1991,10 +1985,10 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2017,10 +2011,10 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2043,10 +2037,10 @@
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2069,10 +2063,10 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2095,10 +2089,10 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2121,10 +2115,10 @@
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2147,10 +2141,10 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2173,10 +2167,10 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2199,10 +2193,10 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2225,10 +2219,10 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2251,10 +2245,10 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2277,10 +2271,10 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2303,10 +2297,10 @@
         <v>40</v>
       </c>
       <c r="J27" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2329,10 +2323,10 @@
         <v>40</v>
       </c>
       <c r="J28" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2355,13 +2349,13 @@
         <v>43</v>
       </c>
       <c r="J29" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -2384,10 +2378,10 @@
         <v>43</v>
       </c>
       <c r="J30" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2417,13 +2411,13 @@
         <v>50</v>
       </c>
       <c r="J31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -2447,10 +2441,10 @@
         <v>50</v>
       </c>
       <c r="J32" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2474,10 +2468,10 @@
         <v>50</v>
       </c>
       <c r="J33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -2501,10 +2495,10 @@
         <v>50</v>
       </c>
       <c r="J34" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2516,7 +2510,7 @@
         <v>1.2797151049856628</v>
       </c>
       <c r="F35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G35" t="s">
         <v>52</v>
@@ -2528,13 +2522,13 @@
         <v>50</v>
       </c>
       <c r="J35" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -2558,13 +2552,13 @@
         <v>50</v>
       </c>
       <c r="J36" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -2587,13 +2581,13 @@
         <v>59</v>
       </c>
       <c r="J37" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -2616,10 +2610,10 @@
         <v>63</v>
       </c>
       <c r="J38" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2643,13 +2637,13 @@
         <v>63</v>
       </c>
       <c r="J39" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2673,13 +2667,13 @@
         <v>63</v>
       </c>
       <c r="J40" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2703,13 +2697,13 @@
         <v>63</v>
       </c>
       <c r="J41" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2733,13 +2727,13 @@
         <v>73</v>
       </c>
       <c r="J42" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2763,13 +2757,13 @@
         <v>73</v>
       </c>
       <c r="J43" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K43" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -2793,13 +2787,13 @@
         <v>73</v>
       </c>
       <c r="J44" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K44" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -2823,15 +2817,15 @@
         <v>73</v>
       </c>
       <c r="J45" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K45" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D46" t="s">
         <v>70</v>
@@ -2853,13 +2847,13 @@
         <v>73</v>
       </c>
       <c r="J46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K46" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -2883,13 +2877,13 @@
         <v>80</v>
       </c>
       <c r="J47" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K47" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2913,13 +2907,13 @@
         <v>80</v>
       </c>
       <c r="J48" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -2943,13 +2937,13 @@
         <v>80</v>
       </c>
       <c r="J49" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K49" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2972,13 +2966,13 @@
         <v>80</v>
       </c>
       <c r="J50" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -3001,10 +2995,10 @@
         <v>80</v>
       </c>
       <c r="J51" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -3028,13 +3022,13 @@
         <v>80</v>
       </c>
       <c r="J52" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K52" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -3058,13 +3052,13 @@
         <v>80</v>
       </c>
       <c r="J53" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K53" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -3085,10 +3079,10 @@
         <v>79</v>
       </c>
       <c r="J54" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -3109,10 +3103,10 @@
         <v>79</v>
       </c>
       <c r="J55" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -3133,10 +3127,10 @@
         <v>79</v>
       </c>
       <c r="J56" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -3157,10 +3151,10 @@
         <v>79</v>
       </c>
       <c r="J57" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -3168,10 +3162,10 @@
         <v>76</v>
       </c>
       <c r="J58" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -3194,13 +3188,13 @@
         <v>88</v>
       </c>
       <c r="J59" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K59" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -3223,13 +3217,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K60" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -3253,13 +3247,13 @@
         <v>88</v>
       </c>
       <c r="J61" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K61" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -3283,21 +3277,21 @@
         <v>88</v>
       </c>
       <c r="J62" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K62" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C63" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D63" t="s">
         <v>86</v>
@@ -3319,21 +3313,21 @@
         <v>88</v>
       </c>
       <c r="J63" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K63" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C64" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D64" t="s">
         <v>86</v>
@@ -3355,21 +3349,21 @@
         <v>88</v>
       </c>
       <c r="J64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K64" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C65" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D65" t="s">
         <v>86</v>
@@ -3391,13 +3385,13 @@
         <v>88</v>
       </c>
       <c r="J65" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K65" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -3427,13 +3421,13 @@
         <v>88</v>
       </c>
       <c r="J66" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K66" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -3457,13 +3451,13 @@
         <v>88</v>
       </c>
       <c r="J67" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K67" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>99</v>
       </c>
@@ -3493,13 +3487,13 @@
         <v>88</v>
       </c>
       <c r="J68" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K68" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -3522,10 +3516,10 @@
         <v>88</v>
       </c>
       <c r="J69" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>37</v>
       </c>
@@ -3548,12 +3542,12 @@
         <v>88</v>
       </c>
       <c r="J70" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D71" t="s">
         <v>86</v>
@@ -3574,21 +3568,21 @@
         <v>88</v>
       </c>
       <c r="J71" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D72" s="3" t="s">
         <v>102</v>
       </c>
       <c r="J72" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K72" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3612,13 +3606,13 @@
         <v>107</v>
       </c>
       <c r="J73" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K73" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -3642,13 +3636,13 @@
         <v>107</v>
       </c>
       <c r="J74" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K74" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -3672,13 +3666,13 @@
         <v>107</v>
       </c>
       <c r="J75" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K75" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -3702,13 +3696,13 @@
         <v>107</v>
       </c>
       <c r="J76" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K76" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -3732,13 +3726,13 @@
         <v>107</v>
       </c>
       <c r="J77" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K77" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3762,13 +3756,13 @@
         <v>112</v>
       </c>
       <c r="J78" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K78" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -3792,13 +3786,13 @@
         <v>112</v>
       </c>
       <c r="J79" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K79" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -3822,13 +3816,13 @@
         <v>117</v>
       </c>
       <c r="J80" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K80" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -3852,13 +3846,13 @@
         <v>117</v>
       </c>
       <c r="J81" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K81" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3882,13 +3876,13 @@
         <v>122</v>
       </c>
       <c r="J82" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K82" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -3912,10 +3906,10 @@
         <v>122</v>
       </c>
       <c r="J83" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>34</v>
       </c>
@@ -3939,10 +3933,10 @@
         <v>122</v>
       </c>
       <c r="J84" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>35</v>
       </c>
@@ -3966,10 +3960,10 @@
         <v>122</v>
       </c>
       <c r="J85" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3992,10 +3986,10 @@
         <v>127</v>
       </c>
       <c r="J86" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -4018,10 +4012,10 @@
         <v>127</v>
       </c>
       <c r="J87" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -4044,13 +4038,13 @@
         <v>127</v>
       </c>
       <c r="J88" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K88" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -4073,13 +4067,13 @@
         <v>131</v>
       </c>
       <c r="J89" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -4102,10 +4096,10 @@
         <v>131</v>
       </c>
       <c r="J90" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -4128,10 +4122,10 @@
         <v>135</v>
       </c>
       <c r="J91" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -4154,15 +4148,15 @@
         <v>135</v>
       </c>
       <c r="J92" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C93" t="s">
         <v>136</v>
@@ -4175,10 +4169,10 @@
         <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G93" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H93" t="s">
         <v>138</v>
@@ -4187,18 +4181,18 @@
         <v>138</v>
       </c>
       <c r="J93" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C94" t="s">
         <v>136</v>
@@ -4211,10 +4205,10 @@
         <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G94" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H94" t="s">
         <v>138</v>
@@ -4223,15 +4217,15 @@
         <v>138</v>
       </c>
       <c r="J94" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C95" t="s">
         <v>136</v>
@@ -4244,10 +4238,10 @@
         <v>4.3365134431916736</v>
       </c>
       <c r="F95" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G95" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H95" t="s">
         <v>138</v>
@@ -4256,15 +4250,15 @@
         <v>138</v>
       </c>
       <c r="J95" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C96" t="s">
         <v>136</v>
@@ -4277,10 +4271,10 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="F96" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G96" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H96" t="s">
         <v>138</v>
@@ -4289,10 +4283,10 @@
         <v>138</v>
       </c>
       <c r="J96" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -4315,10 +4309,10 @@
         <v>138</v>
       </c>
       <c r="J97" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>25</v>
       </c>
@@ -4341,10 +4335,10 @@
         <v>144</v>
       </c>
       <c r="J98" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -4355,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G99" t="s">
         <v>146</v>
@@ -4367,10 +4361,10 @@
         <v>146</v>
       </c>
       <c r="J99" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -4381,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G100" t="s">
         <v>146</v>
@@ -4393,10 +4387,10 @@
         <v>146</v>
       </c>
       <c r="J100" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -4407,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G101" t="s">
         <v>146</v>
@@ -4419,10 +4413,10 @@
         <v>146</v>
       </c>
       <c r="J101" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>21</v>
       </c>
@@ -4433,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G102" t="s">
         <v>146</v>
@@ -4445,10 +4439,10 @@
         <v>146</v>
       </c>
       <c r="J102" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -4459,7 +4453,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G103" t="s">
         <v>146</v>
@@ -4471,12 +4465,12 @@
         <v>146</v>
       </c>
       <c r="J103" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D104" t="s">
         <v>145</v>
@@ -4485,10 +4479,10 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G104" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H104" t="s">
         <v>146</v>
@@ -4497,13 +4491,13 @@
         <v>146</v>
       </c>
       <c r="J104" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K104" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" hidden="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>25</v>
       </c>
@@ -4514,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G105" t="s">
         <v>146</v>
@@ -4526,10 +4520,10 @@
         <v>146</v>
       </c>
       <c r="J105" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>147</v>
       </c>
@@ -4552,10 +4546,10 @@
         <v>150</v>
       </c>
       <c r="J106" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -4579,13 +4573,13 @@
         <v>154</v>
       </c>
       <c r="J107" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K107" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -4609,13 +4603,13 @@
         <v>154</v>
       </c>
       <c r="J108" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K108" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>34</v>
       </c>
@@ -4639,13 +4633,13 @@
         <v>154</v>
       </c>
       <c r="J109" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K109" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>35</v>
       </c>
@@ -4669,13 +4663,13 @@
         <v>154</v>
       </c>
       <c r="J110" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K110" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>36</v>
       </c>
@@ -4699,15 +4693,15 @@
         <v>154</v>
       </c>
       <c r="J111" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K111" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D112" t="s">
         <v>151</v>
@@ -4729,13 +4723,13 @@
         <v>154</v>
       </c>
       <c r="J112" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K112" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>16</v>
       </c>
@@ -4758,10 +4752,10 @@
         <v>158</v>
       </c>
       <c r="J113" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -4784,10 +4778,10 @@
         <v>158</v>
       </c>
       <c r="J114" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -4810,12 +4804,12 @@
         <v>158</v>
       </c>
       <c r="J115" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" hidden="1">
-      <c r="A116" t="s">
-        <v>336</v>
       </c>
       <c r="D116" t="s">
         <v>156</v>
@@ -4836,10 +4830,10 @@
         <v>158</v>
       </c>
       <c r="J116" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>25</v>
       </c>
@@ -4862,10 +4856,10 @@
         <v>158</v>
       </c>
       <c r="J117" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -4889,13 +4883,13 @@
         <v>162</v>
       </c>
       <c r="J118" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K118" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -4919,13 +4913,13 @@
         <v>162</v>
       </c>
       <c r="J119" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K119" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>91</v>
       </c>
@@ -4934,13 +4928,13 @@
       </c>
       <c r="E120" s="2"/>
       <c r="J120" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K120" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -4964,21 +4958,21 @@
         <v>162</v>
       </c>
       <c r="J121" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K121" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>27</v>
       </c>
       <c r="B122" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C122" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D122" t="s">
         <v>159</v>
@@ -5000,21 +4994,21 @@
         <v>162</v>
       </c>
       <c r="J122" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K122" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>28</v>
       </c>
       <c r="B123" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C123" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D123" t="s">
         <v>159</v>
@@ -5036,21 +5030,21 @@
         <v>162</v>
       </c>
       <c r="J123" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K123" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B124" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C124" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D124" t="s">
         <v>159</v>
@@ -5072,21 +5066,21 @@
         <v>162</v>
       </c>
       <c r="J124" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K124" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>29</v>
       </c>
       <c r="B125" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C125" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D125" t="s">
         <v>159</v>
@@ -5108,10 +5102,10 @@
         <v>162</v>
       </c>
       <c r="J125" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>30</v>
       </c>
@@ -5129,25 +5123,25 @@
         <v>22.728425298948281</v>
       </c>
       <c r="F126" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G126" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H126" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I126" t="s">
         <v>162</v>
       </c>
       <c r="J126" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K126" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>31</v>
       </c>
@@ -5156,13 +5150,13 @@
       </c>
       <c r="E127" s="2"/>
       <c r="J127" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K127" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>32</v>
       </c>
@@ -5171,13 +5165,13 @@
       </c>
       <c r="E128" s="2"/>
       <c r="J128" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K128" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>33</v>
       </c>
@@ -5186,13 +5180,13 @@
       </c>
       <c r="E129" s="2"/>
       <c r="J129" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K129" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>23</v>
       </c>
@@ -5215,13 +5209,13 @@
         <v>177</v>
       </c>
       <c r="J130" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K130" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>24</v>
       </c>
@@ -5244,10 +5238,10 @@
         <v>177</v>
       </c>
       <c r="J131" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -5270,10 +5264,10 @@
         <v>181</v>
       </c>
       <c r="J132" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -5296,10 +5290,10 @@
         <v>181</v>
       </c>
       <c r="J133" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -5322,10 +5316,10 @@
         <v>181</v>
       </c>
       <c r="J134" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -5348,10 +5342,10 @@
         <v>181</v>
       </c>
       <c r="J135" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>23</v>
       </c>
@@ -5380,21 +5374,21 @@
         <v>181</v>
       </c>
       <c r="J136" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K136" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>24</v>
       </c>
       <c r="B137" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C137" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D137" t="s">
         <v>179</v>
@@ -5415,13 +5409,13 @@
         <v>181</v>
       </c>
       <c r="J137" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K137" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>26</v>
       </c>
@@ -5429,21 +5423,21 @@
         <v>179</v>
       </c>
       <c r="J138" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K138" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>27</v>
       </c>
       <c r="B139" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C139" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D139" t="s">
         <v>179</v>
@@ -5465,21 +5459,21 @@
         <v>181</v>
       </c>
       <c r="J139" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K139" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>28</v>
       </c>
       <c r="B140" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C140" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D140" t="s">
         <v>179</v>
@@ -5501,21 +5495,21 @@
         <v>181</v>
       </c>
       <c r="J140" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K140" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B141" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C141" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D141" t="s">
         <v>179</v>
@@ -5537,13 +5531,13 @@
         <v>181</v>
       </c>
       <c r="J141" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K141" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>29</v>
       </c>
@@ -5566,10 +5560,10 @@
         <v>181</v>
       </c>
       <c r="J142" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>30</v>
       </c>
@@ -5592,10 +5586,10 @@
         <v>181</v>
       </c>
       <c r="J143" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>34</v>
       </c>
@@ -5618,13 +5612,13 @@
         <v>181</v>
       </c>
       <c r="J144" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K144" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>36</v>
       </c>
@@ -5647,12 +5641,12 @@
         <v>181</v>
       </c>
       <c r="J145" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D146" t="s">
         <v>179</v>
@@ -5673,10 +5667,10 @@
         <v>181</v>
       </c>
       <c r="J146" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>25</v>
       </c>
@@ -5699,10 +5693,10 @@
         <v>181</v>
       </c>
       <c r="J147" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -5725,10 +5719,10 @@
         <v>190</v>
       </c>
       <c r="J148" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>15</v>
       </c>
@@ -5751,10 +5745,10 @@
         <v>190</v>
       </c>
       <c r="J149" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>16</v>
       </c>
@@ -5777,10 +5771,10 @@
         <v>190</v>
       </c>
       <c r="J150" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -5803,10 +5797,10 @@
         <v>190</v>
       </c>
       <c r="J151" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -5829,10 +5823,10 @@
         <v>190</v>
       </c>
       <c r="J152" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>20</v>
       </c>
@@ -5855,10 +5849,10 @@
         <v>190</v>
       </c>
       <c r="J153" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -5881,10 +5875,10 @@
         <v>190</v>
       </c>
       <c r="J154" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>22</v>
       </c>
@@ -5907,10 +5901,10 @@
         <v>190</v>
       </c>
       <c r="J155" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>23</v>
       </c>
@@ -5933,10 +5927,10 @@
         <v>190</v>
       </c>
       <c r="J156" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -5959,10 +5953,10 @@
         <v>190</v>
       </c>
       <c r="J157" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>34</v>
       </c>
@@ -5985,10 +5979,10 @@
         <v>190</v>
       </c>
       <c r="J158" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>36</v>
       </c>
@@ -6011,10 +6005,10 @@
         <v>190</v>
       </c>
       <c r="J159" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>25</v>
       </c>
@@ -6037,10 +6031,10 @@
         <v>190</v>
       </c>
       <c r="J160" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -6064,13 +6058,13 @@
         <v>194</v>
       </c>
       <c r="J161" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K161" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -6100,13 +6094,13 @@
         <v>194</v>
       </c>
       <c r="J162" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K162" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>16</v>
       </c>
@@ -6130,13 +6124,13 @@
         <v>194</v>
       </c>
       <c r="J163" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K163" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -6160,13 +6154,13 @@
         <v>194</v>
       </c>
       <c r="J164" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K164" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>18</v>
       </c>
@@ -6190,13 +6184,13 @@
         <v>194</v>
       </c>
       <c r="J165" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K165" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>16</v>
       </c>
@@ -6204,13 +6198,13 @@
         <v>196</v>
       </c>
       <c r="J166" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K166" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -6218,13 +6212,13 @@
         <v>196</v>
       </c>
       <c r="J167" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K167" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>18</v>
       </c>
@@ -6232,13 +6226,13 @@
         <v>196</v>
       </c>
       <c r="J168" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K168" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -6261,13 +6255,13 @@
         <v>200</v>
       </c>
       <c r="J169" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K169" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>20</v>
       </c>
@@ -6290,13 +6284,13 @@
         <v>200</v>
       </c>
       <c r="J170" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K170" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>22</v>
       </c>
@@ -6319,13 +6313,13 @@
         <v>200</v>
       </c>
       <c r="J171" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K171" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>23</v>
       </c>
@@ -6354,21 +6348,21 @@
         <v>200</v>
       </c>
       <c r="J172" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K172" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>24</v>
       </c>
       <c r="B173" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C173" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D173" t="s">
         <v>196</v>
@@ -6389,13 +6383,13 @@
         <v>200</v>
       </c>
       <c r="J173" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K173" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>91</v>
       </c>
@@ -6418,10 +6412,10 @@
         <v>200</v>
       </c>
       <c r="J174" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>26</v>
       </c>
@@ -6444,18 +6438,18 @@
         <v>200</v>
       </c>
       <c r="J175" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>27</v>
       </c>
       <c r="B176" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C176" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D176" t="s">
         <v>196</v>
@@ -6477,21 +6471,21 @@
         <v>200</v>
       </c>
       <c r="J176" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K176" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>28</v>
       </c>
       <c r="B177" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C177" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D177" t="s">
         <v>196</v>
@@ -6513,18 +6507,18 @@
         <v>200</v>
       </c>
       <c r="J177" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B178" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C178" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D178" t="s">
         <v>196</v>
@@ -6546,10 +6540,10 @@
         <v>200</v>
       </c>
       <c r="J178" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>29</v>
       </c>
@@ -6579,10 +6573,10 @@
         <v>200</v>
       </c>
       <c r="J179" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>30</v>
       </c>
@@ -6605,10 +6599,10 @@
         <v>200</v>
       </c>
       <c r="J180" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>31</v>
       </c>
@@ -6631,10 +6625,10 @@
         <v>200</v>
       </c>
       <c r="J181" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>99</v>
       </c>
@@ -6657,10 +6651,10 @@
         <v>200</v>
       </c>
       <c r="J182" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>32</v>
       </c>
@@ -6668,13 +6662,13 @@
         <v>196</v>
       </c>
       <c r="J183" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K183" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>33</v>
       </c>
@@ -6682,13 +6676,13 @@
         <v>196</v>
       </c>
       <c r="J184" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K184" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>34</v>
       </c>
@@ -6711,13 +6705,13 @@
         <v>200</v>
       </c>
       <c r="J185" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K185" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>36</v>
       </c>
@@ -6725,13 +6719,13 @@
         <v>196</v>
       </c>
       <c r="J186" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K186" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>37</v>
       </c>
@@ -6754,15 +6748,15 @@
         <v>200</v>
       </c>
       <c r="J187" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K187" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D188" t="s">
         <v>196</v>
@@ -6783,13 +6777,13 @@
         <v>200</v>
       </c>
       <c r="J188" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K188" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>25</v>
       </c>
@@ -6812,10 +6806,10 @@
         <v>200</v>
       </c>
       <c r="J189" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>10</v>
       </c>
@@ -6839,10 +6833,10 @@
         <v>208</v>
       </c>
       <c r="J190" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>15</v>
       </c>
@@ -6866,10 +6860,10 @@
         <v>208</v>
       </c>
       <c r="J191" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>16</v>
       </c>
@@ -6893,10 +6887,10 @@
         <v>208</v>
       </c>
       <c r="J192" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -6920,10 +6914,10 @@
         <v>208</v>
       </c>
       <c r="J193" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>18</v>
       </c>
@@ -6947,10 +6941,10 @@
         <v>208</v>
       </c>
       <c r="J194" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>23</v>
       </c>
@@ -6974,10 +6968,10 @@
         <v>208</v>
       </c>
       <c r="J195" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>24</v>
       </c>
@@ -7001,10 +6995,10 @@
         <v>208</v>
       </c>
       <c r="J196" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>25</v>
       </c>
@@ -7028,10 +7022,10 @@
         <v>208</v>
       </c>
       <c r="J197" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>10</v>
       </c>
@@ -7061,13 +7055,13 @@
         <v>213</v>
       </c>
       <c r="J198" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K198" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="199" spans="1:13" hidden="1">
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>10</v>
       </c>
@@ -7097,13 +7091,13 @@
         <v>213</v>
       </c>
       <c r="J199" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K199" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="200" spans="1:13" hidden="1">
+    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>15</v>
       </c>
@@ -7126,10 +7120,10 @@
         <v>213</v>
       </c>
       <c r="J200" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>34</v>
       </c>
@@ -7152,10 +7146,10 @@
         <v>213</v>
       </c>
       <c r="J201" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>36</v>
       </c>
@@ -7178,10 +7172,10 @@
         <v>213</v>
       </c>
       <c r="J202" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>27</v>
       </c>
@@ -7211,7 +7205,7 @@
         <v>162</v>
       </c>
       <c r="J203" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K203" t="s">
         <v>220</v>
@@ -7220,7 +7214,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>28</v>
       </c>
@@ -7250,13 +7244,13 @@
         <v>162</v>
       </c>
       <c r="J204" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M204" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="205" spans="1:13" hidden="1">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>29</v>
       </c>
@@ -7286,10 +7280,10 @@
         <v>162</v>
       </c>
       <c r="J205" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" hidden="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>30</v>
       </c>
@@ -7319,13 +7313,13 @@
         <v>162</v>
       </c>
       <c r="J206" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M206" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="207" spans="1:13" hidden="1">
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>31</v>
       </c>
@@ -7355,10 +7349,10 @@
         <v>162</v>
       </c>
       <c r="J207" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" hidden="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>10</v>
       </c>
@@ -7388,13 +7382,13 @@
         <v>228</v>
       </c>
       <c r="J208" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K208" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>10</v>
       </c>
@@ -7424,13 +7418,13 @@
         <v>228</v>
       </c>
       <c r="J209" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K209" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -7453,10 +7447,10 @@
         <v>228</v>
       </c>
       <c r="J210" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>85</v>
       </c>
@@ -7479,13 +7473,13 @@
         <v>228</v>
       </c>
       <c r="J211" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K211" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>34</v>
       </c>
@@ -7508,13 +7502,13 @@
         <v>228</v>
       </c>
       <c r="J212" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K212" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>36</v>
       </c>
@@ -7537,13 +7531,13 @@
         <v>228</v>
       </c>
       <c r="J213" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K213" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>147</v>
       </c>
@@ -7566,13 +7560,13 @@
         <v>228</v>
       </c>
       <c r="J214" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K214" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>37</v>
       </c>
@@ -7595,13 +7589,13 @@
         <v>228</v>
       </c>
       <c r="J215" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K215" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>147</v>
       </c>
@@ -7625,13 +7619,13 @@
         <v>232</v>
       </c>
       <c r="J216" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K216" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>37</v>
       </c>
@@ -7655,13 +7649,13 @@
         <v>232</v>
       </c>
       <c r="J217" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K217" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -7685,13 +7679,13 @@
         <v>238</v>
       </c>
       <c r="J218" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K218" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>15</v>
       </c>
@@ -7715,13 +7709,13 @@
         <v>238</v>
       </c>
       <c r="J219" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K219" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>16</v>
       </c>
@@ -7745,13 +7739,13 @@
         <v>238</v>
       </c>
       <c r="J220" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K220" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>18</v>
       </c>
@@ -7775,15 +7769,15 @@
         <v>238</v>
       </c>
       <c r="J221" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K221" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D222" t="s">
         <v>235</v>
@@ -7805,13 +7799,13 @@
         <v>238</v>
       </c>
       <c r="J222" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K222" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>10</v>
       </c>
@@ -7835,10 +7829,10 @@
         <v>246</v>
       </c>
       <c r="J223" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>10</v>
       </c>
@@ -7861,10 +7855,10 @@
         <v>249</v>
       </c>
       <c r="J224" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -7887,10 +7881,10 @@
         <v>249</v>
       </c>
       <c r="J225" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>10</v>
       </c>
@@ -7913,10 +7907,10 @@
         <v>252</v>
       </c>
       <c r="J226" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>147</v>
       </c>
@@ -7939,10 +7933,10 @@
         <v>252</v>
       </c>
       <c r="J227" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>10</v>
       </c>
@@ -7966,13 +7960,13 @@
         <v>256</v>
       </c>
       <c r="J228" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K228" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -7996,10 +7990,10 @@
         <v>256</v>
       </c>
       <c r="J229" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>10</v>
       </c>
@@ -8023,13 +8017,13 @@
         <v>261</v>
       </c>
       <c r="J230" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K230" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>15</v>
       </c>
@@ -8053,10 +8047,10 @@
         <v>261</v>
       </c>
       <c r="J231" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>35</v>
       </c>
@@ -8080,10 +8074,10 @@
         <v>261</v>
       </c>
       <c r="J232" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>263</v>
       </c>
@@ -8107,10 +8101,10 @@
         <v>261</v>
       </c>
       <c r="J233" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -8133,10 +8127,10 @@
         <v>266</v>
       </c>
       <c r="J234" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>19</v>
       </c>
@@ -8144,13 +8138,13 @@
         <v>267</v>
       </c>
       <c r="J235" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K235" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>22</v>
       </c>
@@ -8158,13 +8152,13 @@
         <v>267</v>
       </c>
       <c r="J236" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K236" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>23</v>
       </c>
@@ -8172,10 +8166,10 @@
         <v>267</v>
       </c>
       <c r="J237" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" hidden="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>24</v>
       </c>
@@ -8183,10 +8177,10 @@
         <v>267</v>
       </c>
       <c r="J238" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" hidden="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>10</v>
       </c>
@@ -8209,10 +8203,10 @@
         <v>272</v>
       </c>
       <c r="J239" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>19</v>
       </c>
@@ -8235,10 +8229,10 @@
         <v>272</v>
       </c>
       <c r="J240" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>20</v>
       </c>
@@ -8261,10 +8255,10 @@
         <v>272</v>
       </c>
       <c r="J241" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>21</v>
       </c>
@@ -8287,12 +8281,12 @@
         <v>272</v>
       </c>
       <c r="J242" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>273</v>
+        <v>23</v>
       </c>
       <c r="D243" t="s">
         <v>270</v>
@@ -8313,12 +8307,12 @@
         <v>272</v>
       </c>
       <c r="J243" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D244" t="s">
         <v>270</v>
@@ -8339,12 +8333,12 @@
         <v>272</v>
       </c>
       <c r="J244" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>274</v>
+        <v>37</v>
       </c>
       <c r="D245" t="s">
         <v>270</v>
@@ -8365,12 +8359,12 @@
         <v>272</v>
       </c>
       <c r="J245" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D246" t="s">
         <v>270</v>
@@ -8391,1492 +8385,1503 @@
         <v>272</v>
       </c>
       <c r="J246" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" hidden="1">
-      <c r="A247" t="s">
-        <v>37</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D247" t="s">
-        <v>270</v>
-      </c>
-      <c r="E247">
-        <v>1</v>
-      </c>
-      <c r="F247" t="s">
-        <v>271</v>
-      </c>
-      <c r="G247" t="s">
-        <v>272</v>
-      </c>
-      <c r="H247" t="s">
-        <v>272</v>
-      </c>
-      <c r="I247" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J247" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" hidden="1">
+        <v>333</v>
+      </c>
+      <c r="K247" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D248" t="s">
-        <v>270</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="E248" s="2">
+        <f>1/(1*87.62/(1*87.62+1*12.011+15.999*3))</f>
+        <v>1.6848664688427297</v>
       </c>
       <c r="F248" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G248" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H248" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="I248" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="J248" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" hidden="1">
-      <c r="A249" s="3" t="s">
-        <v>27</v>
+        <v>332</v>
+      </c>
+      <c r="K248" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="D249" t="s">
         <v>275</v>
       </c>
+      <c r="E249" s="2">
+        <f>1/(1*87.62/(1*87.62+1*12.011+15.999*3))</f>
+        <v>1.6848664688427297</v>
+      </c>
+      <c r="F249" t="s">
+        <v>276</v>
+      </c>
+      <c r="G249" t="s">
+        <v>277</v>
+      </c>
+      <c r="H249" t="s">
+        <v>277</v>
+      </c>
+      <c r="I249" t="s">
+        <v>278</v>
+      </c>
       <c r="J249" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K249" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" hidden="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>10</v>
       </c>
       <c r="D250" t="s">
-        <v>277</v>
-      </c>
-      <c r="E250" s="2">
-        <f>1/(1*87.62/(1*87.62+1*12.011+15.999*3))</f>
-        <v>1.6848664688427297</v>
+        <v>280</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
       </c>
       <c r="F250" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G250" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H250" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I250" t="s">
+        <v>283</v>
+      </c>
+      <c r="J250" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>15</v>
+      </c>
+      <c r="D251" t="s">
         <v>280</v>
       </c>
-      <c r="J250" t="s">
-        <v>334</v>
-      </c>
-      <c r="K250" t="s">
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" hidden="1">
-      <c r="A251" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D251" t="s">
-        <v>277</v>
-      </c>
-      <c r="E251" s="2">
-        <f>1/(1*87.62/(1*87.62+1*12.011+15.999*3))</f>
-        <v>1.6848664688427297</v>
-      </c>
-      <c r="F251" t="s">
-        <v>278</v>
-      </c>
       <c r="G251" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H251" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I251" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J251" t="s">
-        <v>334</v>
-      </c>
-      <c r="K251" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>10</v>
       </c>
       <c r="D252" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E252">
         <v>1</v>
       </c>
       <c r="F252" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G252" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H252" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I252" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J252" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D253" t="s">
-        <v>282</v>
-      </c>
-      <c r="E253">
-        <v>1</v>
-      </c>
-      <c r="F253" t="s">
-        <v>283</v>
-      </c>
-      <c r="G253" t="s">
-        <v>284</v>
-      </c>
-      <c r="H253" t="s">
-        <v>284</v>
-      </c>
-      <c r="I253" t="s">
-        <v>285</v>
-      </c>
-      <c r="J253" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" hidden="1">
-      <c r="A254" t="s">
-        <v>10</v>
-      </c>
-      <c r="D254" t="s">
-        <v>286</v>
-      </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254" t="s">
-        <v>287</v>
-      </c>
-      <c r="G254" t="s">
         <v>288</v>
       </c>
-      <c r="H254" t="s">
-        <v>288</v>
-      </c>
-      <c r="I254" t="s">
-        <v>289</v>
-      </c>
-      <c r="J254" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" hidden="1">
-      <c r="A255" t="s">
-        <v>10</v>
-      </c>
-      <c r="D255" t="s">
-        <v>290</v>
-      </c>
-      <c r="E255" s="2">
+      <c r="E253" s="2">
         <f>1/(1*158.925/(1*158.925+2*15.999))</f>
         <v>1.2013402548371872</v>
       </c>
+      <c r="F253" t="s">
+        <v>289</v>
+      </c>
+      <c r="G253" t="s">
+        <v>290</v>
+      </c>
+      <c r="H253" t="s">
+        <v>290</v>
+      </c>
+      <c r="I253" t="s">
+        <v>291</v>
+      </c>
+      <c r="J253" t="s">
+        <v>332</v>
+      </c>
+      <c r="K253" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>15</v>
+      </c>
+      <c r="D254" t="s">
+        <v>288</v>
+      </c>
+      <c r="E254" s="2">
+        <f t="shared" ref="E254:E257" si="11">1/(1*158.925/(1*158.925+2*15.999))</f>
+        <v>1.2013402548371872</v>
+      </c>
+      <c r="F254" t="s">
+        <v>289</v>
+      </c>
+      <c r="G254" t="s">
+        <v>290</v>
+      </c>
+      <c r="H254" t="s">
+        <v>290</v>
+      </c>
+      <c r="I254" t="s">
+        <v>291</v>
+      </c>
+      <c r="J254" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>16</v>
+      </c>
+      <c r="D255" t="s">
+        <v>288</v>
+      </c>
+      <c r="E255" s="2">
+        <f t="shared" si="11"/>
+        <v>1.2013402548371872</v>
+      </c>
       <c r="F255" t="s">
+        <v>289</v>
+      </c>
+      <c r="G255" t="s">
+        <v>290</v>
+      </c>
+      <c r="H255" t="s">
+        <v>290</v>
+      </c>
+      <c r="I255" t="s">
         <v>291</v>
       </c>
-      <c r="G255" t="s">
-        <v>292</v>
-      </c>
-      <c r="H255" t="s">
-        <v>292</v>
-      </c>
-      <c r="I255" t="s">
-        <v>293</v>
-      </c>
       <c r="J255" t="s">
-        <v>334</v>
-      </c>
-      <c r="K255" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D256" t="s">
+        <v>288</v>
+      </c>
+      <c r="E256" s="2">
+        <f t="shared" si="11"/>
+        <v>1.2013402548371872</v>
+      </c>
+      <c r="F256" t="s">
+        <v>289</v>
+      </c>
+      <c r="G256" t="s">
         <v>290</v>
       </c>
-      <c r="E256" s="2">
-        <f t="shared" ref="E256:E259" si="11">1/(1*158.925/(1*158.925+2*15.999))</f>
-        <v>1.2013402548371872</v>
-      </c>
-      <c r="F256" t="s">
+      <c r="H256" t="s">
+        <v>290</v>
+      </c>
+      <c r="I256" t="s">
         <v>291</v>
       </c>
-      <c r="G256" t="s">
-        <v>292</v>
-      </c>
-      <c r="H256" t="s">
-        <v>292</v>
-      </c>
-      <c r="I256" t="s">
-        <v>293</v>
-      </c>
       <c r="J256" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D257" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E257" s="2">
         <f t="shared" si="11"/>
         <v>1.2013402548371872</v>
       </c>
       <c r="F257" t="s">
+        <v>289</v>
+      </c>
+      <c r="G257" t="s">
+        <v>290</v>
+      </c>
+      <c r="H257" t="s">
+        <v>290</v>
+      </c>
+      <c r="I257" t="s">
         <v>291</v>
       </c>
-      <c r="G257" t="s">
-        <v>292</v>
-      </c>
-      <c r="H257" t="s">
-        <v>292</v>
-      </c>
-      <c r="I257" t="s">
+      <c r="J257" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>10</v>
+      </c>
+      <c r="D258" t="s">
         <v>293</v>
       </c>
-      <c r="J257" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" hidden="1">
-      <c r="A258" t="s">
-        <v>17</v>
-      </c>
-      <c r="D258" t="s">
-        <v>290</v>
-      </c>
-      <c r="E258" s="2">
-        <f t="shared" si="11"/>
-        <v>1.2013402548371872</v>
+      <c r="E258">
+        <v>1</v>
       </c>
       <c r="F258" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G258" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H258" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I258" t="s">
+        <v>295</v>
+      </c>
+      <c r="J258" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>19</v>
+      </c>
+      <c r="D259" t="s">
         <v>293</v>
       </c>
-      <c r="J258" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" hidden="1">
-      <c r="A259" t="s">
-        <v>18</v>
-      </c>
-      <c r="D259" t="s">
-        <v>290</v>
-      </c>
-      <c r="E259" s="2">
-        <f t="shared" si="11"/>
-        <v>1.2013402548371872</v>
+      <c r="E259">
+        <v>1</v>
       </c>
       <c r="F259" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G259" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H259" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I259" t="s">
+        <v>295</v>
+      </c>
+      <c r="J259" t="s">
+        <v>332</v>
+      </c>
+      <c r="K259" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>20</v>
+      </c>
+      <c r="D260" t="s">
         <v>293</v>
       </c>
-      <c r="J259" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" hidden="1">
-      <c r="A260" t="s">
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260" t="s">
+        <v>294</v>
+      </c>
+      <c r="G260" t="s">
+        <v>295</v>
+      </c>
+      <c r="H260" t="s">
+        <v>295</v>
+      </c>
+      <c r="I260" t="s">
+        <v>295</v>
+      </c>
+      <c r="J260" t="s">
+        <v>332</v>
+      </c>
+      <c r="K260" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>21</v>
+      </c>
+      <c r="D261" t="s">
+        <v>293</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261" t="s">
+        <v>294</v>
+      </c>
+      <c r="G261" t="s">
+        <v>295</v>
+      </c>
+      <c r="H261" t="s">
+        <v>295</v>
+      </c>
+      <c r="I261" t="s">
+        <v>295</v>
+      </c>
+      <c r="J261" t="s">
+        <v>332</v>
+      </c>
+      <c r="K261" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>22</v>
+      </c>
+      <c r="D262" t="s">
+        <v>293</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262" t="s">
+        <v>294</v>
+      </c>
+      <c r="G262" t="s">
+        <v>295</v>
+      </c>
+      <c r="H262" t="s">
+        <v>295</v>
+      </c>
+      <c r="I262" t="s">
+        <v>295</v>
+      </c>
+      <c r="J262" t="s">
+        <v>332</v>
+      </c>
+      <c r="K262" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>25</v>
+      </c>
+      <c r="D263" t="s">
+        <v>293</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263" t="s">
+        <v>294</v>
+      </c>
+      <c r="G263" t="s">
+        <v>295</v>
+      </c>
+      <c r="H263" t="s">
+        <v>295</v>
+      </c>
+      <c r="I263" t="s">
+        <v>295</v>
+      </c>
+      <c r="J263" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>23</v>
+      </c>
+      <c r="D264" t="s">
+        <v>297</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264" t="s">
+        <v>298</v>
+      </c>
+      <c r="G264" t="s">
+        <v>299</v>
+      </c>
+      <c r="H264" t="s">
+        <v>299</v>
+      </c>
+      <c r="I264" t="s">
+        <v>299</v>
+      </c>
+      <c r="J264" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>24</v>
+      </c>
+      <c r="D265" t="s">
+        <v>297</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265" t="s">
+        <v>298</v>
+      </c>
+      <c r="G265" t="s">
+        <v>299</v>
+      </c>
+      <c r="H265" t="s">
+        <v>299</v>
+      </c>
+      <c r="I265" t="s">
+        <v>299</v>
+      </c>
+      <c r="J265" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>30</v>
+      </c>
+      <c r="D266" t="s">
+        <v>297</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266" t="s">
+        <v>298</v>
+      </c>
+      <c r="G266" t="s">
+        <v>299</v>
+      </c>
+      <c r="H266" t="s">
+        <v>299</v>
+      </c>
+      <c r="I266" t="s">
+        <v>300</v>
+      </c>
+      <c r="J266" t="s">
+        <v>332</v>
+      </c>
+      <c r="K266" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>31</v>
+      </c>
+      <c r="D267" t="s">
+        <v>297</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267" t="s">
+        <v>298</v>
+      </c>
+      <c r="G267" t="s">
+        <v>299</v>
+      </c>
+      <c r="H267" t="s">
+        <v>299</v>
+      </c>
+      <c r="I267" t="s">
+        <v>299</v>
+      </c>
+      <c r="J267" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>147</v>
+      </c>
+      <c r="D268" t="s">
+        <v>297</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268" t="s">
+        <v>298</v>
+      </c>
+      <c r="G268" t="s">
+        <v>299</v>
+      </c>
+      <c r="H268" t="s">
+        <v>299</v>
+      </c>
+      <c r="I268" t="s">
+        <v>299</v>
+      </c>
+      <c r="J268" t="s">
+        <v>332</v>
+      </c>
+      <c r="K268" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>10</v>
       </c>
-      <c r="D260" t="s">
-        <v>295</v>
-      </c>
-      <c r="E260">
-        <v>1</v>
-      </c>
-      <c r="F260" t="s">
-        <v>296</v>
-      </c>
-      <c r="G260" t="s">
-        <v>297</v>
-      </c>
-      <c r="H260" t="s">
-        <v>297</v>
-      </c>
-      <c r="I260" t="s">
-        <v>297</v>
-      </c>
-      <c r="J260" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" hidden="1">
-      <c r="A261" t="s">
-        <v>19</v>
-      </c>
-      <c r="D261" t="s">
-        <v>295</v>
-      </c>
-      <c r="E261">
-        <v>1</v>
-      </c>
-      <c r="F261" t="s">
-        <v>296</v>
-      </c>
-      <c r="G261" t="s">
-        <v>297</v>
-      </c>
-      <c r="H261" t="s">
-        <v>297</v>
-      </c>
-      <c r="I261" t="s">
-        <v>297</v>
-      </c>
-      <c r="J261" t="s">
-        <v>334</v>
-      </c>
-      <c r="K261" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" hidden="1">
-      <c r="A262" t="s">
-        <v>20</v>
-      </c>
-      <c r="D262" t="s">
-        <v>295</v>
-      </c>
-      <c r="E262">
-        <v>1</v>
-      </c>
-      <c r="F262" t="s">
-        <v>296</v>
-      </c>
-      <c r="G262" t="s">
-        <v>297</v>
-      </c>
-      <c r="H262" t="s">
-        <v>297</v>
-      </c>
-      <c r="I262" t="s">
-        <v>297</v>
-      </c>
-      <c r="J262" t="s">
-        <v>334</v>
-      </c>
-      <c r="K262" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" hidden="1">
-      <c r="A263" t="s">
-        <v>21</v>
-      </c>
-      <c r="D263" t="s">
-        <v>295</v>
-      </c>
-      <c r="E263">
-        <v>1</v>
-      </c>
-      <c r="F263" t="s">
-        <v>296</v>
-      </c>
-      <c r="G263" t="s">
-        <v>297</v>
-      </c>
-      <c r="H263" t="s">
-        <v>297</v>
-      </c>
-      <c r="I263" t="s">
-        <v>297</v>
-      </c>
-      <c r="J263" t="s">
-        <v>334</v>
-      </c>
-      <c r="K263" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" hidden="1">
-      <c r="A264" t="s">
-        <v>22</v>
-      </c>
-      <c r="D264" t="s">
-        <v>295</v>
-      </c>
-      <c r="E264">
-        <v>1</v>
-      </c>
-      <c r="F264" t="s">
-        <v>296</v>
-      </c>
-      <c r="G264" t="s">
-        <v>297</v>
-      </c>
-      <c r="H264" t="s">
-        <v>297</v>
-      </c>
-      <c r="I264" t="s">
-        <v>297</v>
-      </c>
-      <c r="J264" t="s">
-        <v>334</v>
-      </c>
-      <c r="K264" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" hidden="1">
-      <c r="A265" t="s">
-        <v>25</v>
-      </c>
-      <c r="D265" t="s">
-        <v>295</v>
-      </c>
-      <c r="E265">
-        <v>1</v>
-      </c>
-      <c r="F265" t="s">
-        <v>296</v>
-      </c>
-      <c r="G265" t="s">
-        <v>297</v>
-      </c>
-      <c r="H265" t="s">
-        <v>297</v>
-      </c>
-      <c r="I265" t="s">
-        <v>297</v>
-      </c>
-      <c r="J265" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" hidden="1">
-      <c r="A266" t="s">
-        <v>23</v>
-      </c>
-      <c r="D266" t="s">
-        <v>299</v>
-      </c>
-      <c r="E266">
-        <v>1</v>
-      </c>
-      <c r="F266" t="s">
-        <v>300</v>
-      </c>
-      <c r="G266" t="s">
-        <v>301</v>
-      </c>
-      <c r="H266" t="s">
-        <v>301</v>
-      </c>
-      <c r="I266" t="s">
-        <v>301</v>
-      </c>
-      <c r="J266" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" hidden="1">
-      <c r="A267" t="s">
-        <v>24</v>
-      </c>
-      <c r="D267" t="s">
-        <v>299</v>
-      </c>
-      <c r="E267">
-        <v>1</v>
-      </c>
-      <c r="F267" t="s">
-        <v>300</v>
-      </c>
-      <c r="G267" t="s">
-        <v>301</v>
-      </c>
-      <c r="H267" t="s">
-        <v>301</v>
-      </c>
-      <c r="I267" t="s">
-        <v>301</v>
-      </c>
-      <c r="J267" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" hidden="1">
-      <c r="A268" t="s">
-        <v>30</v>
-      </c>
-      <c r="D268" t="s">
-        <v>299</v>
-      </c>
-      <c r="E268">
-        <v>1</v>
-      </c>
-      <c r="F268" t="s">
-        <v>300</v>
-      </c>
-      <c r="G268" t="s">
-        <v>301</v>
-      </c>
-      <c r="H268" t="s">
-        <v>301</v>
-      </c>
-      <c r="I268" t="s">
+      <c r="D269" t="s">
         <v>302</v>
       </c>
-      <c r="J268" t="s">
-        <v>334</v>
-      </c>
-      <c r="K268" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" hidden="1">
-      <c r="A269" t="s">
-        <v>31</v>
-      </c>
-      <c r="D269" t="s">
-        <v>299</v>
-      </c>
-      <c r="E269">
-        <v>1</v>
-      </c>
-      <c r="F269" t="s">
-        <v>300</v>
-      </c>
-      <c r="G269" t="s">
-        <v>301</v>
-      </c>
-      <c r="H269" t="s">
-        <v>301</v>
-      </c>
-      <c r="I269" t="s">
-        <v>301</v>
-      </c>
-      <c r="J269" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" hidden="1">
-      <c r="A270" t="s">
-        <v>147</v>
-      </c>
-      <c r="D270" t="s">
-        <v>299</v>
-      </c>
-      <c r="E270">
-        <v>1</v>
-      </c>
-      <c r="F270" t="s">
-        <v>300</v>
-      </c>
-      <c r="G270" t="s">
-        <v>301</v>
-      </c>
-      <c r="H270" t="s">
-        <v>301</v>
-      </c>
-      <c r="I270" t="s">
-        <v>301</v>
-      </c>
-      <c r="J270" t="s">
-        <v>334</v>
-      </c>
-      <c r="K270" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" hidden="1">
-      <c r="A271" t="s">
-        <v>10</v>
-      </c>
-      <c r="D271" t="s">
-        <v>304</v>
-      </c>
-      <c r="E271" s="2">
+      <c r="E269" s="2">
         <f>1/(1*183.84/(1*183.84+12.012))</f>
         <v>1.0653394255874673</v>
       </c>
-      <c r="F271" t="s">
+      <c r="F269" t="s">
+        <v>303</v>
+      </c>
+      <c r="G269" t="s">
+        <v>304</v>
+      </c>
+      <c r="H269" t="s">
+        <v>304</v>
+      </c>
+      <c r="I269" t="s">
         <v>305</v>
       </c>
-      <c r="G271" t="s">
+      <c r="J269" t="s">
+        <v>332</v>
+      </c>
+      <c r="K269" t="s">
         <v>306</v>
       </c>
-      <c r="H271" t="s">
-        <v>306</v>
-      </c>
-      <c r="I271" t="s">
-        <v>307</v>
-      </c>
-      <c r="J271" t="s">
-        <v>334</v>
-      </c>
-      <c r="K271" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" hidden="1">
-      <c r="A272" t="s">
+    </row>
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>25</v>
       </c>
-      <c r="D272" t="s">
-        <v>304</v>
-      </c>
-      <c r="E272" s="2">
+      <c r="D270" t="s">
+        <v>302</v>
+      </c>
+      <c r="E270" s="2">
         <f>1/(1*183.84/(1*183.84+12.012))</f>
         <v>1.0653394255874673</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F270" t="s">
+        <v>303</v>
+      </c>
+      <c r="G270" t="s">
+        <v>304</v>
+      </c>
+      <c r="H270" t="s">
+        <v>304</v>
+      </c>
+      <c r="I270" t="s">
         <v>305</v>
       </c>
-      <c r="G272" t="s">
+      <c r="J270" t="s">
+        <v>332</v>
+      </c>
+      <c r="K270" t="s">
         <v>306</v>
       </c>
-      <c r="H272" t="s">
-        <v>306</v>
-      </c>
-      <c r="I272" t="s">
+    </row>
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>16</v>
+      </c>
+      <c r="D271" t="s">
         <v>307</v>
       </c>
-      <c r="J272" t="s">
-        <v>334</v>
-      </c>
-      <c r="K272" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11">
-      <c r="A273" t="s">
-        <v>16</v>
-      </c>
-      <c r="D273" t="s">
-        <v>309</v>
-      </c>
-      <c r="E273" s="2">
+      <c r="E271" s="2">
         <f>1/(2*50.942/(2*50.942+15.999*5))</f>
         <v>1.7851576302461625</v>
       </c>
+      <c r="F271" t="s">
+        <v>308</v>
+      </c>
+      <c r="G271" t="s">
+        <v>309</v>
+      </c>
+      <c r="H271" t="s">
+        <v>309</v>
+      </c>
+      <c r="I271" t="s">
+        <v>310</v>
+      </c>
+      <c r="J271" t="s">
+        <v>332</v>
+      </c>
+      <c r="K271" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>18</v>
+      </c>
+      <c r="D272" t="s">
+        <v>307</v>
+      </c>
+      <c r="E272" s="2">
+        <f t="shared" ref="E272:E276" si="12">1/(2*50.942/(2*50.942+15.999*5))</f>
+        <v>1.7851576302461625</v>
+      </c>
+      <c r="F272" t="s">
+        <v>308</v>
+      </c>
+      <c r="G272" t="s">
+        <v>309</v>
+      </c>
+      <c r="H272" t="s">
+        <v>309</v>
+      </c>
+      <c r="I272" t="s">
+        <v>310</v>
+      </c>
+      <c r="J272" t="s">
+        <v>332</v>
+      </c>
+      <c r="K272" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>23</v>
+      </c>
+      <c r="D273" t="s">
+        <v>307</v>
+      </c>
+      <c r="E273" s="2">
+        <f t="shared" si="12"/>
+        <v>1.7851576302461625</v>
+      </c>
       <c r="F273" t="s">
+        <v>308</v>
+      </c>
+      <c r="G273" t="s">
+        <v>309</v>
+      </c>
+      <c r="H273" t="s">
+        <v>309</v>
+      </c>
+      <c r="I273" t="s">
         <v>310</v>
       </c>
-      <c r="G273" t="s">
+      <c r="J273" t="s">
+        <v>332</v>
+      </c>
+      <c r="K273" t="s">
         <v>311</v>
       </c>
-      <c r="H273" t="s">
+    </row>
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>24</v>
+      </c>
+      <c r="D274" t="s">
+        <v>307</v>
+      </c>
+      <c r="E274" s="2">
+        <f t="shared" si="12"/>
+        <v>1.7851576302461625</v>
+      </c>
+      <c r="F274" t="s">
+        <v>308</v>
+      </c>
+      <c r="G274" t="s">
+        <v>309</v>
+      </c>
+      <c r="H274" t="s">
+        <v>309</v>
+      </c>
+      <c r="I274" t="s">
+        <v>310</v>
+      </c>
+      <c r="J274" t="s">
+        <v>332</v>
+      </c>
+      <c r="K274" t="s">
         <v>311</v>
       </c>
-      <c r="I273" t="s">
-        <v>312</v>
-      </c>
-      <c r="J273" t="s">
-        <v>334</v>
-      </c>
-      <c r="K273" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" hidden="1">
-      <c r="A274" t="s">
-        <v>18</v>
-      </c>
-      <c r="D274" t="s">
-        <v>309</v>
-      </c>
-      <c r="E274" s="2">
-        <f t="shared" ref="E274:E278" si="12">1/(2*50.942/(2*50.942+15.999*5))</f>
-        <v>1.7851576302461625</v>
-      </c>
-      <c r="F274" t="s">
-        <v>310</v>
-      </c>
-      <c r="G274" t="s">
-        <v>311</v>
-      </c>
-      <c r="H274" t="s">
-        <v>311</v>
-      </c>
-      <c r="I274" t="s">
-        <v>312</v>
-      </c>
-      <c r="J274" t="s">
-        <v>334</v>
-      </c>
-      <c r="K274" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" hidden="1">
+    </row>
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D275" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E275" s="2">
         <f t="shared" si="12"/>
         <v>1.7851576302461625</v>
       </c>
       <c r="F275" t="s">
+        <v>308</v>
+      </c>
+      <c r="G275" t="s">
+        <v>309</v>
+      </c>
+      <c r="H275" t="s">
+        <v>309</v>
+      </c>
+      <c r="I275" t="s">
         <v>310</v>
       </c>
-      <c r="G275" t="s">
+      <c r="J275" t="s">
+        <v>332</v>
+      </c>
+      <c r="K275" t="s">
         <v>311</v>
       </c>
-      <c r="H275" t="s">
-        <v>311</v>
-      </c>
-      <c r="I275" t="s">
-        <v>312</v>
-      </c>
-      <c r="J275" t="s">
-        <v>334</v>
-      </c>
-      <c r="K275" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" hidden="1">
+    </row>
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D276" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E276" s="2">
         <f t="shared" si="12"/>
         <v>1.7851576302461625</v>
       </c>
       <c r="F276" t="s">
+        <v>308</v>
+      </c>
+      <c r="G276" t="s">
+        <v>309</v>
+      </c>
+      <c r="H276" t="s">
+        <v>309</v>
+      </c>
+      <c r="I276" t="s">
         <v>310</v>
       </c>
-      <c r="G276" t="s">
+      <c r="J276" t="s">
+        <v>332</v>
+      </c>
+      <c r="K276" t="s">
         <v>311</v>
       </c>
-      <c r="H276" t="s">
-        <v>311</v>
-      </c>
-      <c r="I276" t="s">
+    </row>
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" t="s">
         <v>312</v>
       </c>
-      <c r="J276" t="s">
-        <v>334</v>
-      </c>
-      <c r="K276" t="s">
+      <c r="E277" s="2">
+        <f>1/(2*173.04/(2*173.04+3*15.999))</f>
+        <v>1.1386875866851596</v>
+      </c>
+      <c r="F277" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" hidden="1">
-      <c r="A277" t="s">
-        <v>99</v>
-      </c>
-      <c r="D277" t="s">
-        <v>309</v>
-      </c>
-      <c r="E277" s="2">
-        <f t="shared" si="12"/>
-        <v>1.7851576302461625</v>
-      </c>
-      <c r="F277" t="s">
-        <v>310</v>
-      </c>
       <c r="G277" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H277" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I277" t="s">
+        <v>315</v>
+      </c>
+      <c r="J277" t="s">
+        <v>332</v>
+      </c>
+      <c r="K277" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>15</v>
+      </c>
+      <c r="D278" t="s">
         <v>312</v>
       </c>
-      <c r="J277" t="s">
-        <v>334</v>
-      </c>
-      <c r="K277" t="s">
+      <c r="E278" s="2">
+        <f>1/(2*173.04/(2*173.04+3*15.999))</f>
+        <v>1.1386875866851596</v>
+      </c>
+      <c r="F278" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" hidden="1">
-      <c r="A278" t="s">
-        <v>25</v>
-      </c>
-      <c r="D278" t="s">
-        <v>309</v>
-      </c>
-      <c r="E278" s="2">
-        <f t="shared" si="12"/>
-        <v>1.7851576302461625</v>
-      </c>
-      <c r="F278" t="s">
-        <v>310</v>
-      </c>
       <c r="G278" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H278" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I278" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J278" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K278" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" hidden="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>10</v>
       </c>
       <c r="D279" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E279" s="2">
-        <f>1/(2*173.04/(2*173.04+3*15.999))</f>
-        <v>1.1386875866851596</v>
+        <f>1/(2*88.906/(2*88.906+3*15.999))</f>
+        <v>1.2699311632510744</v>
       </c>
       <c r="F279" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G279" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H279" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="I279" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="J279" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K279" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" hidden="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>15</v>
       </c>
       <c r="D280" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E280" s="2">
-        <f>1/(2*173.04/(2*173.04+3*15.999))</f>
-        <v>1.1386875866851596</v>
+        <f t="shared" ref="E280:E285" si="13">1/(2*88.906/(2*88.906+3*15.999))</f>
+        <v>1.2699311632510744</v>
       </c>
       <c r="F280" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G280" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H280" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="I280" t="s">
+        <v>320</v>
+      </c>
+      <c r="J280" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>322</v>
+      </c>
+      <c r="D281" t="s">
         <v>317</v>
       </c>
-      <c r="J280" t="s">
-        <v>334</v>
-      </c>
-      <c r="K280" t="s">
+      <c r="E281" s="2">
+        <f t="shared" si="13"/>
+        <v>1.2699311632510744</v>
+      </c>
+      <c r="F281" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" hidden="1">
-      <c r="A281" t="s">
-        <v>10</v>
-      </c>
-      <c r="D281" t="s">
+      <c r="G281" t="s">
         <v>319</v>
       </c>
-      <c r="E281" s="2">
-        <f>1/(2*88.906/(2*88.906+3*15.999))</f>
+      <c r="H281" t="s">
+        <v>319</v>
+      </c>
+      <c r="I281" t="s">
+        <v>320</v>
+      </c>
+      <c r="J281" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>36</v>
+      </c>
+      <c r="D282" t="s">
+        <v>317</v>
+      </c>
+      <c r="E282" s="2">
+        <f t="shared" si="13"/>
         <v>1.2699311632510744</v>
       </c>
-      <c r="F281" t="s">
+      <c r="F282" t="s">
+        <v>318</v>
+      </c>
+      <c r="G282" t="s">
+        <v>319</v>
+      </c>
+      <c r="H282" t="s">
+        <v>319</v>
+      </c>
+      <c r="I282" t="s">
         <v>320</v>
       </c>
-      <c r="G281" t="s">
-        <v>321</v>
-      </c>
-      <c r="H281" t="s">
-        <v>321</v>
-      </c>
-      <c r="I281" t="s">
-        <v>322</v>
-      </c>
-      <c r="J281" t="s">
-        <v>334</v>
-      </c>
-      <c r="K281" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" hidden="1">
-      <c r="A282" t="s">
-        <v>15</v>
-      </c>
-      <c r="D282" t="s">
-        <v>319</v>
-      </c>
-      <c r="E282" s="2">
-        <f t="shared" ref="E282:E286" si="13">1/(2*88.906/(2*88.906+3*15.999))</f>
-        <v>1.2699311632510744</v>
-      </c>
-      <c r="F282" t="s">
-        <v>320</v>
-      </c>
-      <c r="G282" t="s">
-        <v>321</v>
-      </c>
-      <c r="H282" t="s">
-        <v>321</v>
-      </c>
-      <c r="I282" t="s">
-        <v>322</v>
-      </c>
       <c r="J282" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>324</v>
+        <v>34</v>
       </c>
       <c r="D283" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E283" s="2">
         <f t="shared" si="13"/>
         <v>1.2699311632510744</v>
       </c>
       <c r="F283" t="s">
+        <v>318</v>
+      </c>
+      <c r="G283" t="s">
+        <v>319</v>
+      </c>
+      <c r="H283" t="s">
+        <v>319</v>
+      </c>
+      <c r="I283" t="s">
         <v>320</v>
       </c>
-      <c r="G283" t="s">
-        <v>321</v>
-      </c>
-      <c r="H283" t="s">
-        <v>321</v>
-      </c>
-      <c r="I283" t="s">
-        <v>322</v>
-      </c>
       <c r="J283" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D284" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E284" s="2">
         <f t="shared" si="13"/>
         <v>1.2699311632510744</v>
       </c>
       <c r="F284" t="s">
+        <v>318</v>
+      </c>
+      <c r="G284" t="s">
+        <v>319</v>
+      </c>
+      <c r="H284" t="s">
+        <v>319</v>
+      </c>
+      <c r="I284" t="s">
         <v>320</v>
       </c>
-      <c r="G284" t="s">
-        <v>321</v>
-      </c>
-      <c r="H284" t="s">
-        <v>321</v>
-      </c>
-      <c r="I284" t="s">
-        <v>322</v>
-      </c>
       <c r="J284" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" hidden="1">
-      <c r="A285" t="s">
-        <v>25</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="D285" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E285" s="2">
         <f t="shared" si="13"/>
         <v>1.2699311632510744</v>
       </c>
       <c r="F285" t="s">
+        <v>318</v>
+      </c>
+      <c r="G285" t="s">
+        <v>319</v>
+      </c>
+      <c r="H285" t="s">
+        <v>319</v>
+      </c>
+      <c r="I285" t="s">
         <v>320</v>
       </c>
-      <c r="G285" t="s">
-        <v>321</v>
-      </c>
-      <c r="H285" t="s">
-        <v>321</v>
-      </c>
-      <c r="I285" t="s">
-        <v>322</v>
-      </c>
       <c r="J285" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" hidden="1">
-      <c r="A286" s="8" t="s">
-        <v>353</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>17</v>
       </c>
       <c r="D286" t="s">
-        <v>319</v>
-      </c>
-      <c r="E286" s="2">
-        <f t="shared" si="13"/>
-        <v>1.2699311632510744</v>
+        <v>323</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
       </c>
       <c r="F286" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G286" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H286" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="I286" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J286" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+      <c r="K286" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D287" t="s">
+        <v>323</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287" t="s">
+        <v>324</v>
+      </c>
+      <c r="G287" t="s">
         <v>325</v>
       </c>
-      <c r="E287">
-        <v>1</v>
-      </c>
-      <c r="F287" t="s">
-        <v>326</v>
-      </c>
-      <c r="G287" t="s">
-        <v>327</v>
-      </c>
       <c r="H287" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I287" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J287" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K287" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D288" t="s">
+        <v>323</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288" t="s">
+        <v>324</v>
+      </c>
+      <c r="G288" t="s">
         <v>325</v>
       </c>
-      <c r="E288">
-        <v>1</v>
-      </c>
-      <c r="F288" t="s">
-        <v>326</v>
-      </c>
-      <c r="G288" t="s">
-        <v>327</v>
-      </c>
       <c r="H288" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I288" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J288" t="s">
-        <v>334</v>
-      </c>
-      <c r="K288" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>21</v>
+      </c>
+      <c r="D289" t="s">
+        <v>323</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289" t="s">
+        <v>324</v>
+      </c>
+      <c r="G289" t="s">
+        <v>325</v>
+      </c>
+      <c r="H289" t="s">
+        <v>325</v>
+      </c>
+      <c r="I289" t="s">
+        <v>325</v>
+      </c>
+      <c r="J289" t="s">
+        <v>332</v>
+      </c>
+      <c r="K289" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1">
-      <c r="A289" t="s">
-        <v>19</v>
-      </c>
-      <c r="D289" t="s">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>23</v>
+      </c>
+      <c r="D290" t="s">
+        <v>323</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290" t="s">
+        <v>324</v>
+      </c>
+      <c r="G290" t="s">
         <v>325</v>
       </c>
-      <c r="E289">
-        <v>1</v>
-      </c>
-      <c r="F289" t="s">
-        <v>326</v>
-      </c>
-      <c r="G289" t="s">
-        <v>327</v>
-      </c>
-      <c r="H289" t="s">
-        <v>327</v>
-      </c>
-      <c r="I289" t="s">
-        <v>327</v>
-      </c>
-      <c r="J289" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" hidden="1">
-      <c r="A290" t="s">
-        <v>21</v>
-      </c>
-      <c r="D290" t="s">
+      <c r="H290" t="s">
         <v>325</v>
       </c>
-      <c r="E290">
-        <v>1</v>
-      </c>
-      <c r="F290" t="s">
-        <v>326</v>
-      </c>
-      <c r="G290" t="s">
-        <v>327</v>
-      </c>
-      <c r="H290" t="s">
-        <v>327</v>
-      </c>
       <c r="I290" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J290" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K290" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D291" t="s">
+        <v>323</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291" t="s">
+        <v>324</v>
+      </c>
+      <c r="G291" t="s">
         <v>325</v>
       </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291" t="s">
-        <v>326</v>
-      </c>
-      <c r="G291" t="s">
-        <v>327</v>
-      </c>
       <c r="H291" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I291" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J291" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K291" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D292" t="s">
+        <v>323</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292" t="s">
+        <v>324</v>
+      </c>
+      <c r="G292" t="s">
         <v>325</v>
       </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292" t="s">
+      <c r="H292" t="s">
+        <v>325</v>
+      </c>
+      <c r="I292" t="s">
+        <v>325</v>
+      </c>
+      <c r="J292" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>10</v>
+      </c>
+      <c r="D293" t="s">
         <v>326</v>
       </c>
-      <c r="G292" t="s">
-        <v>327</v>
-      </c>
-      <c r="H292" t="s">
-        <v>327</v>
-      </c>
-      <c r="I292" t="s">
-        <v>327</v>
-      </c>
-      <c r="J292" t="s">
-        <v>334</v>
-      </c>
-      <c r="K292" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" hidden="1">
-      <c r="A293" t="s">
-        <v>36</v>
-      </c>
-      <c r="D293" t="s">
-        <v>325</v>
-      </c>
-      <c r="E293">
-        <v>1</v>
-      </c>
-      <c r="F293" t="s">
-        <v>326</v>
-      </c>
-      <c r="G293" t="s">
-        <v>327</v>
-      </c>
-      <c r="H293" t="s">
-        <v>327</v>
-      </c>
-      <c r="I293" t="s">
-        <v>327</v>
-      </c>
-      <c r="J293" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" hidden="1">
-      <c r="A294" t="s">
-        <v>10</v>
-      </c>
-      <c r="D294" t="s">
-        <v>328</v>
-      </c>
-      <c r="E294" s="2">
+      <c r="E293" s="2">
         <f>1/(1*91.224/(1*91.224+2*15.999))</f>
         <v>1.3507629571165483</v>
       </c>
+      <c r="F293" t="s">
+        <v>327</v>
+      </c>
+      <c r="G293" t="s">
+        <v>328</v>
+      </c>
+      <c r="H293" t="s">
+        <v>328</v>
+      </c>
+      <c r="I293" t="s">
+        <v>329</v>
+      </c>
+      <c r="J293" t="s">
+        <v>332</v>
+      </c>
+      <c r="K293" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>35</v>
+      </c>
+      <c r="D294" t="s">
+        <v>326</v>
+      </c>
+      <c r="E294" s="2">
+        <f t="shared" ref="E294:E298" si="14">1/(1*91.224/(1*91.224+2*15.999))</f>
+        <v>1.3507629571165483</v>
+      </c>
       <c r="F294" t="s">
+        <v>327</v>
+      </c>
+      <c r="G294" t="s">
+        <v>328</v>
+      </c>
+      <c r="H294" t="s">
+        <v>328</v>
+      </c>
+      <c r="I294" t="s">
         <v>329</v>
       </c>
-      <c r="G294" t="s">
-        <v>330</v>
-      </c>
-      <c r="H294" t="s">
-        <v>330</v>
-      </c>
-      <c r="I294" t="s">
-        <v>331</v>
-      </c>
       <c r="J294" t="s">
-        <v>334</v>
-      </c>
-      <c r="K294" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D295" t="s">
+        <v>326</v>
+      </c>
+      <c r="E295" s="2">
+        <f t="shared" si="14"/>
+        <v>1.3507629571165483</v>
+      </c>
+      <c r="F295" t="s">
+        <v>327</v>
+      </c>
+      <c r="G295" t="s">
         <v>328</v>
       </c>
-      <c r="E295" s="2">
-        <f t="shared" ref="E295:E299" si="14">1/(1*91.224/(1*91.224+2*15.999))</f>
-        <v>1.3507629571165483</v>
-      </c>
-      <c r="F295" t="s">
+      <c r="H295" t="s">
+        <v>328</v>
+      </c>
+      <c r="I295" t="s">
         <v>329</v>
       </c>
-      <c r="G295" t="s">
-        <v>330</v>
-      </c>
-      <c r="H295" t="s">
-        <v>330</v>
-      </c>
-      <c r="I295" t="s">
-        <v>331</v>
-      </c>
       <c r="J295" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+      <c r="K295" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D296" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E296" s="2">
         <f t="shared" si="14"/>
         <v>1.3507629571165483</v>
       </c>
       <c r="F296" t="s">
+        <v>327</v>
+      </c>
+      <c r="G296" t="s">
+        <v>328</v>
+      </c>
+      <c r="H296" t="s">
+        <v>328</v>
+      </c>
+      <c r="I296" t="s">
         <v>329</v>
       </c>
-      <c r="G296" t="s">
-        <v>330</v>
-      </c>
-      <c r="H296" t="s">
-        <v>330</v>
-      </c>
-      <c r="I296" t="s">
-        <v>331</v>
-      </c>
       <c r="J296" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K296" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1">
-      <c r="A297" t="s">
-        <v>37</v>
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="D297" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E297" s="2">
         <f t="shared" si="14"/>
         <v>1.3507629571165483</v>
       </c>
       <c r="F297" t="s">
+        <v>327</v>
+      </c>
+      <c r="G297" t="s">
+        <v>328</v>
+      </c>
+      <c r="H297" t="s">
+        <v>328</v>
+      </c>
+      <c r="I297" t="s">
         <v>329</v>
       </c>
-      <c r="G297" t="s">
-        <v>330</v>
-      </c>
-      <c r="H297" t="s">
-        <v>330</v>
-      </c>
-      <c r="I297" t="s">
-        <v>331</v>
-      </c>
       <c r="J297" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K297" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1">
-      <c r="A298" s="8" t="s">
-        <v>353</v>
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>25</v>
       </c>
       <c r="D298" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E298" s="2">
         <f t="shared" si="14"/>
         <v>1.3507629571165483</v>
       </c>
       <c r="F298" t="s">
+        <v>327</v>
+      </c>
+      <c r="G298" t="s">
+        <v>328</v>
+      </c>
+      <c r="H298" t="s">
+        <v>328</v>
+      </c>
+      <c r="I298" t="s">
         <v>329</v>
       </c>
-      <c r="G298" t="s">
-        <v>330</v>
-      </c>
-      <c r="H298" t="s">
-        <v>330</v>
-      </c>
-      <c r="I298" t="s">
-        <v>331</v>
-      </c>
       <c r="J298" t="s">
-        <v>334</v>
-      </c>
-      <c r="K298" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="B299" t="s">
+        <v>342</v>
+      </c>
+      <c r="C299" t="s">
+        <v>343</v>
       </c>
       <c r="D299" t="s">
-        <v>328</v>
+        <v>159</v>
       </c>
       <c r="E299" s="2">
-        <f t="shared" si="14"/>
-        <v>1.3507629571165483</v>
+        <f>1/(2*6.941/(2*6.941+12.012+3*15.999))*0.89</f>
+        <v>4.7372849733467799</v>
       </c>
       <c r="F299" t="s">
-        <v>329</v>
+        <v>160</v>
       </c>
       <c r="G299" t="s">
-        <v>330</v>
+        <v>161</v>
       </c>
       <c r="H299" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="I299" t="s">
-        <v>331</v>
+        <v>162</v>
       </c>
       <c r="J299" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+      <c r="K299" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>32</v>
       </c>
@@ -9890,8 +9895,8 @@
         <v>159</v>
       </c>
       <c r="E300" s="2">
-        <f>1/(2*6.941/(2*6.941+12.012+3*15.999))*0.89</f>
-        <v>4.7372849733467799</v>
+        <f>1/(2*6.941/(2*6.941+12.012+3*15.999))*0.1</f>
+        <v>0.53227921048840221</v>
       </c>
       <c r="F300" t="s">
         <v>160</v>
@@ -9900,142 +9905,136 @@
         <v>161</v>
       </c>
       <c r="H300" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I300" t="s">
         <v>162</v>
       </c>
       <c r="J300" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K300" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" hidden="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>32</v>
       </c>
       <c r="B301" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C301" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D301" t="s">
         <v>159</v>
       </c>
       <c r="E301" s="2">
-        <f>1/(2*6.941/(2*6.941+12.012+3*15.999))*0.1</f>
-        <v>0.53227921048840221</v>
+        <f>1/(1*6.941/(1*6.941+1*1.008+1*15.999))*0.01</f>
+        <v>3.4502233107621384E-2</v>
       </c>
       <c r="F301" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G301" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="H301" t="s">
-        <v>340</v>
+        <v>169</v>
       </c>
       <c r="I301" t="s">
         <v>162</v>
       </c>
       <c r="J301" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K301" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" hidden="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>32</v>
       </c>
-      <c r="B302" t="s">
+      <c r="D302" t="s">
+        <v>11</v>
+      </c>
+      <c r="J302" t="s">
+        <v>333</v>
+      </c>
+      <c r="K302" t="s">
         <v>346</v>
       </c>
-      <c r="C302" t="s">
-        <v>347</v>
-      </c>
-      <c r="D302" t="s">
-        <v>159</v>
-      </c>
-      <c r="E302" s="2">
-        <f>1/(1*6.941/(1*6.941+1*1.008+1*15.999))*0.01</f>
-        <v>3.4502233107621384E-2</v>
-      </c>
-      <c r="F302" t="s">
-        <v>168</v>
-      </c>
-      <c r="G302" t="s">
-        <v>169</v>
-      </c>
-      <c r="H302" t="s">
-        <v>169</v>
-      </c>
-      <c r="I302" t="s">
-        <v>162</v>
-      </c>
-      <c r="J302" t="s">
-        <v>334</v>
-      </c>
-      <c r="K302" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" hidden="1">
+    </row>
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>32</v>
       </c>
       <c r="D303" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="J303" t="s">
-        <v>335</v>
-      </c>
-      <c r="K303" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" hidden="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>32</v>
       </c>
       <c r="D304" t="s">
-        <v>102</v>
+        <v>196</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304" t="s">
+        <v>198</v>
+      </c>
+      <c r="G304" t="s">
+        <v>199</v>
+      </c>
+      <c r="H304" t="s">
+        <v>199</v>
+      </c>
+      <c r="I304" t="s">
+        <v>200</v>
       </c>
       <c r="J304" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D305" t="s">
-        <v>196</v>
-      </c>
-      <c r="E305">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="E305" s="2">
+        <f>1*0.99</f>
+        <v>0.99</v>
       </c>
       <c r="F305" t="s">
-        <v>198</v>
+        <v>348</v>
       </c>
       <c r="G305" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="H305" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="I305" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="J305" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+      <c r="K305" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>33</v>
       </c>
@@ -10043,108 +10042,78 @@
         <v>159</v>
       </c>
       <c r="E306" s="2">
-        <f>1*0.99</f>
-        <v>0.99</v>
+        <f>0.01*1/(1*6.941/(1*6.941+35.453))</f>
+        <v>6.107765451664026E-2</v>
       </c>
       <c r="F306" t="s">
+        <v>349</v>
+      </c>
+      <c r="G306" t="s">
         <v>350</v>
       </c>
-      <c r="G306" t="s">
-        <v>162</v>
-      </c>
       <c r="H306" t="s">
-        <v>162</v>
+        <v>350</v>
       </c>
       <c r="I306" t="s">
         <v>162</v>
       </c>
       <c r="J306" t="s">
-        <v>334</v>
-      </c>
-      <c r="K306" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>33</v>
       </c>
       <c r="D307" t="s">
-        <v>159</v>
-      </c>
-      <c r="E307" s="2">
-        <f>0.01*1/(1*6.941/(1*6.941+35.453))</f>
-        <v>6.107765451664026E-2</v>
-      </c>
-      <c r="F307" t="s">
-        <v>351</v>
-      </c>
-      <c r="G307" t="s">
-        <v>352</v>
-      </c>
-      <c r="H307" t="s">
-        <v>352</v>
-      </c>
-      <c r="I307" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="J307" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11" hidden="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>33</v>
       </c>
       <c r="D308" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="J308" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" hidden="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>33</v>
       </c>
       <c r="D309" t="s">
-        <v>102</v>
+        <v>196</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309" t="s">
+        <v>198</v>
+      </c>
+      <c r="G309" t="s">
+        <v>199</v>
+      </c>
+      <c r="H309" t="s">
+        <v>199</v>
+      </c>
+      <c r="I309" t="s">
+        <v>200</v>
       </c>
       <c r="J309" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" hidden="1">
-      <c r="A310" t="s">
-        <v>33</v>
-      </c>
-      <c r="D310" t="s">
-        <v>196</v>
-      </c>
-      <c r="E310">
-        <v>1</v>
-      </c>
-      <c r="F310" t="s">
-        <v>198</v>
-      </c>
-      <c r="G310" t="s">
-        <v>199</v>
-      </c>
-      <c r="H310" t="s">
-        <v>199</v>
-      </c>
-      <c r="I310" t="s">
-        <v>200</v>
-      </c>
-      <c r="J310" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K310" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:K309" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
       <filters>
-        <filter val="Wind-DDPM"/>
+        <filter val="Yttrium"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/premise/data/metals/activities_mapping.xlsx
+++ b/premise/data/metals/activities_mapping.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7EAD9B-9E6E-444F-8006-7501E7C3F4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664497F5-AE29-47E4-85C0-5108202E4B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1564,7 +1564,7 @@
   <dimension ref="A1:M309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A285" sqref="A285"/>
+      <selection activeCell="E279" sqref="E279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4044,7 +4044,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>128</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>129</v>
@@ -10113,6 +10113,7 @@
   <autoFilter ref="A1:K309" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
+        <filter val="Germanium"/>
         <filter val="Yttrium"/>
       </filters>
     </filterColumn>
